--- a/Advanced/Slides/Lec_DDL.xlsx
+++ b/Advanced/Slides/Lec_DDL.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Advanced/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9412F790-CD78-4D43-8B0B-E283D531F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F1D75-3F4B-F748-BA36-259DAE8E0443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="3" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
     <sheet name="Database" sheetId="8" r:id="rId2"/>
-    <sheet name="SQL Commands" sheetId="17" r:id="rId3"/>
-    <sheet name="DATA TYPE_FUNCTIONS" sheetId="10" r:id="rId4"/>
-    <sheet name="DATE_FUNCTIONS" sheetId="12" r:id="rId5"/>
+    <sheet name="事务" sheetId="18" r:id="rId3"/>
+    <sheet name="SQL Commands" sheetId="17" r:id="rId4"/>
+    <sheet name="DATA TYPE_FUNCTIONS" sheetId="10" r:id="rId5"/>
+    <sheet name="DATE_FUNCTIONS" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="704">
   <si>
     <t>💡技术用语确认/SQL Key words</t>
   </si>
@@ -1380,12 +1381,6 @@
     <t>设置事务中的某个点，以便在需要时回滚。</t>
   </si>
   <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>CREATE</t>
   </si>
   <si>
@@ -1422,9 +1417,6 @@
     <t>FROM table_name</t>
   </si>
   <si>
-    <t>Groups rows that have the same values in specified columns.</t>
-  </si>
-  <si>
     <t>SELECT column1, AGG_FUNCTION(column2)</t>
   </si>
   <si>
@@ -1494,76 +1486,16 @@
     <t>SAVEPOINT</t>
   </si>
   <si>
-    <t>Retrieves data from one or more tables.</t>
-  </si>
-  <si>
-    <t>Adds new rows (records) to a table.</t>
-  </si>
-  <si>
-    <t>Modifies existing data in a table.</t>
-  </si>
-  <si>
-    <t>Removes specific rows from a table.</t>
-  </si>
-  <si>
-    <t>Creates a new table in the database.</t>
-  </si>
-  <si>
-    <t>Modifies the structure of an existing table (e.g., add or remove columns).</t>
-  </si>
-  <si>
-    <t>Permanently deletes a table and its data.</t>
-  </si>
-  <si>
     <t>TRUNCATE TABLE</t>
   </si>
   <si>
-    <t>Removes all rows from a table but keeps its structure intact.</t>
-  </si>
-  <si>
-    <t>Filters records based on a condition.</t>
-  </si>
-  <si>
-    <t>Sorts the result set in ascending or descending order.</t>
-  </si>
-  <si>
-    <t>Filters grouped data (used with GROUP BY).</t>
-  </si>
-  <si>
     <t>JOIN</t>
   </si>
   <si>
-    <t>Combines rows from two or more tables based on a related column.</t>
-  </si>
-  <si>
-    <t>Removes duplicate values from the result set.</t>
-  </si>
-  <si>
     <t>IN / BETWEEN / LIKE</t>
   </si>
   <si>
-    <t>Used for advanced filtering conditions.</t>
-  </si>
-  <si>
     <t>UNION</t>
-  </si>
-  <si>
-    <t>Combines the result of two or more SELECT queries.</t>
-  </si>
-  <si>
-    <t>Gives user privileges or permissions.</t>
-  </si>
-  <si>
-    <t>Removes user privileges.</t>
-  </si>
-  <si>
-    <t>Saves all changes made in the current transaction.</t>
-  </si>
-  <si>
-    <t>Undoes changes if something goes wrong in a transaction.</t>
-  </si>
-  <si>
-    <t>Sets a point in a transaction to roll back to if needed.</t>
   </si>
   <si>
     <t>过滤结果GROUP BY</t>
@@ -2632,6 +2564,1341 @@
         <rFont val="Kai Regular"/>
       </rPr>
       <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>通俗理解</t>
+  </si>
+  <si>
+    <t>如果有“按字母排序的目录”，你就能直接跳到对应的页码，很快就找到。</t>
+  </si>
+  <si>
+    <t>数据库里的索引就是这个“目录”——它帮你快速定位数据所在的位置，而不用全表扫描。</t>
+  </si>
+  <si>
+    <t>数据库中索引的作用</t>
+  </si>
+  <si>
+    <t>常见类型</t>
+  </si>
+  <si>
+    <t>注意事项</t>
+  </si>
+  <si>
+    <r>
+      <t>在数据库里，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>index（索引）相当于书本的“目录”或“索引表”，它的作用是加快数据查询的速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>提高查询速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（尤其是 SELECT 语句）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>加快数据排序和分组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（ORDER BY、GROUP BY）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>帮助快速查找匹配记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（WHERE 条件）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主键索引（Primary Key Index）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：唯一标识每条记录，自动创建。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>唯一索引（Unique Index）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：保证某列的值唯一，例如邮箱、身份证号。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>普通索引（Index）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：用来加速查询，没有唯一性限制。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全文索引（Full-text Index）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：用于搜索文本内容，比如搜索文章中的关键词。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>优点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：查询快。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>缺点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：会占用额外存储空间，插入/更新数据时会变慢（因为要更新索引表）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>建议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：只在经常用于搜索、排序、连接的列上建立索引。</t>
+    </r>
+  </si>
+  <si>
+    <t>假设你有一本 500 页的字典，要找“SQL”这个词，如果没有目录，你只能一页一页翻，非常慢。</t>
+  </si>
+  <si>
+    <t>-- 普通索引</t>
+  </si>
+  <si>
+    <t>-- 唯一索引（保证列唯一）</t>
+  </si>
+  <si>
+    <t>-- 多列组合索引</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">CREATE INDEX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="3"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>idx_students_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>(name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>CREATE UNIQUE INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> idx_students_email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>(email);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">CREATE INDEX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>idx_students_name_age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>name, age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>SELECT name, tbl_name, sql</t>
+  </si>
+  <si>
+    <t>FROM sqlite_master</t>
+  </si>
+  <si>
+    <t>WHERE type = 'index';</t>
+  </si>
+  <si>
+    <t>索引存储位置</t>
+  </si>
+  <si>
+    <t>和数据表一样，索引被存储在 SQLite 数据库文件（例如 mydb.sqlite）中。</t>
+  </si>
+  <si>
+    <t>这些索引结构和表数据结构并列存在于数据库文件中，但用户看不到它们是单独的“表”。</t>
+  </si>
+  <si>
+    <t>1. 为什么用 B-tree？</t>
+  </si>
+  <si>
+    <t>普通列表查找数据时，最坏情况需要看一遍所有数据（O(n) 时间复杂度）。</t>
+  </si>
+  <si>
+    <t>B-tree 像一个“多叉的平衡目录”，查找、插入、删除都只需要 O(log n) 步。</t>
+  </si>
+  <si>
+    <t>2. B-tree 的特点</t>
+  </si>
+  <si>
+    <t>每个节点可以存多个键值（不像二叉树只能有 2 个分支）</t>
+  </si>
+  <si>
+    <t>3. 简化示例</t>
+  </si>
+  <si>
+    <t>假设有数据：[10, 20, 30, 40, 50, 60, 70, 80]</t>
+  </si>
+  <si>
+    <t>B-tree（每个节点最多存 3 个值）可能长这样：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       /    \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10, 20, 30] [50, 60, 70, 80]</t>
+  </si>
+  <si>
+    <t>查找 60：先看 40 → 大于 40，走右分支 → 找到 60</t>
+  </si>
+  <si>
+    <t>查找 20：先看 40 → 小于 40，走左分支 → 找到 20</t>
+  </si>
+  <si>
+    <t>每一步都大大减少了要看的数据量。</t>
+  </si>
+  <si>
+    <t>4. 在 SQLite 中的作用</t>
+  </si>
+  <si>
+    <t>B-tree 节点中保存的是：</t>
+  </si>
+  <si>
+    <t>查找数据时，SQLite 先用 B-tree 找到对应的 ROWID，再去表的 B-tree 中取完整数据。</t>
+  </si>
+  <si>
+    <r>
+      <t>它是 SQLite、MySQL、PostgreSQL 等数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>索引的核心结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>它特别适合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>磁盘存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>，因为每个节点可以包含多个值和多个指针，减少了磁盘读取次数。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>键值有序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>，便于范围查找（如 BETWEEN 查询）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：所有叶子节点都在同一层，查找速度稳定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>节点指针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>指向子节点或数据位置（在 SQLite 里就是数据行的 ROWID）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当你创建一个索引时，SQLite 会用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>B-tree 存储索引键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQLite 会为每个索引分配一个单独的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>B-tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 结构，用来存储索引键值和它对应的数据行位置（ROWID 或主键值）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>B-tree（B 树结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>）是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>平衡树数据结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>，在数据库和文件系统中非常常用，用来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>快速查找、插入和删除数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- 键值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（如 name 列的值）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- 指针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（指向表中对应行的 ROWID）</t>
+    </r>
+  </si>
+  <si>
+    <t>idx_students_name</t>
+  </si>
+  <si>
+    <t>ROW_ID</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idx_students_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idx_students_name_age</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Alice: 1</t>
+  </si>
+  <si>
+    <t>Bob: 2</t>
+  </si>
+  <si>
+    <t>John:3</t>
+  </si>
+  <si>
+    <t>Chris: 4</t>
+  </si>
+  <si>
+    <t>Jerry: 5</t>
+  </si>
+  <si>
+    <t>1. 核心区别</t>
+  </si>
+  <si>
+    <t>对比项</t>
+  </si>
+  <si>
+    <t>关系型数据库（RDB）</t>
+  </si>
+  <si>
+    <t>非关系型数据库（NoSQL）</t>
+  </si>
+  <si>
+    <t>数据存储结构</t>
+  </si>
+  <si>
+    <t>数据关系</t>
+  </si>
+  <si>
+    <t>模式（Schema）</t>
+  </si>
+  <si>
+    <t>查询语言</t>
+  </si>
+  <si>
+    <t>SQL（结构化查询语言）</t>
+  </si>
+  <si>
+    <t>各家数据库自定义 API 或查询语言</t>
+  </si>
+  <si>
+    <t>事务支持</t>
+  </si>
+  <si>
+    <t>强事务（ACID）</t>
+  </si>
+  <si>
+    <t>一般弱事务（BASE），部分支持强事务</t>
+  </si>
+  <si>
+    <t>扩展方式</t>
+  </si>
+  <si>
+    <t>垂直扩展（加大单机性能）为主</t>
+  </si>
+  <si>
+    <t>水平扩展（增加节点）为主</t>
+  </si>
+  <si>
+    <t>适合场景</t>
+  </si>
+  <si>
+    <t>数据结构稳定、关系复杂的系统</t>
+  </si>
+  <si>
+    <t>数据结构多变、读写量大、可扩展性强的系统</t>
+  </si>
+  <si>
+    <t>常见产品</t>
+  </si>
+  <si>
+    <t>MySQL、PostgreSQL、Oracle、SQLite</t>
+  </si>
+  <si>
+    <t>MongoDB、Redis、Cassandra、Neo4j</t>
+  </si>
+  <si>
+    <t>2. 生活化类比</t>
+  </si>
+  <si>
+    <t>3. 场景举例</t>
+  </si>
+  <si>
+    <t>银行系统（账户转账必须精确）</t>
+  </si>
+  <si>
+    <t>电商订单系统（订单、用户、商品表有严格关系）</t>
+  </si>
+  <si>
+    <t>学校教务系统（学生、课程、成绩有关系）</t>
+  </si>
+  <si>
+    <t>社交媒体（用户资料结构差异大，内容类型多）</t>
+  </si>
+  <si>
+    <t>实时聊天（Redis 做缓存和消息队列）</t>
+  </si>
+  <si>
+    <t>物联网设备数据（传感器数据格式多变）</t>
+  </si>
+  <si>
+    <t>4. 混合使用</t>
+  </si>
+  <si>
+    <t>MySQL（关系型）存业务核心数据</t>
+  </si>
+  <si>
+    <t>Redis（非关系型）做缓存和快速访问</t>
+  </si>
+  <si>
+    <t>MongoDB（非关系型）存日志、图片元数据等非结构化内容</t>
+  </si>
+  <si>
+    <r>
+      <t>关系型数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">：像 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 表格，每个工作表是一个表格（table），列的类型固定（比如“姓名”必须是文本），不同表格之间可以用 ID 建立关联。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非关系型数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">：像一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>，里面放了各种格式的文件（文档、图片、JSON），没有固定的列结构，你想加什么内容就加什么。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>关系型数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（适合结构稳定 + 强一致性）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非关系型数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（适合高并发 + 灵活数据）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>现在很多项目会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>混合用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>表格（Table），行和列固定</t>
+  </si>
+  <si>
+    <t>键值对 / 文档 / 列族 / 图 等多种结构</t>
+  </si>
+  <si>
+    <t>表与表之间通过主键-外键建立关系</t>
+  </si>
+  <si>
+    <t>没有固定关系，通常是嵌套数据或分散存储</t>
+  </si>
+  <si>
+    <t>固定模式，必须先定义表结构</t>
+  </si>
+  <si>
+    <t>灵活模式，可以随时改变字段</t>
+  </si>
+  <si>
+    <t>1. 常见的关系型数据库（Relational Databases）</t>
+  </si>
+  <si>
+    <t>开源</t>
+  </si>
+  <si>
+    <t>MariaDB</t>
+  </si>
+  <si>
+    <t>商业</t>
+  </si>
+  <si>
+    <t>Oracle Database</t>
+  </si>
+  <si>
+    <t>IBM Db2</t>
+  </si>
+  <si>
+    <t>2. 常见的非关系型数据库（NoSQL Databases）</t>
+  </si>
+  <si>
+    <t>特点：不固定表结构，数据存储灵活，支持多种数据模型（键值对、文档、列族、图形等）。</t>
+  </si>
+  <si>
+    <t>(1) 键值型（Key-Value）</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB</t>
+  </si>
+  <si>
+    <t>Riak KV</t>
+  </si>
+  <si>
+    <t>(2) 文档型（Document-Oriented）</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>CouchDB</t>
+  </si>
+  <si>
+    <t>Amazon DocumentDB</t>
+  </si>
+  <si>
+    <t>(3) 列族型（Column-Family）</t>
+  </si>
+  <si>
+    <t>Apache Cassandra</t>
+  </si>
+  <si>
+    <t>HBase (Hadoop Database)</t>
+  </si>
+  <si>
+    <t>ScyllaDB</t>
+  </si>
+  <si>
+    <t>(4) 图数据库（Graph Database）</t>
+  </si>
+  <si>
+    <t>Neo4j</t>
+  </si>
+  <si>
+    <t>Amazon Neptune</t>
+  </si>
+  <si>
+    <t>ArangoDB</t>
+  </si>
+  <si>
+    <r>
+      <t>关系型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：MySQL、PostgreSQL、Oracle（表格结构 + SQL）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非关系型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>键值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> → Redis、DynamoDB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> → MongoDB、CouchDB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>列族</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> → Cassandra、HBase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>图形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> → Neo4j、ArangoDB</t>
+    </r>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t>1. 四个字母代表的含义</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>全称</t>
+  </si>
+  <si>
+    <t>中文含义</t>
+  </si>
+  <si>
+    <t>举例说明</t>
+  </si>
+  <si>
+    <t>Atomicity</t>
+  </si>
+  <si>
+    <t>原子性</t>
+  </si>
+  <si>
+    <t>要么全部成功，要么全部失败。例：转账时，从 A 扣钱和给 B 加钱是一个事务，不能只执行一半。</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>一致性</t>
+  </si>
+  <si>
+    <t>事务执行前后，数据必须满足所有规则和约束。例：银行账户总余额不能凭空增加或减少。</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>隔离性</t>
+  </si>
+  <si>
+    <t>并发事务之间互不干扰，避免读到中间结果。例：两个人同时订票，不能卖出多于总座位的票。</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>持久性</t>
+  </si>
+  <si>
+    <t>一旦事务提交，数据永久保存，即使断电也不会丢失。例：转账完成并显示“成功”后，重启服务器钱也不会消失。</t>
+  </si>
+  <si>
+    <t>2. 生活化比喻</t>
+  </si>
+  <si>
+    <t>想象你在餐厅点餐：</t>
+  </si>
+  <si>
+    <t>3. 在数据库中的作用</t>
+  </si>
+  <si>
+    <r>
+      <t>ACID 是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>关系型数据库事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>必须满足的四个关键特性，它保证了数据在并发操作、系统故障等情况下依然可靠、正确。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A（原子性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：厨房要么把所有菜都端上来，要么一盘都不上，不会只端一半。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C（一致性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：菜单和账单必须对得上，不会凭空加菜或少菜。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I（隔离性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：你的点餐过程不会被隔壁桌的客人打乱。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D（持久性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：一旦账单确认并保存，即使停电也能查到。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACID 是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>关系型数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>（如 MySQL、PostgreSQL、Oracle）事务设计的核心。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非关系型数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">（如 MongoDB、Redis）通常不完全支持 ACID，而是采用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>BASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 模型，更追求性能和可扩展性。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特点：基于表结构（行、列）、使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0E0E0E"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0E0E0E"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 查询、支持 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>ACID 事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0E0E0E"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
 </sst>
@@ -2639,7 +3906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54">
+  <fonts count="65">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2951,8 +4218,71 @@
       <sz val="18"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="5"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="3"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="4"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="8"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="5"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0E0E0E"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0E0E0E"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Kai Regular"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3004,6 +4334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3153,7 +4489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3249,34 +4585,11 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,9 +4604,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3303,21 +4613,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3343,13 +4644,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3359,6 +4659,68 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3568,8 +4930,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1044102</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382081</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>54454</xdr:rowOff>
     </xdr:to>
@@ -3612,8 +4974,8 @@
       <xdr:rowOff>162127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1138676</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476655</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>42914</xdr:rowOff>
     </xdr:to>
@@ -3656,8 +5018,8 @@
       <xdr:rowOff>148617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1084634</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>422613</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>289273</xdr:rowOff>
     </xdr:to>
@@ -3700,10 +5062,10 @@
       <xdr:rowOff>202660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1179209</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>517188</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>37490</xdr:rowOff>
+      <xdr:rowOff>23979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3736,6 +5098,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1040319</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>208614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC277D6-BB86-6FD1-6693-F3E28B73C9AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1405106" y="15780426"/>
+          <a:ext cx="7772400" cy="4369890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3749,8 +5155,8 @@
       <xdr:rowOff>277120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2294741</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91260</xdr:rowOff>
     </xdr:to>
@@ -3778,6 +5184,182 @@
         <a:xfrm>
           <a:off x="26407532" y="277120"/>
           <a:ext cx="9025468" cy="7357940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>573549</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>286773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1272186</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>172216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52B61AA-475E-24EE-2D9B-866DE9EE72D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26943119" y="54787526"/>
+          <a:ext cx="7772400" cy="3982217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2936021</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>286773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1829892</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>249015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5136B3-58DC-A25F-9A3E-BB7068529E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524408" y="71857418"/>
+          <a:ext cx="7510753" cy="4741812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5598925</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>218495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4284543</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>52849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E196E7-F526-73B8-A116-534C389866B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10187312" y="50281076"/>
+          <a:ext cx="7302500" cy="8369300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>300430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1286399</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>191183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73168EDE-B053-2477-3C14-C122FD1F434C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242688" y="78016236"/>
+          <a:ext cx="13248980" cy="5011721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4632,12 +6214,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29EFB82-9458-7E4B-85AD-45325EE207BE}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="88" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C44" zoomScale="88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4792,7 +6371,7 @@
       <c r="C17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="103"/>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="8" t="s">
@@ -4804,7 +6383,7 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="103"/>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="8" t="s">
@@ -4816,7 +6395,7 @@
       <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="103"/>
     </row>
     <row r="20" spans="1:4" ht="30">
       <c r="A20" s="8" t="s">
@@ -4828,7 +6407,7 @@
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="103"/>
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="A21" s="8" t="s">
@@ -4840,7 +6419,7 @@
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="103"/>
     </row>
     <row r="22" spans="1:4" ht="30">
       <c r="A22" s="8" t="s">
@@ -4852,7 +6431,7 @@
       <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="103"/>
     </row>
     <row r="23" spans="1:4" ht="30">
       <c r="A23" s="8" t="s">
@@ -4864,7 +6443,7 @@
       <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="103"/>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="53" t="s">
@@ -4876,7 +6455,7 @@
       <c r="C24" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="103"/>
     </row>
     <row r="25" spans="1:4" ht="30">
       <c r="A25" s="8" t="s">
@@ -4888,7 +6467,7 @@
       <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="8" t="s">
@@ -4900,7 +6479,7 @@
       <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="103"/>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="53" t="s">
@@ -4912,7 +6491,7 @@
       <c r="C27" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="103"/>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="55" t="s">
@@ -4924,7 +6503,7 @@
       <c r="C28" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="103"/>
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" s="55" t="s">
@@ -4936,7 +6515,7 @@
       <c r="C29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="103"/>
     </row>
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="57" t="s">
@@ -4948,7 +6527,7 @@
       <c r="C30" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="103"/>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="57" t="s">
@@ -4960,7 +6539,7 @@
       <c r="C31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="103"/>
     </row>
     <row r="32" spans="1:4" ht="30">
       <c r="A32" s="57" t="s">
@@ -4972,7 +6551,7 @@
       <c r="C32" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="103"/>
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33" s="57" t="s">
@@ -4984,7 +6563,7 @@
       <c r="C33" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="41" spans="1:8" ht="27">
       <c r="A41" s="2" t="s">
@@ -5109,10 +6688,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EC6ABD-0E1E-7241-A025-789C197C5335}">
-  <dimension ref="A1:E89"/>
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5123,12 +6705,14 @@
     <col min="4" max="4" width="72.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="11"/>
     <col min="6" max="6" width="17.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="78" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.83203125" style="11"/>
-    <col min="14" max="14" width="9.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="11"/>
+    <col min="7" max="8" width="8.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="57.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="63" style="11" customWidth="1"/>
+    <col min="14" max="46" width="8.6640625" style="11" customWidth="1"/>
+    <col min="47" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="25">
@@ -5233,7 +6817,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="101" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -5244,7 +6828,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="101" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5255,7 +6839,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="102" t="s">
         <v>116</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5266,7 +6850,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="101" t="s">
         <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -5277,7 +6861,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="101" t="s">
         <v>120</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -5287,25 +6871,572 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="97" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="97" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="97" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="97" t="s">
-        <v>495</v>
-      </c>
+    <row r="34" spans="10:13">
+      <c r="J34" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13">
+      <c r="K36" s="127" t="s">
+        <v>599</v>
+      </c>
+      <c r="L36" s="127" t="s">
+        <v>600</v>
+      </c>
+      <c r="M36" s="127" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13">
+      <c r="K37" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13">
+      <c r="K38" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13">
+      <c r="K39" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13">
+      <c r="K40" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13">
+      <c r="K41" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13">
+      <c r="K42" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13">
+      <c r="K43" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13">
+      <c r="K44" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13">
+      <c r="J46" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13">
+      <c r="K48" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11">
+      <c r="E50" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11">
+      <c r="J53" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11">
+      <c r="K55" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11">
+      <c r="E57" s="84" t="s">
+        <v>470</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11">
+      <c r="K59" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11">
+      <c r="K61" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11">
+      <c r="K64" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="K66" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="K68" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="K70" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" s="128" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="J73" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="E74" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="B78" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="K80" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="B82" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="B83" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="B84" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="B87" s="128" t="s">
+        <v>650</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="E89" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+    </row>
+    <row r="90" spans="1:13" ht="24">
+      <c r="B90" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="J90" s="123"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="B91" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="B92" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="J92" s="115"/>
+      <c r="K92" s="115"/>
+      <c r="L92" s="115"/>
+      <c r="M92" s="115"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="J93" s="115"/>
+      <c r="K93"/>
+      <c r="L93" s="115"/>
+      <c r="M93"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="J94" s="115"/>
+      <c r="K94"/>
+      <c r="L94" s="115"/>
+      <c r="M94"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="B95" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="J95" s="115"/>
+      <c r="K95"/>
+      <c r="L95" s="115"/>
+      <c r="M95"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="B96" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="J96" s="115"/>
+      <c r="K96"/>
+      <c r="L96" s="115"/>
+      <c r="M96"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="B97" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+    </row>
+    <row r="100" spans="1:13" ht="24">
+      <c r="B100" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="J100" s="123"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="B101" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="B102" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="B105" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="J105" s="115"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="B106" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="B107" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="J107" s="115"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="J109" s="115"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="B110" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="B111" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="J111" s="115"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="B112" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="2:13">
+      <c r="B113" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+    </row>
+    <row r="114" spans="2:13">
+      <c r="B114" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+    </row>
+    <row r="115" spans="2:13" ht="24">
+      <c r="B115" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="J115" s="123"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+    </row>
+    <row r="116" spans="2:13">
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="J119" s="115"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5314,15 +7445,289 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989E45A-4984-0F42-A944-8E657A00C60D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="159.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23">
+      <c r="A1" s="130" t="s">
+        <v>696</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+    </row>
+    <row r="2" spans="1:5" ht="23">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+    </row>
+    <row r="3" spans="1:5" ht="23">
+      <c r="A3" s="129" t="s">
+        <v>674</v>
+      </c>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+    </row>
+    <row r="4" spans="1:5" ht="23">
+      <c r="A4" s="130"/>
+      <c r="B4" s="133" t="s">
+        <v>675</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>676</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>677</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23">
+      <c r="B5" s="131" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>679</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>680</v>
+      </c>
+      <c r="E5" s="132" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23">
+      <c r="A6" s="130"/>
+      <c r="B6" s="131" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="132" t="s">
+        <v>682</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>683</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23">
+      <c r="B7" s="131" t="s">
+        <v>685</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>686</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23">
+      <c r="B8" s="131" t="s">
+        <v>689</v>
+      </c>
+      <c r="C8" s="132" t="s">
+        <v>690</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>691</v>
+      </c>
+      <c r="E8" s="132" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23">
+      <c r="A12" s="129" t="s">
+        <v>693</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+    </row>
+    <row r="13" spans="1:5" ht="23">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130" t="s">
+        <v>694</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+    </row>
+    <row r="14" spans="1:5" ht="23">
+      <c r="B14" s="130"/>
+      <c r="C14" s="129" t="s">
+        <v>697</v>
+      </c>
+      <c r="D14" s="130"/>
+    </row>
+    <row r="15" spans="1:5" ht="23">
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="129" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" s="130"/>
+    </row>
+    <row r="16" spans="1:5" ht="23">
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="129" t="s">
+        <v>699</v>
+      </c>
+      <c r="D16" s="130"/>
+    </row>
+    <row r="17" spans="1:4" ht="23">
+      <c r="B17" s="130"/>
+      <c r="C17" s="129" t="s">
+        <v>700</v>
+      </c>
+      <c r="D17" s="130"/>
+    </row>
+    <row r="18" spans="1:4" ht="23">
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+    </row>
+    <row r="19" spans="1:4" ht="23">
+      <c r="A19" s="129" t="s">
+        <v>695</v>
+      </c>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+    </row>
+    <row r="20" spans="1:4" ht="23">
+      <c r="B20" s="130" t="s">
+        <v>701</v>
+      </c>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+    </row>
+    <row r="21" spans="1:4" ht="23">
+      <c r="B21" s="129" t="s">
+        <v>702</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+    </row>
+    <row r="22" spans="1:4" ht="23">
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+    </row>
+    <row r="23" spans="1:4" ht="23">
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+    </row>
+    <row r="24" spans="1:4" ht="23">
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+    </row>
+    <row r="25" spans="1:4" ht="23">
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+    </row>
+    <row r="26" spans="1:4" ht="23">
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+    </row>
+    <row r="27" spans="1:4" ht="23">
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+    </row>
+    <row r="28" spans="1:4" ht="23">
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+    </row>
+    <row r="29" spans="1:4" ht="23">
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+    </row>
+    <row r="30" spans="1:4" ht="23">
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="130"/>
+    </row>
+    <row r="31" spans="1:4" ht="23">
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+    </row>
+    <row r="32" spans="1:4" ht="23">
+      <c r="A32" s="130"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+    </row>
+    <row r="33" spans="1:4" ht="23">
+      <c r="A33" s="130"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+    </row>
+    <row r="34" spans="1:4" ht="23">
+      <c r="A34" s="130"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+    </row>
+    <row r="35" spans="1:4" ht="23">
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+    </row>
+    <row r="36" spans="1:4" ht="23">
+      <c r="A36" s="130"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6DF952-4A74-C84A-9342-CA82A4CB8675}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:W134"/>
+  <dimension ref="A1:X234"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
@@ -5330,16 +7735,34 @@
     <col min="2" max="2" width="49.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="113" style="3" customWidth="1"/>
     <col min="4" max="4" width="135.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="31.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="3"/>
+    <col min="16" max="16" width="13.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="3"/>
+    <col min="18" max="18" width="43.5" style="3" customWidth="1"/>
+    <col min="19" max="20" width="10.83203125" style="3"/>
+    <col min="21" max="21" width="36" style="3" customWidth="1"/>
+    <col min="22" max="22" width="38.83203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="43.5" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="60" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5354,49 +7777,49 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="60" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68" t="s">
-        <v>470</v>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="98" t="s">
-        <v>496</v>
-      </c>
-      <c r="C9" s="99"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="85" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" s="86"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68" t="s">
-        <v>471</v>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68" t="s">
-        <v>472</v>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68" t="s">
-        <v>473</v>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="63" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="67" t="s">
-        <v>497</v>
+      <c r="A15" s="60" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5405,1076 +7828,1533 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="59" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>480</v>
+      </c>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>478</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="74" t="s">
-        <v>500</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="J20" s="69"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21" s="73" t="s">
+      <c r="C22" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="J22" s="62"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="C21" s="74" t="s">
-        <v>501</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>502</v>
-      </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="B22" s="73" t="s">
+      <c r="C23" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>484</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="C22" s="74" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>505</v>
-      </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="B23" s="73" t="s">
+      <c r="C24" s="65" t="s">
+        <v>475</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="J24" s="62"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="C23" s="74" t="s">
-        <v>506</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>507</v>
-      </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="B24" s="73" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>498</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>508</v>
-      </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="B25" s="73" t="s">
-        <v>411</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>509</v>
-      </c>
-      <c r="J25" s="69"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="C25" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>486</v>
+      </c>
+      <c r="J25" s="62"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="59" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="67" t="s">
-        <v>510</v>
+      <c r="A30" s="60" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="59" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="K38" s="60"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="104" t="s">
+        <v>411</v>
+      </c>
+      <c r="C39" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="D39" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="K38" s="67"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="B39" s="91" t="s">
+      <c r="K39" s="105"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="104"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="C39" s="81" t="s">
-        <v>467</v>
-      </c>
-      <c r="D39" s="77" t="s">
+      <c r="K40" s="105"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="K39" s="70"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="91"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="78" t="s">
+      <c r="C41" s="108" t="s">
+        <v>445</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="K41" s="105"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="104"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K40" s="70"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="B41" s="91" t="s">
-        <v>416</v>
-      </c>
-      <c r="C41" s="81" t="s">
-        <v>468</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>414</v>
-      </c>
-      <c r="K41" s="70"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="B42" s="91"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="79" t="s">
-        <v>417</v>
-      </c>
-      <c r="K42" s="70"/>
+      <c r="K42" s="105"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="78" t="s">
-        <v>516</v>
-      </c>
-      <c r="K43" s="70"/>
+        <v>440</v>
+      </c>
+      <c r="B43" s="104"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="69" t="s">
+        <v>493</v>
+      </c>
+      <c r="K43" s="105"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B44" s="91" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="108" t="s">
         <v>366</v>
       </c>
-      <c r="D44" s="77" t="s">
-        <v>515</v>
-      </c>
-      <c r="K44" s="70"/>
+      <c r="D44" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="K44" s="105"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="91"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="79" t="s">
+      <c r="B45" s="104"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="K45" s="105"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="104"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="69" t="s">
         <v>417</v>
       </c>
-      <c r="K45" s="70"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="91"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="78" t="s">
+      <c r="K46" s="105"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="104" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" s="105"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="104"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" s="105"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" s="104"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="K49" s="105"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" s="104"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="69" t="s">
+        <v>494</v>
+      </c>
+      <c r="K50" s="105"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>490</v>
+      </c>
+      <c r="K51" s="105"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="104"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="K52" s="105"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="B53" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="K53" s="105"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" s="104"/>
+      <c r="C54" s="75" t="s">
+        <v>491</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="K54" s="105"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55" s="104"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="K46" s="70"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="91" t="s">
+      <c r="K55" s="105"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" s="78" t="s">
         <v>421</v>
       </c>
-      <c r="C47" s="81" t="s">
-        <v>466</v>
-      </c>
-      <c r="D47" s="77" t="s">
-        <v>419</v>
-      </c>
-      <c r="K47" s="70"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="B48" s="91"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="79" t="s">
-        <v>417</v>
-      </c>
-      <c r="K48" s="70"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="B49" s="91"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="79" t="s">
+      <c r="C56" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="D56" s="65" t="s">
         <v>422</v>
       </c>
-      <c r="K49" s="70"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="B50" s="91"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="K50" s="70"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="B51" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="82" t="s">
-        <v>469</v>
-      </c>
-      <c r="D51" s="77" t="s">
-        <v>513</v>
-      </c>
-      <c r="K51" s="70"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="B52" s="91"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="78" t="s">
-        <v>415</v>
-      </c>
-      <c r="K52" s="70"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="B53" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="86" t="s">
-        <v>367</v>
-      </c>
-      <c r="D53" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="K53" s="70"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="B54" s="91"/>
-      <c r="C54" s="87" t="s">
-        <v>514</v>
-      </c>
-      <c r="D54" s="79" t="s">
-        <v>417</v>
-      </c>
-      <c r="K54" s="70"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55" s="91"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="K55" s="70"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="B56" s="90" t="s">
-        <v>424</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>476</v>
-      </c>
-      <c r="D56" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="K56" s="67"/>
+      <c r="K56" s="60"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="59" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="3" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="3" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="3" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="59" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="C64" s="76" t="s">
+      <c r="C64" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D64" s="76" t="s">
+      <c r="D64" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="B65" s="94" t="s">
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="B65" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="D65" s="74" t="s">
-        <v>519</v>
-      </c>
-      <c r="K65" s="67"/>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="B66" s="94" t="s">
+      <c r="D65" s="65" t="s">
+        <v>496</v>
+      </c>
+      <c r="K65" s="60"/>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="B66" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="D66" s="74" t="s">
-        <v>520</v>
-      </c>
-      <c r="K66" s="67"/>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="B67" s="94" t="s">
+      <c r="D66" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="K66" s="60"/>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="B67" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="D67" s="74" t="s">
-        <v>521</v>
-      </c>
-      <c r="K67" s="67"/>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="B68" s="94" t="s">
+      <c r="D67" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="K67" s="60"/>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="B68" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="C68" s="87" t="s">
+        <v>373</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="K68" s="60"/>
+      <c r="Q68" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="B69" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="C69" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="C68" s="100" t="s">
-        <v>373</v>
-      </c>
-      <c r="D68" s="74" t="s">
+      <c r="K69" s="60"/>
+      <c r="Q69" s="88"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
+      <c r="W69" s="89"/>
+      <c r="X69" s="90"/>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="B70" s="81" t="s">
         <v>427</v>
       </c>
-      <c r="K68" s="67"/>
-      <c r="Q68" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
-      <c r="B69" s="94" t="s">
+      <c r="C70" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="C69" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="D69" s="74" t="s">
+      <c r="K70" s="60"/>
+      <c r="Q70" s="91"/>
+      <c r="X70" s="92"/>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="Q71" s="91"/>
+      <c r="X71" s="92"/>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="Q72" s="91"/>
+      <c r="T72" s="93" t="s">
+        <v>501</v>
+      </c>
+      <c r="X72" s="92"/>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q73" s="91"/>
+      <c r="X73" s="92"/>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74" s="60"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="X74" s="92"/>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q75" s="91"/>
+      <c r="X75" s="92"/>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="Q76" s="91"/>
+      <c r="T76" s="96" t="s">
+        <v>502</v>
+      </c>
+      <c r="X76" s="92"/>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q77" s="91"/>
+      <c r="X77" s="92"/>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="B78" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
+      <c r="Q78" s="91"/>
+      <c r="T78" s="97" t="s">
+        <v>503</v>
+      </c>
+      <c r="W78" s="94"/>
+      <c r="X78" s="92"/>
+    </row>
+    <row r="79" spans="1:24" ht="74" customHeight="1">
+      <c r="B79" s="78" t="s">
         <v>429</v>
       </c>
-      <c r="K69" s="67"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="102"/>
-      <c r="S69" s="102"/>
-      <c r="T69" s="102"/>
-      <c r="U69" s="102"/>
-      <c r="V69" s="102"/>
-      <c r="W69" s="103"/>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="B70" s="94" t="s">
+      <c r="C79" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="D79" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="C70" s="100" t="s">
-        <v>375</v>
-      </c>
-      <c r="D70" s="74" t="s">
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="Q79" s="98"/>
+      <c r="R79" s="99"/>
+      <c r="S79" s="99"/>
+      <c r="T79" s="99"/>
+      <c r="U79" s="99"/>
+      <c r="V79" s="99"/>
+      <c r="W79" s="99"/>
+      <c r="X79" s="100"/>
+    </row>
+    <row r="80" spans="1:24" ht="77" customHeight="1">
+      <c r="B80" s="78" t="s">
         <v>431</v>
       </c>
-      <c r="K70" s="67"/>
-      <c r="Q70" s="104"/>
-      <c r="R70" s="105"/>
-      <c r="S70" s="105"/>
-      <c r="T70" s="105"/>
-      <c r="U70" s="105"/>
-      <c r="V70" s="105"/>
-      <c r="W70" s="106"/>
-    </row>
-    <row r="71" spans="1:23">
-      <c r="Q71" s="104"/>
-      <c r="R71" s="105"/>
-      <c r="S71" s="105"/>
-      <c r="T71" s="105"/>
-      <c r="U71" s="105"/>
-      <c r="V71" s="105"/>
-      <c r="W71" s="106"/>
-    </row>
-    <row r="72" spans="1:23">
-      <c r="Q72" s="104"/>
-      <c r="R72" s="105"/>
-      <c r="S72" s="107" t="s">
-        <v>524</v>
-      </c>
-      <c r="T72" s="105"/>
-      <c r="U72" s="105"/>
-      <c r="V72" s="105"/>
-      <c r="W72" s="106"/>
-    </row>
-    <row r="73" spans="1:23">
-      <c r="A73" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q73" s="104"/>
-      <c r="R73" s="105"/>
-      <c r="S73" s="105"/>
-      <c r="T73" s="105"/>
-      <c r="U73" s="105"/>
-      <c r="V73" s="105"/>
-      <c r="W73" s="106"/>
-    </row>
-    <row r="74" spans="1:23">
-      <c r="A74" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B74" s="67"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="108"/>
-      <c r="S74" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="T74" s="105"/>
-      <c r="U74" s="105"/>
-      <c r="V74" s="105"/>
-      <c r="W74" s="106"/>
-    </row>
-    <row r="75" spans="1:23">
-      <c r="A75" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q75" s="104"/>
-      <c r="R75" s="105"/>
-      <c r="S75" s="105"/>
-      <c r="T75" s="105"/>
-      <c r="U75" s="105"/>
-      <c r="V75" s="105"/>
-      <c r="W75" s="106"/>
-    </row>
-    <row r="76" spans="1:23">
-      <c r="Q76" s="104"/>
-      <c r="R76" s="105"/>
-      <c r="S76" s="110" t="s">
-        <v>525</v>
-      </c>
-      <c r="T76" s="105"/>
-      <c r="U76" s="105"/>
-      <c r="V76" s="105"/>
-      <c r="W76" s="106"/>
-    </row>
-    <row r="77" spans="1:23">
-      <c r="A77" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q77" s="104"/>
-      <c r="R77" s="105"/>
-      <c r="S77" s="105"/>
-      <c r="T77" s="105"/>
-      <c r="U77" s="105"/>
-      <c r="V77" s="105"/>
-      <c r="W77" s="106"/>
-    </row>
-    <row r="78" spans="1:23">
-      <c r="B78" s="93" t="s">
-        <v>360</v>
-      </c>
-      <c r="C78" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="D78" s="93" t="s">
-        <v>362</v>
-      </c>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="66"/>
-      <c r="Q78" s="104"/>
-      <c r="R78" s="105"/>
-      <c r="S78" s="111" t="s">
-        <v>526</v>
-      </c>
-      <c r="T78" s="105"/>
-      <c r="U78" s="105"/>
-      <c r="V78" s="108"/>
-      <c r="W78" s="106"/>
-    </row>
-    <row r="79" spans="1:23" ht="74" customHeight="1">
-      <c r="B79" s="90" t="s">
+      <c r="C80" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="D80" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="C79" s="80" t="s">
-        <v>378</v>
-      </c>
-      <c r="D79" s="95" t="s">
-        <v>433</v>
-      </c>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="Q79" s="112"/>
-      <c r="R79" s="113"/>
-      <c r="S79" s="113"/>
-      <c r="T79" s="113"/>
-      <c r="U79" s="113"/>
-      <c r="V79" s="113"/>
-      <c r="W79" s="114"/>
-    </row>
-    <row r="80" spans="1:23" ht="77" customHeight="1">
-      <c r="B80" s="90" t="s">
-        <v>434</v>
-      </c>
-      <c r="C80" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="D80" s="95" t="s">
-        <v>435</v>
-      </c>
-      <c r="J80" s="67"/>
-      <c r="K80" s="67"/>
-      <c r="L80" s="67"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="66" t="s">
-        <v>523</v>
+      <c r="A85" s="59" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B86" s="67"/>
+        <v>457</v>
+      </c>
+      <c r="B86" s="60"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B87" s="67"/>
+        <v>459</v>
+      </c>
+      <c r="B87" s="60"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B88" s="67"/>
+        <v>458</v>
+      </c>
+      <c r="B88" s="60"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="B89" s="67"/>
+      <c r="B89" s="60"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="59" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D91" s="76" t="s">
+      <c r="D91" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="M91" s="66"/>
-      <c r="N91" s="66"/>
-      <c r="O91" s="66"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="B92" s="89" t="s">
+      <c r="B92" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="D92" s="65" t="s">
+        <v>507</v>
+      </c>
+      <c r="N92" s="60"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="B93" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="D93" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="N93" s="60"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="B94" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="C92" s="74" t="s">
+      <c r="C94" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D94" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="N94" s="60"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="B95" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="C95" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="N95" s="60"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="60" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="B102" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="B103" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="B104" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="B105" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="B106" s="134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="B107" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="B108" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="B109" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="J109" s="60"/>
+      <c r="K109" s="60"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="B110" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="C110" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="J110" s="60"/>
+      <c r="K110" s="60"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="B111" s="76" t="s">
+        <v>414</v>
+      </c>
+      <c r="C111" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="J111" s="60"/>
+      <c r="K111" s="60"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="B112" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="J112" s="60"/>
+      <c r="K112" s="60"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="B113" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="B114" s="76" t="s">
+        <v>418</v>
+      </c>
+      <c r="C114" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="B115" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="C115" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="B116" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="J116" s="60"/>
+      <c r="K116" s="60"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="B117" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="C117" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="B118" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="C118" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="J118" s="60"/>
+      <c r="K118" s="60"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="B119" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="C119" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="J119" s="60"/>
+      <c r="K119" s="60"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="B120" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="C120" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="J120" s="60"/>
+      <c r="K120" s="60"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="C121" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="B122" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="C122" s="65" t="s">
+        <v>460</v>
+      </c>
+      <c r="J122" s="60"/>
+      <c r="K122" s="60"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="B123" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="C123" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126" s="61"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="83" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="B128" s="61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" s="61" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="B130" s="61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131" s="61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="B132" s="61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="C133" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="C134" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="83" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="83"/>
+      <c r="B140" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="B143" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="B145" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="B146" s="11"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E148" s="122" t="s">
+        <v>549</v>
+      </c>
+      <c r="L148" s="122" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="B149" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="B150" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="E150" s="125" t="s">
+        <v>584</v>
+      </c>
+      <c r="F150" s="121" t="s">
+        <v>537</v>
+      </c>
+      <c r="G150" s="121" t="s">
+        <v>538</v>
+      </c>
+      <c r="H150" s="121" t="s">
+        <v>539</v>
+      </c>
+      <c r="I150" s="121" t="s">
+        <v>592</v>
+      </c>
+      <c r="J150" s="121" t="s">
+        <v>540</v>
+      </c>
+      <c r="L150" s="126" t="s">
+        <v>583</v>
+      </c>
+      <c r="M150" s="126" t="s">
+        <v>590</v>
+      </c>
+      <c r="N150" s="126" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="B151" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E151" s="125">
+        <v>1</v>
+      </c>
+      <c r="F151" s="120" t="s">
+        <v>585</v>
+      </c>
+      <c r="G151" s="120" t="s">
+        <v>541</v>
+      </c>
+      <c r="H151" s="120">
+        <v>18</v>
+      </c>
+      <c r="I151" s="120" t="str">
+        <f>G151&amp;"@climbai.com"</f>
+        <v>Alice@climbai.com</v>
+      </c>
+      <c r="J151" s="120" t="s">
+        <v>546</v>
+      </c>
+      <c r="L151" s="119" t="s">
+        <v>593</v>
+      </c>
+      <c r="M151" s="119" t="str">
+        <f>I151&amp;" :"&amp;E151</f>
+        <v>Alice@climbai.com :1</v>
+      </c>
+      <c r="N151" s="119" t="str">
+        <f>G151&amp;", "&amp;H151&amp;": "&amp;E151</f>
+        <v>Alice, 18: 1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="B152" s="11"/>
+      <c r="E152" s="125">
+        <v>2</v>
+      </c>
+      <c r="F152" s="120" t="s">
+        <v>586</v>
+      </c>
+      <c r="G152" s="120" t="s">
+        <v>542</v>
+      </c>
+      <c r="H152" s="120">
+        <v>17</v>
+      </c>
+      <c r="I152" s="120" t="str">
+        <f t="shared" ref="I152:I155" si="0">G152&amp;"@climbai.com"</f>
+        <v>Bob@climbai.com</v>
+      </c>
+      <c r="J152" s="120" t="s">
+        <v>547</v>
+      </c>
+      <c r="L152" s="119" t="s">
+        <v>594</v>
+      </c>
+      <c r="M152" s="119" t="str">
+        <f t="shared" ref="M152:M155" si="1">I152&amp;" :"&amp;E152</f>
+        <v>Bob@climbai.com :2</v>
+      </c>
+      <c r="N152" s="119" t="str">
+        <f t="shared" ref="N152:N155" si="2">G152&amp;", "&amp;H152&amp;": "&amp;E152</f>
+        <v>Bob, 17: 2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="E153" s="125">
+        <v>3</v>
+      </c>
+      <c r="F153" s="120" t="s">
+        <v>587</v>
+      </c>
+      <c r="G153" s="120" t="s">
+        <v>543</v>
+      </c>
+      <c r="H153" s="120">
+        <v>22</v>
+      </c>
+      <c r="I153" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>John@climbai.com</v>
+      </c>
+      <c r="J153" s="120" t="s">
+        <v>548</v>
+      </c>
+      <c r="L153" s="119" t="s">
+        <v>595</v>
+      </c>
+      <c r="M153" s="119" t="str">
+        <f t="shared" si="1"/>
+        <v>John@climbai.com :3</v>
+      </c>
+      <c r="N153" s="119" t="str">
+        <f t="shared" si="2"/>
+        <v>John, 22: 3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="B154" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="E154" s="125">
+        <v>4</v>
+      </c>
+      <c r="F154" s="120" t="s">
+        <v>588</v>
+      </c>
+      <c r="G154" s="120" t="s">
+        <v>544</v>
+      </c>
+      <c r="H154" s="120">
+        <v>20</v>
+      </c>
+      <c r="I154" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris@climbai.com</v>
+      </c>
+      <c r="J154" s="120" t="s">
+        <v>546</v>
+      </c>
+      <c r="L154" s="119" t="s">
+        <v>596</v>
+      </c>
+      <c r="M154" s="119" t="str">
+        <f t="shared" si="1"/>
+        <v>Chris@climbai.com :4</v>
+      </c>
+      <c r="N154" s="119" t="str">
+        <f t="shared" si="2"/>
+        <v>Chris, 20: 4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="B155" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="E155" s="125">
+        <v>5</v>
+      </c>
+      <c r="F155" s="120" t="s">
+        <v>589</v>
+      </c>
+      <c r="G155" s="120" t="s">
+        <v>545</v>
+      </c>
+      <c r="H155" s="120">
+        <v>21</v>
+      </c>
+      <c r="I155" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Jerry@climbai.com</v>
+      </c>
+      <c r="J155" s="120" t="s">
+        <v>547</v>
+      </c>
+      <c r="L155" s="119" t="s">
+        <v>597</v>
+      </c>
+      <c r="M155" s="119" t="str">
+        <f t="shared" si="1"/>
+        <v>Jerry@climbai.com :5</v>
+      </c>
+      <c r="N155" s="119" t="str">
+        <f t="shared" si="2"/>
+        <v>Jerry, 21: 5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="B156" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="B157" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="B160" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="11"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="D92" s="74" t="s">
+      <c r="C166" s="23"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="118" t="s">
+        <v>531</v>
+      </c>
+      <c r="C167" s="23"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="117" t="s">
+        <v>532</v>
+      </c>
+      <c r="C168" s="23"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="117"/>
+      <c r="C169" s="23"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="117" t="s">
+        <v>529</v>
+      </c>
+      <c r="C170" s="23"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="117" t="s">
+        <v>533</v>
+      </c>
+      <c r="C171" s="23"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="117" t="s">
+        <v>534</v>
+      </c>
+      <c r="C172" s="23"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="117"/>
+      <c r="C173" s="23"/>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="117" t="s">
         <v>530</v>
       </c>
-      <c r="N92" s="67"/>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="B93" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="C93" s="74" t="s">
-        <v>529</v>
-      </c>
-      <c r="D93" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="N93" s="67"/>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="B94" s="89" t="s">
-        <v>439</v>
-      </c>
-      <c r="C94" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="D94" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="N94" s="67"/>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="B95" s="89" t="s">
-        <v>441</v>
-      </c>
-      <c r="C95" s="74" t="s">
-        <v>382</v>
-      </c>
-      <c r="D95" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="N95" s="67"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="B102" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="C102" s="92" t="s">
-        <v>361</v>
-      </c>
-      <c r="J102" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="K102" s="66" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="B103" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="J103" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="K103" s="67" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="B104" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="74" t="s">
-        <v>386</v>
-      </c>
-      <c r="J104" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="K104" s="67" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="B105" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="J105" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K105" s="67" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="B106" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" s="74" t="s">
-        <v>388</v>
-      </c>
-      <c r="J106" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="K106" s="67" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="B107" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="J107" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="K107" s="67" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="B108" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108" s="74" t="s">
-        <v>390</v>
-      </c>
-      <c r="J108" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="K108" s="67" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="B109" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C109" s="74" t="s">
-        <v>391</v>
-      </c>
-      <c r="J109" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="K109" s="67" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="B110" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="C110" s="74" t="s">
-        <v>392</v>
-      </c>
-      <c r="J110" s="67" t="s">
-        <v>449</v>
-      </c>
-      <c r="K110" s="67" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="B111" s="88" t="s">
-        <v>416</v>
-      </c>
-      <c r="C111" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="J111" s="67" t="s">
-        <v>416</v>
-      </c>
-      <c r="K111" s="67" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="B112" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="J112" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112" s="67" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="B113" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113" s="74" t="s">
-        <v>366</v>
-      </c>
-      <c r="J113" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="K113" s="67" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="B114" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="C114" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="J114" s="67" t="s">
-        <v>421</v>
-      </c>
-      <c r="K114" s="67" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="B115" s="88" t="s">
-        <v>454</v>
-      </c>
-      <c r="C115" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="J115" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="K115" s="67" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="B116" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C116" s="74" t="s">
-        <v>397</v>
-      </c>
-      <c r="J116" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="K116" s="67" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="B117" s="88" t="s">
-        <v>457</v>
-      </c>
-      <c r="C117" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="J117" s="67" t="s">
-        <v>457</v>
-      </c>
-      <c r="K117" s="67" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="B118" s="74" t="s">
-        <v>459</v>
-      </c>
-      <c r="C118" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="J118" s="67" t="s">
-        <v>459</v>
-      </c>
-      <c r="K118" s="67" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="B119" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="C119" s="74" t="s">
-        <v>400</v>
-      </c>
-      <c r="J119" s="67" t="s">
-        <v>432</v>
-      </c>
-      <c r="K119" s="67" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="B120" s="74" t="s">
-        <v>434</v>
-      </c>
-      <c r="C120" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="J120" s="67" t="s">
-        <v>434</v>
-      </c>
-      <c r="K120" s="67" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="B121" s="74" t="s">
-        <v>437</v>
-      </c>
-      <c r="C121" s="74" t="s">
-        <v>402</v>
-      </c>
-      <c r="J121" s="67" t="s">
-        <v>437</v>
-      </c>
-      <c r="K121" s="67" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="B122" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="C122" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="J122" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="K122" s="67" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="B123" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="C123" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="J123" s="67" t="s">
-        <v>441</v>
-      </c>
-      <c r="K123" s="67" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="B126" s="68"/>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="96" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="B128" s="68" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="68" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="68" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="68" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="68" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3">
-      <c r="C133" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="C134" s="3" t="s">
-        <v>489</v>
-      </c>
+      <c r="C174" s="23"/>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="117" t="s">
+        <v>535</v>
+      </c>
+      <c r="C175" s="23"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="117" t="s">
+        <v>536</v>
+      </c>
+      <c r="C176" s="23"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B178" s="23"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="B179" s="116" t="s">
+        <v>554</v>
+      </c>
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="B180" s="116" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="B181" s="116" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" s="10"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="B183" s="117" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="B184" s="117" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="B185" s="117" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="116" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" s="116" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="124" t="s">
+        <v>556</v>
+      </c>
+      <c r="B192" s="116"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="B193" s="116" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="B194" s="116" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="B195" s="116" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="B196" s="116"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="124" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="B198" s="124" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199" s="124" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200" s="124" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="B201" s="124" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="B202" s="116"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="B203" s="116"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="B204" s="116" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="B205" s="116" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="B206" s="116"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207" s="116" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="B208" s="116" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="B209" s="116" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="B210" s="116"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="B211" s="116" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" s="116" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="B213" s="116"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="B214" s="116" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="B215" s="116"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="124" t="s">
+        <v>570</v>
+      </c>
+      <c r="B216" s="116"/>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217" s="116" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218" s="116" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" s="124" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="B220" s="124" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="B221" s="116"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="B222" s="116" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="B223" s="116"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="116"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="116"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="116"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="116"/>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="116"/>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="116"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="116"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C47:C50"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="B41:B43"/>
@@ -6484,6 +9364,14 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C47:C50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://www.geeksforgeeks.org/sql/sql-create-table/" xr:uid="{3141F896-7D9F-154A-B110-57D1C0AFB65B}"/>
@@ -6498,7 +9386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
@@ -6634,7 +9522,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="112" t="s">
         <v>155</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -6648,7 +9536,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="64"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="43" t="s">
         <v>273</v>
       </c>
@@ -6660,7 +9548,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="112" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -6674,7 +9562,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="64"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="16" t="s">
         <v>164</v>
       </c>
@@ -6686,7 +9574,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="112" t="s">
         <v>167</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -6700,7 +9588,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="64"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="16" t="s">
         <v>171</v>
       </c>
@@ -6740,7 +9628,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="112" t="s">
         <v>182</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -6754,7 +9642,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="65"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="16" t="s">
         <v>184</v>
       </c>
@@ -6766,7 +9654,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="64"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="16" t="s">
         <v>187</v>
       </c>
@@ -6806,7 +9694,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="109" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -6820,7 +9708,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="61"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
@@ -6832,7 +9720,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="61"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="16" t="s">
         <v>280</v>
       </c>
@@ -6844,7 +9732,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="61"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="16" t="s">
         <v>203</v>
       </c>
@@ -6856,7 +9744,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="61"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="16" t="s">
         <v>205</v>
       </c>
@@ -6868,7 +9756,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="62"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="16" t="s">
         <v>207</v>
       </c>
@@ -6880,7 +9768,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="109" t="s">
         <v>210</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -6894,7 +9782,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="61"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="16" t="s">
         <v>214</v>
       </c>
@@ -6906,7 +9794,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="61"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="44" t="s">
         <v>282</v>
       </c>
@@ -6921,7 +9809,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="61"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="16" t="s">
         <v>281</v>
       </c>
@@ -6933,7 +9821,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="61"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="16" t="s">
         <v>219</v>
       </c>
@@ -6948,7 +9836,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="62"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="16" t="s">
         <v>221</v>
       </c>
@@ -6961,7 +9849,7 @@
       <c r="L46" s="31"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="109" t="s">
         <v>223</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -6978,7 +9866,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="61"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="16" t="s">
         <v>227</v>
       </c>
@@ -6991,7 +9879,7 @@
       <c r="L48" s="31"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="61"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="16" t="s">
         <v>230</v>
       </c>
@@ -7006,7 +9894,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="61"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="16" t="s">
         <v>233</v>
       </c>
@@ -7019,7 +9907,7 @@
       <c r="L50" s="31"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="61"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="16" t="s">
         <v>236</v>
       </c>
@@ -7034,7 +9922,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="62"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="16" t="s">
         <v>239</v>
       </c>
@@ -7046,7 +9934,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="109" t="s">
         <v>242</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -7060,7 +9948,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="61"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="16" t="s">
         <v>246</v>
       </c>
@@ -7072,7 +9960,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="61"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="16" t="s">
         <v>249</v>
       </c>
@@ -7084,7 +9972,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="61"/>
+      <c r="B56" s="110"/>
       <c r="C56" s="16" t="s">
         <v>252</v>
       </c>
@@ -7096,7 +9984,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="62"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="16" t="s">
         <v>255</v>
       </c>
@@ -7108,7 +9996,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="109" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7122,7 +10010,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="61"/>
+      <c r="B59" s="110"/>
       <c r="C59" s="16" t="s">
         <v>262</v>
       </c>
@@ -7134,7 +10022,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="61"/>
+      <c r="B60" s="110"/>
       <c r="C60" s="16" t="s">
         <v>265</v>
       </c>
@@ -7146,7 +10034,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="62"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="16" t="s">
         <v>268</v>
       </c>
@@ -7455,7 +10343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C1EB-E120-1042-8BF4-A3ED48385142}">
   <dimension ref="A1:E72"/>
   <sheetViews>

--- a/Advanced/Slides/Lec_DDL.xlsx
+++ b/Advanced/Slides/Lec_DDL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Advanced/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F1D75-3F4B-F748-BA36-259DAE8E0443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF29C70-3DFD-8C47-880C-CE99D9090BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="3" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="725">
   <si>
     <t>💡技术用语确认/SQL Key words</t>
   </si>
@@ -3019,9 +3019,6 @@
     <t xml:space="preserve">       /    \</t>
   </si>
   <si>
-    <t xml:space="preserve"> [10, 20, 30] [50, 60, 70, 80]</t>
-  </si>
-  <si>
     <t>查找 60：先看 40 → 大于 40，走右分支 → 找到 60</t>
   </si>
   <si>
@@ -3900,13 +3897,132 @@
       </rPr>
       <t>。</t>
     </r>
+  </si>
+  <si>
+    <t>在 SQL 里，事务通常是这样管理的：</t>
+  </si>
+  <si>
+    <t>-- 开始事务</t>
+  </si>
+  <si>
+    <t>BEGIN;</t>
+  </si>
+  <si>
+    <t>-- 执行多条 SQL</t>
+  </si>
+  <si>
+    <t>UPDATE accounts SET balance = balance - 100 WHERE id = 1;</t>
+  </si>
+  <si>
+    <t>UPDATE accounts SET balance = balance + 100 WHERE id = 2;</t>
+  </si>
+  <si>
+    <t>-- 提交事务（永久生效）</t>
+  </si>
+  <si>
+    <t>-- 如果出错，回滚事务（撤销之前的操作）</t>
+  </si>
+  <si>
+    <t>比如银行转账场景：</t>
+  </si>
+  <si>
+    <t>A 向 B 转账 100 元。</t>
+  </si>
+  <si>
+    <t>SQL1: UPDATE account SET balance = balance - 100 WHERE name='A';</t>
+  </si>
+  <si>
+    <t>SQL2: UPDATE account SET balance = balance + 100 WHERE name='B';</t>
+  </si>
+  <si>
+    <t>如果 SQL1 执行成功，SQL2 失败：</t>
+  </si>
+  <si>
+    <t>如果没事务：A 的钱少了，B 没收到，数据错乱。</t>
+  </si>
+  <si>
+    <t>如果有事务：执行失败时自动回滚，保证数据一致。</t>
+  </si>
+  <si>
+    <r>
+      <t>在关系型数据库（MySQL、PostgreSQL、Oracle 等）中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>事务（Transaction）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 是一组数据库操作，要么 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>全部执行成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">，要么 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>全部失败回滚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>事务 (Transaction)的定义</t>
+  </si>
+  <si>
+    <t>可以理解为：事务就是数据库中的“最小工作单元”，用于保证数据的一致性。</t>
+  </si>
+  <si>
+    <t>一个实际例子（转账）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10, 20, 30] [50, 60, 70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             [80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="65">
+  <fonts count="67">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4281,6 +4397,17 @@
       <color rgb="FF000000"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9"/>
+      <name val="Kai Regular"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4489,7 +4616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4659,40 +4786,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4721,6 +4814,49 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="63" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5156,7 +5292,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2294741</xdr:colOff>
+      <xdr:colOff>1952269</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91260</xdr:rowOff>
     </xdr:to>
@@ -5201,7 +5337,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1272186</xdr:colOff>
+      <xdr:colOff>929714</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>172216</xdr:rowOff>
     </xdr:to>
@@ -6371,7 +6507,7 @@
       <c r="C17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="103"/>
+      <c r="D17" s="123"/>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="8" t="s">
@@ -6383,7 +6519,7 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="123"/>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="8" t="s">
@@ -6395,7 +6531,7 @@
       <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="103"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" spans="1:4" ht="30">
       <c r="A20" s="8" t="s">
@@ -6407,7 +6543,7 @@
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="103"/>
+      <c r="D20" s="123"/>
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="A21" s="8" t="s">
@@ -6419,7 +6555,7 @@
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="103"/>
+      <c r="D21" s="123"/>
     </row>
     <row r="22" spans="1:4" ht="30">
       <c r="A22" s="8" t="s">
@@ -6431,7 +6567,7 @@
       <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="103"/>
+      <c r="D22" s="123"/>
     </row>
     <row r="23" spans="1:4" ht="30">
       <c r="A23" s="8" t="s">
@@ -6443,7 +6579,7 @@
       <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="103"/>
+      <c r="D23" s="123"/>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="53" t="s">
@@ -6455,7 +6591,7 @@
       <c r="C24" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="103"/>
+      <c r="D24" s="123"/>
     </row>
     <row r="25" spans="1:4" ht="30">
       <c r="A25" s="8" t="s">
@@ -6467,7 +6603,7 @@
       <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="103"/>
+      <c r="D25" s="123"/>
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="8" t="s">
@@ -6479,7 +6615,7 @@
       <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="103"/>
+      <c r="D26" s="123"/>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="53" t="s">
@@ -6491,7 +6627,7 @@
       <c r="C27" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="103"/>
+      <c r="D27" s="123"/>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="55" t="s">
@@ -6503,7 +6639,7 @@
       <c r="C28" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="103"/>
+      <c r="D28" s="123"/>
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" s="55" t="s">
@@ -6515,7 +6651,7 @@
       <c r="C29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="103"/>
+      <c r="D29" s="123"/>
     </row>
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="57" t="s">
@@ -6527,7 +6663,7 @@
       <c r="C30" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="103"/>
+      <c r="D30" s="123"/>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="57" t="s">
@@ -6539,7 +6675,7 @@
       <c r="C31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="103"/>
+      <c r="D31" s="123"/>
     </row>
     <row r="32" spans="1:4" ht="30">
       <c r="A32" s="57" t="s">
@@ -6551,7 +6687,7 @@
       <c r="C32" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="103"/>
+      <c r="D32" s="123"/>
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33" s="57" t="s">
@@ -6563,7 +6699,7 @@
       <c r="C33" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="103"/>
+      <c r="D33" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="27">
       <c r="A41" s="2" t="s">
@@ -6693,8 +6829,8 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -6873,116 +7009,116 @@
     </row>
     <row r="34" spans="10:13">
       <c r="J34" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13">
+      <c r="K36" s="115" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="36" spans="10:13">
-      <c r="K36" s="127" t="s">
+      <c r="L36" s="115" t="s">
         <v>599</v>
       </c>
-      <c r="L36" s="127" t="s">
+      <c r="M36" s="115" t="s">
         <v>600</v>
-      </c>
-      <c r="M36" s="127" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="37" spans="10:13">
       <c r="K37" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L37" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="M37" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="38" spans="10:13">
       <c r="K38" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L38" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="M38" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="39" spans="10:13">
       <c r="K39" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L39" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="40" spans="10:13">
       <c r="K40" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="41" spans="10:13">
       <c r="K41" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="M41" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="42" spans="10:13">
       <c r="K42" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="43" spans="10:13">
       <c r="K43" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="M43" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="44" spans="10:13">
       <c r="K44" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="M44" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="46" spans="10:13">
       <c r="J46" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="10:13">
       <c r="K48" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="50" spans="5:11">
@@ -6990,70 +7126,70 @@
         <v>469</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="5:11">
       <c r="J53" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="5:11">
       <c r="K55" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="5:11">
       <c r="E57" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="139" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11">
+      <c r="K59" s="139" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="5:11">
-      <c r="K59" s="11" t="s">
+    <row r="61" spans="5:11">
+      <c r="K61" s="139" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="61" spans="5:11">
-      <c r="K61" s="11" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="64" spans="5:11">
       <c r="K64" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="139" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="K68" s="139" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="K68" s="11" t="s">
+    <row r="70" spans="1:11">
+      <c r="K70" s="139" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="K70" s="11" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="B72" s="128" t="s">
-        <v>703</v>
+      <c r="B72" s="116" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="J73" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7061,12 +7197,12 @@
         <v>471</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -7074,7 +7210,7 @@
         <v>112</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -7084,10 +7220,10 @@
     </row>
     <row r="78" spans="1:11">
       <c r="B78" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -7097,17 +7233,17 @@
     </row>
     <row r="80" spans="1:11">
       <c r="K80" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="B82" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -7117,12 +7253,12 @@
     </row>
     <row r="84" spans="1:13">
       <c r="B84" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -7130,8 +7266,8 @@
       <c r="M86"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="B87" s="128" t="s">
-        <v>650</v>
+      <c r="B87" s="116" t="s">
+        <v>649</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -7146,7 +7282,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E89" s="84" t="s">
         <v>472</v>
@@ -7158,16 +7294,16 @@
     </row>
     <row r="90" spans="1:13" ht="24">
       <c r="B90" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="J90" s="123"/>
+        <v>651</v>
+      </c>
+      <c r="J90" s="111"/>
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
     <row r="91" spans="1:13">
       <c r="B91" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -7176,49 +7312,49 @@
     </row>
     <row r="92" spans="1:13">
       <c r="B92" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="J92" s="115"/>
-      <c r="K92" s="115"/>
-      <c r="L92" s="115"/>
-      <c r="M92" s="115"/>
+        <v>653</v>
+      </c>
+      <c r="J92" s="103"/>
+      <c r="K92" s="103"/>
+      <c r="L92" s="103"/>
+      <c r="M92" s="103"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="J93" s="115"/>
+      <c r="J93" s="103"/>
       <c r="K93"/>
-      <c r="L93" s="115"/>
+      <c r="L93" s="103"/>
       <c r="M93"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="J94" s="115"/>
+        <v>654</v>
+      </c>
+      <c r="J94" s="103"/>
       <c r="K94"/>
-      <c r="L94" s="115"/>
+      <c r="L94" s="103"/>
       <c r="M94"/>
     </row>
     <row r="95" spans="1:13">
       <c r="B95" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="J95" s="115"/>
+        <v>655</v>
+      </c>
+      <c r="J95" s="103"/>
       <c r="K95"/>
-      <c r="L95" s="115"/>
+      <c r="L95" s="103"/>
       <c r="M95"/>
     </row>
     <row r="96" spans="1:13">
       <c r="B96" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="J96" s="115"/>
+        <v>656</v>
+      </c>
+      <c r="J96" s="103"/>
       <c r="K96"/>
-      <c r="L96" s="115"/>
+      <c r="L96" s="103"/>
       <c r="M96"/>
     </row>
     <row r="97" spans="1:13">
       <c r="B97" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -7233,7 +7369,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -7242,16 +7378,16 @@
     </row>
     <row r="100" spans="1:13" ht="24">
       <c r="B100" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="J100" s="123"/>
+        <v>659</v>
+      </c>
+      <c r="J100" s="111"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
     </row>
     <row r="101" spans="1:13">
       <c r="B101" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -7260,7 +7396,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="B102" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -7275,7 +7411,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -7284,16 +7420,16 @@
     </row>
     <row r="105" spans="1:13">
       <c r="B105" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="J105" s="115"/>
+        <v>663</v>
+      </c>
+      <c r="J105" s="103"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
     <row r="106" spans="1:13">
       <c r="B106" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -7302,9 +7438,9 @@
     </row>
     <row r="107" spans="1:13">
       <c r="B107" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="J107" s="115"/>
+        <v>665</v>
+      </c>
+      <c r="J107" s="103"/>
       <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
@@ -7317,16 +7453,16 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="J109" s="115"/>
+        <v>672</v>
+      </c>
+      <c r="J109" s="103"/>
       <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
     </row>
     <row r="110" spans="1:13">
       <c r="B110" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -7335,16 +7471,16 @@
     </row>
     <row r="111" spans="1:13">
       <c r="B111" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="J111" s="115"/>
+        <v>667</v>
+      </c>
+      <c r="J111" s="103"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
     </row>
     <row r="112" spans="1:13">
       <c r="B112" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -7353,7 +7489,7 @@
     </row>
     <row r="113" spans="2:13">
       <c r="B113" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -7362,7 +7498,7 @@
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -7371,9 +7507,9 @@
     </row>
     <row r="115" spans="2:13" ht="24">
       <c r="B115" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="J115" s="123"/>
+        <v>671</v>
+      </c>
+      <c r="J115" s="111"/>
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
@@ -7397,7 +7533,7 @@
       <c r="M118"/>
     </row>
     <row r="119" spans="2:13">
-      <c r="J119" s="115"/>
+      <c r="J119" s="103"/>
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119"/>
@@ -7449,11 +7585,9 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -7463,257 +7597,668 @@
     <col min="5" max="5" width="159.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:6" ht="25">
+      <c r="A1" s="135" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25">
+      <c r="A2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="25">
+      <c r="A3" s="23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25">
+      <c r="A4" s="23" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25">
+      <c r="A7" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25">
+      <c r="A8" s="24"/>
+      <c r="F8" s="137"/>
+    </row>
+    <row r="9" spans="1:6" ht="25">
+      <c r="A9" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="F9" s="137"/>
+    </row>
+    <row r="10" spans="1:6" ht="25">
+      <c r="A10" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="F10" s="137" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25">
+      <c r="A11" s="24"/>
+      <c r="F11" s="137"/>
+    </row>
+    <row r="12" spans="1:6" ht="25">
+      <c r="A12" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25">
+      <c r="A13" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="F13" s="137"/>
+    </row>
+    <row r="14" spans="1:6" ht="25">
+      <c r="A14" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25">
+      <c r="A15" s="24"/>
+      <c r="F15" s="137"/>
+    </row>
+    <row r="16" spans="1:6" ht="25">
+      <c r="A16" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="F16" s="137" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25">
+      <c r="A17" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="137"/>
+    </row>
+    <row r="18" spans="1:6" ht="25">
+      <c r="A18" s="24"/>
+      <c r="F18" s="137" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25">
+      <c r="A19" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="F19" s="137"/>
+    </row>
+    <row r="20" spans="1:6" ht="25">
+      <c r="A20" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="F20" s="137" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25">
+      <c r="F21" s="137"/>
+    </row>
+    <row r="22" spans="1:6" ht="25">
+      <c r="F22" s="137" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23">
+      <c r="A25" s="118" t="s">
+        <v>695</v>
+      </c>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+    </row>
+    <row r="26" spans="1:6" ht="23">
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+    </row>
+    <row r="27" spans="1:6" ht="23">
+      <c r="A27" s="117" t="s">
+        <v>673</v>
+      </c>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+    </row>
+    <row r="28" spans="1:6" ht="23">
+      <c r="A28" s="118"/>
+      <c r="B28" s="121" t="s">
+        <v>674</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>675</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>676</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23">
+      <c r="B29" s="119" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>678</v>
+      </c>
+      <c r="D29" s="119" t="s">
+        <v>679</v>
+      </c>
+      <c r="E29" s="120" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="23">
+      <c r="A30" s="118"/>
+      <c r="B30" s="119" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" s="120" t="s">
+        <v>681</v>
+      </c>
+      <c r="D30" s="119" t="s">
+        <v>682</v>
+      </c>
+      <c r="E30" s="120" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23">
+      <c r="B31" s="119" t="s">
+        <v>684</v>
+      </c>
+      <c r="C31" s="120" t="s">
+        <v>685</v>
+      </c>
+      <c r="D31" s="119" t="s">
+        <v>686</v>
+      </c>
+      <c r="E31" s="120" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="23">
+      <c r="B32" s="119" t="s">
+        <v>688</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>689</v>
+      </c>
+      <c r="D32" s="119" t="s">
+        <v>690</v>
+      </c>
+      <c r="E32" s="120" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="23">
+      <c r="A36" s="117" t="s">
+        <v>692</v>
+      </c>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+    </row>
+    <row r="37" spans="1:4" ht="23">
+      <c r="A37" s="118"/>
+      <c r="B37" s="118" t="s">
+        <v>693</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+    </row>
+    <row r="38" spans="1:4" ht="23">
+      <c r="B38" s="118"/>
+      <c r="C38" s="117" t="s">
         <v>696</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-    </row>
-    <row r="2" spans="1:5" ht="23">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-    </row>
-    <row r="3" spans="1:5" ht="23">
-      <c r="A3" s="129" t="s">
-        <v>674</v>
-      </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-    </row>
-    <row r="4" spans="1:5" ht="23">
-      <c r="A4" s="130"/>
-      <c r="B4" s="133" t="s">
-        <v>675</v>
-      </c>
-      <c r="C4" s="133" t="s">
-        <v>676</v>
-      </c>
-      <c r="D4" s="133" t="s">
-        <v>677</v>
-      </c>
-      <c r="E4" s="133" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="23">
-      <c r="B5" s="131" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" s="132" t="s">
-        <v>679</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>680</v>
-      </c>
-      <c r="E5" s="132" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131" t="s">
-        <v>548</v>
-      </c>
-      <c r="C6" s="132" t="s">
-        <v>682</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>683</v>
-      </c>
-      <c r="E6" s="132" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23">
-      <c r="B7" s="131" t="s">
-        <v>685</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>686</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>687</v>
-      </c>
-      <c r="E7" s="132" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23">
-      <c r="B8" s="131" t="s">
-        <v>689</v>
-      </c>
-      <c r="C8" s="132" t="s">
-        <v>690</v>
-      </c>
-      <c r="D8" s="131" t="s">
-        <v>691</v>
-      </c>
-      <c r="E8" s="132" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23">
-      <c r="A12" s="129" t="s">
-        <v>693</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-    </row>
-    <row r="13" spans="1:5" ht="23">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130" t="s">
+      <c r="D38" s="118"/>
+    </row>
+    <row r="39" spans="1:4" ht="23">
+      <c r="A39" s="118"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="117" t="s">
+        <v>697</v>
+      </c>
+      <c r="D39" s="118"/>
+    </row>
+    <row r="40" spans="1:4" ht="23">
+      <c r="A40" s="118"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="117" t="s">
+        <v>698</v>
+      </c>
+      <c r="D40" s="118"/>
+    </row>
+    <row r="41" spans="1:4" ht="23">
+      <c r="B41" s="118"/>
+      <c r="C41" s="117" t="s">
+        <v>699</v>
+      </c>
+      <c r="D41" s="118"/>
+    </row>
+    <row r="42" spans="1:4" ht="23">
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+    </row>
+    <row r="43" spans="1:4" ht="23">
+      <c r="A43" s="117" t="s">
         <v>694</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-    </row>
-    <row r="14" spans="1:5" ht="23">
-      <c r="B14" s="130"/>
-      <c r="C14" s="129" t="s">
-        <v>697</v>
-      </c>
-      <c r="D14" s="130"/>
-    </row>
-    <row r="15" spans="1:5" ht="23">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="129" t="s">
-        <v>698</v>
-      </c>
-      <c r="D15" s="130"/>
-    </row>
-    <row r="16" spans="1:5" ht="23">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="129" t="s">
-        <v>699</v>
-      </c>
-      <c r="D16" s="130"/>
-    </row>
-    <row r="17" spans="1:4" ht="23">
-      <c r="B17" s="130"/>
-      <c r="C17" s="129" t="s">
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+    </row>
+    <row r="44" spans="1:4" ht="23">
+      <c r="B44" s="118" t="s">
         <v>700</v>
       </c>
-      <c r="D17" s="130"/>
-    </row>
-    <row r="18" spans="1:4" ht="23">
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-    </row>
-    <row r="19" spans="1:4" ht="23">
-      <c r="A19" s="129" t="s">
-        <v>695</v>
-      </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-    </row>
-    <row r="20" spans="1:4" ht="23">
-      <c r="B20" s="130" t="s">
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+    </row>
+    <row r="45" spans="1:4" ht="23">
+      <c r="B45" s="117" t="s">
         <v>701</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-    </row>
-    <row r="21" spans="1:4" ht="23">
-      <c r="B21" s="129" t="s">
-        <v>702</v>
-      </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-    </row>
-    <row r="22" spans="1:4" ht="23">
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-    </row>
-    <row r="23" spans="1:4" ht="23">
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-    </row>
-    <row r="24" spans="1:4" ht="23">
-      <c r="A24" s="130"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-    </row>
-    <row r="25" spans="1:4" ht="23">
-      <c r="A25" s="130"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-    </row>
-    <row r="26" spans="1:4" ht="23">
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-    </row>
-    <row r="27" spans="1:4" ht="23">
-      <c r="A27" s="130"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-    </row>
-    <row r="28" spans="1:4" ht="23">
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-    </row>
-    <row r="29" spans="1:4" ht="23">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-    </row>
-    <row r="30" spans="1:4" ht="23">
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="130"/>
-    </row>
-    <row r="31" spans="1:4" ht="23">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-    </row>
-    <row r="32" spans="1:4" ht="23">
-      <c r="A32" s="130"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-    </row>
-    <row r="33" spans="1:4" ht="23">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-    </row>
-    <row r="34" spans="1:4" ht="23">
-      <c r="A34" s="130"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-    </row>
-    <row r="35" spans="1:4" ht="23">
-      <c r="A35" s="130"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-    </row>
-    <row r="36" spans="1:4" ht="23">
-      <c r="A36" s="130"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+    </row>
+    <row r="46" spans="1:4" ht="23">
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+    </row>
+    <row r="47" spans="1:4" ht="23">
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+    </row>
+    <row r="48" spans="1:4" ht="25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+    </row>
+    <row r="49" spans="1:4" ht="25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+    </row>
+    <row r="50" spans="1:4" ht="25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+    </row>
+    <row r="51" spans="1:4" ht="25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+    </row>
+    <row r="52" spans="1:4" ht="23">
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+    </row>
+    <row r="53" spans="1:4" ht="23">
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+    </row>
+    <row r="54" spans="1:4" ht="23">
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+    </row>
+    <row r="55" spans="1:4" ht="23">
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+    </row>
+    <row r="56" spans="1:4" ht="25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+    </row>
+    <row r="57" spans="1:4" ht="23">
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+    </row>
+    <row r="58" spans="1:4" ht="25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+    </row>
+    <row r="59" spans="1:4" ht="25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+    </row>
+    <row r="60" spans="1:4" ht="25">
+      <c r="A60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" ht="25">
+      <c r="A61" s="135"/>
+    </row>
+    <row r="62" spans="1:4" ht="25">
+      <c r="A62" s="23"/>
+    </row>
+    <row r="63" spans="1:4" ht="25">
+      <c r="A63" s="23"/>
+    </row>
+    <row r="64" spans="1:4" ht="25">
+      <c r="A64" s="23"/>
+    </row>
+    <row r="65" spans="1:1" ht="25">
+      <c r="A65" s="23"/>
+    </row>
+    <row r="66" spans="1:1" ht="25">
+      <c r="A66" s="135"/>
+    </row>
+    <row r="67" spans="1:1" ht="25">
+      <c r="A67" s="23"/>
+    </row>
+    <row r="68" spans="1:1" ht="25">
+      <c r="A68" s="23"/>
+    </row>
+    <row r="69" spans="1:1" ht="25">
+      <c r="A69" s="23"/>
+    </row>
+    <row r="70" spans="1:1" ht="25">
+      <c r="A70" s="23"/>
+    </row>
+    <row r="71" spans="1:1" ht="25">
+      <c r="A71" s="23"/>
+    </row>
+    <row r="72" spans="1:1" ht="25">
+      <c r="A72" s="135"/>
+    </row>
+    <row r="73" spans="1:1" ht="25">
+      <c r="A73" s="23"/>
+    </row>
+    <row r="74" spans="1:1" ht="25">
+      <c r="A74" s="23"/>
+    </row>
+    <row r="75" spans="1:1" ht="25">
+      <c r="A75" s="23"/>
+    </row>
+    <row r="76" spans="1:1" ht="25">
+      <c r="A76" s="23"/>
+    </row>
+    <row r="77" spans="1:1" ht="25">
+      <c r="A77" s="23"/>
+    </row>
+    <row r="78" spans="1:1" ht="25">
+      <c r="A78" s="135"/>
+    </row>
+    <row r="79" spans="1:1" ht="25">
+      <c r="A79" s="23"/>
+    </row>
+    <row r="80" spans="1:1" ht="25">
+      <c r="A80" s="23"/>
+    </row>
+    <row r="81" spans="1:1" ht="25">
+      <c r="A81" s="23"/>
+    </row>
+    <row r="82" spans="1:1" ht="25">
+      <c r="A82" s="23"/>
+    </row>
+    <row r="83" spans="1:1" ht="25">
+      <c r="A83" s="23"/>
+    </row>
+    <row r="84" spans="1:1" ht="25">
+      <c r="A84" s="135"/>
+    </row>
+    <row r="85" spans="1:1" ht="25">
+      <c r="A85" s="23"/>
+    </row>
+    <row r="86" spans="1:1" ht="25">
+      <c r="A86" s="23"/>
+    </row>
+    <row r="87" spans="1:1" ht="25">
+      <c r="A87" s="23"/>
+    </row>
+    <row r="88" spans="1:1" ht="25">
+      <c r="A88" s="23"/>
+    </row>
+    <row r="89" spans="1:1" ht="25">
+      <c r="A89" s="23"/>
+    </row>
+    <row r="90" spans="1:1" ht="25">
+      <c r="A90" s="135"/>
+    </row>
+    <row r="91" spans="1:1" ht="25">
+      <c r="A91" s="23"/>
+    </row>
+    <row r="92" spans="1:1" ht="25">
+      <c r="A92" s="23"/>
+    </row>
+    <row r="93" spans="1:1" ht="25">
+      <c r="A93" s="23"/>
+    </row>
+    <row r="94" spans="1:1" ht="25">
+      <c r="A94" s="23"/>
+    </row>
+    <row r="95" spans="1:1" ht="25">
+      <c r="A95" s="23"/>
+    </row>
+    <row r="96" spans="1:1" ht="25">
+      <c r="A96" s="23"/>
+    </row>
+    <row r="97" spans="1:1" ht="25">
+      <c r="A97" s="23"/>
+    </row>
+    <row r="98" spans="1:1" ht="25">
+      <c r="A98" s="23"/>
+    </row>
+    <row r="99" spans="1:1" ht="25">
+      <c r="A99" s="23"/>
+    </row>
+    <row r="100" spans="1:1" ht="25">
+      <c r="A100" s="23"/>
+    </row>
+    <row r="101" spans="1:1" ht="25">
+      <c r="A101" s="23"/>
+    </row>
+    <row r="102" spans="1:1" ht="25">
+      <c r="A102" s="23"/>
+    </row>
+    <row r="103" spans="1:1" ht="25">
+      <c r="A103" s="23"/>
+    </row>
+    <row r="104" spans="1:1" ht="25">
+      <c r="A104" s="23"/>
+    </row>
+    <row r="105" spans="1:1" ht="25">
+      <c r="A105" s="23"/>
+    </row>
+    <row r="106" spans="1:1" ht="25">
+      <c r="A106" s="23"/>
+    </row>
+    <row r="107" spans="1:1" ht="25">
+      <c r="A107" s="23"/>
+    </row>
+    <row r="108" spans="1:1" ht="25">
+      <c r="A108" s="23"/>
+    </row>
+    <row r="109" spans="1:1" ht="25">
+      <c r="A109" s="23"/>
+    </row>
+    <row r="110" spans="1:1" ht="25">
+      <c r="A110" s="135"/>
+    </row>
+    <row r="111" spans="1:1" ht="25">
+      <c r="A111" s="23"/>
+    </row>
+    <row r="112" spans="1:1" ht="25">
+      <c r="A112" s="23"/>
+    </row>
+    <row r="113" spans="1:1" ht="25">
+      <c r="A113" s="23"/>
+    </row>
+    <row r="114" spans="1:1" ht="25">
+      <c r="A114" s="23"/>
+    </row>
+    <row r="115" spans="1:1" ht="25">
+      <c r="A115" s="135"/>
+    </row>
+    <row r="116" spans="1:1" ht="25">
+      <c r="A116" s="23"/>
+    </row>
+    <row r="117" spans="1:1" ht="25">
+      <c r="A117" s="23"/>
+    </row>
+    <row r="118" spans="1:1" ht="25">
+      <c r="A118" s="23"/>
+    </row>
+    <row r="119" spans="1:1" ht="25">
+      <c r="A119" s="23"/>
+    </row>
+    <row r="120" spans="1:1" ht="25">
+      <c r="A120" s="23"/>
+    </row>
+    <row r="121" spans="1:1" ht="25">
+      <c r="A121" s="135"/>
+    </row>
+    <row r="122" spans="1:1" ht="25">
+      <c r="A122" s="23"/>
+    </row>
+    <row r="123" spans="1:1" ht="25">
+      <c r="A123" s="23"/>
+    </row>
+    <row r="124" spans="1:1" ht="25">
+      <c r="A124" s="23"/>
+    </row>
+    <row r="125" spans="1:1" ht="25">
+      <c r="A125" s="23"/>
+    </row>
+    <row r="126" spans="1:1" ht="25">
+      <c r="A126" s="23"/>
+    </row>
+    <row r="127" spans="1:1" ht="25">
+      <c r="A127" s="23"/>
+    </row>
+    <row r="128" spans="1:1" ht="25">
+      <c r="A128" s="23"/>
+    </row>
+    <row r="129" spans="1:1" ht="25">
+      <c r="A129" s="135"/>
+    </row>
+    <row r="130" spans="1:1" ht="25">
+      <c r="A130" s="23"/>
+    </row>
+    <row r="131" spans="1:1" ht="25">
+      <c r="A131" s="23"/>
+    </row>
+    <row r="132" spans="1:1" ht="25">
+      <c r="A132" s="23"/>
+    </row>
+    <row r="133" spans="1:1" ht="25">
+      <c r="A133" s="23"/>
+    </row>
+    <row r="134" spans="1:1" ht="25">
+      <c r="A134" s="23"/>
+    </row>
+    <row r="135" spans="1:1" ht="25">
+      <c r="A135" s="23"/>
+    </row>
+    <row r="136" spans="1:1" ht="25">
+      <c r="A136" s="23"/>
+    </row>
+    <row r="137" spans="1:1" ht="25">
+      <c r="A137" s="135"/>
+    </row>
+    <row r="138" spans="1:1" ht="25">
+      <c r="A138" s="23"/>
+    </row>
+    <row r="139" spans="1:1" ht="25">
+      <c r="A139" s="23"/>
+    </row>
+    <row r="140" spans="1:1" ht="25">
+      <c r="A140" s="23"/>
+    </row>
+    <row r="141" spans="1:1" ht="25">
+      <c r="A141" s="23"/>
+    </row>
+    <row r="142" spans="1:1" ht="25">
+      <c r="A142" s="23"/>
+    </row>
+    <row r="143" spans="1:1" ht="25">
+      <c r="A143" s="23"/>
+    </row>
+    <row r="144" spans="1:1" ht="25">
+      <c r="A144" s="23"/>
+    </row>
+    <row r="161" spans="1:1" ht="25">
+      <c r="A161" s="23"/>
+    </row>
+    <row r="162" spans="1:1" ht="25">
+      <c r="A162" s="23"/>
+    </row>
+    <row r="163" spans="1:1" ht="25">
+      <c r="A163" s="23"/>
+    </row>
+    <row r="164" spans="1:1" ht="25">
+      <c r="A164" s="135"/>
+    </row>
+    <row r="165" spans="1:1" ht="25">
+      <c r="A165" s="23"/>
+    </row>
+    <row r="166" spans="1:1" ht="25">
+      <c r="A166" s="135"/>
+    </row>
+    <row r="167" spans="1:1" ht="25">
+      <c r="A167" s="23"/>
+    </row>
+    <row r="168" spans="1:1" ht="25">
+      <c r="A168" s="135"/>
+    </row>
+    <row r="169" spans="1:1" ht="25">
+      <c r="A169" s="23"/>
+    </row>
+    <row r="170" spans="1:1" ht="25">
+      <c r="A170" s="135"/>
+    </row>
+    <row r="171" spans="1:1" ht="25">
+      <c r="A171" s="23"/>
+    </row>
+    <row r="172" spans="1:1" ht="25">
+      <c r="A172" s="135"/>
+    </row>
+    <row r="173" spans="1:1" ht="25">
+      <c r="A173" s="23"/>
+    </row>
+    <row r="174" spans="1:1" ht="25">
+      <c r="A174" s="23"/>
+    </row>
+    <row r="175" spans="1:1" ht="25">
+      <c r="A175" s="23"/>
+    </row>
+    <row r="176" spans="1:1" ht="25">
+      <c r="A176" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7727,7 +8272,9 @@
   </sheetPr>
   <dimension ref="A1:X234"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A180" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
@@ -7742,7 +8289,7 @@
     <col min="9" max="9" width="31.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="31.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5" style="3" customWidth="1"/>
     <col min="13" max="13" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39.5" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" style="3"/>
@@ -7987,145 +8534,145 @@
       <c r="K38" s="60"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="124" t="s">
         <v>411</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="126" t="s">
         <v>444</v>
       </c>
       <c r="D39" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="K39" s="105"/>
+      <c r="K39" s="125"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="B40" s="104"/>
-      <c r="C40" s="108"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="K40" s="105"/>
+      <c r="K40" s="125"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="124" t="s">
         <v>414</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="126" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="K41" s="105"/>
+      <c r="K41" s="125"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="104"/>
-      <c r="C42" s="108"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K42" s="105"/>
+      <c r="K42" s="125"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="K43" s="105"/>
+      <c r="K43" s="125"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="126" t="s">
         <v>366</v>
       </c>
       <c r="D44" s="68" t="s">
         <v>492</v>
       </c>
-      <c r="K44" s="105"/>
+      <c r="K44" s="125"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="104"/>
-      <c r="C45" s="108"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K45" s="105"/>
+      <c r="K45" s="125"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="B46" s="104"/>
-      <c r="C46" s="108"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="69" t="s">
         <v>417</v>
       </c>
-      <c r="K46" s="105"/>
+      <c r="K46" s="125"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="124" t="s">
         <v>418</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="126" t="s">
         <v>443</v>
       </c>
       <c r="D47" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="K47" s="105"/>
+      <c r="K47" s="125"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="B48" s="104"/>
-      <c r="C48" s="108"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="126"/>
       <c r="D48" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K48" s="105"/>
+      <c r="K48" s="125"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="B49" s="104"/>
-      <c r="C49" s="108"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="126"/>
       <c r="D49" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="K49" s="105"/>
+      <c r="K49" s="125"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="B50" s="104"/>
-      <c r="C50" s="108"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="69" t="s">
         <v>494</v>
       </c>
-      <c r="K50" s="105"/>
+      <c r="K50" s="125"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="106" t="s">
+      <c r="C51" s="127" t="s">
         <v>446</v>
       </c>
       <c r="D51" s="68" t="s">
         <v>490</v>
       </c>
-      <c r="K51" s="105"/>
+      <c r="K51" s="125"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="B52" s="104"/>
-      <c r="C52" s="107"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="128"/>
       <c r="D52" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="K52" s="105"/>
+      <c r="K52" s="125"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="124" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="72" t="s">
@@ -8134,25 +8681,25 @@
       <c r="D53" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="K53" s="105"/>
+      <c r="K53" s="125"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="B54" s="104"/>
+      <c r="B54" s="124"/>
       <c r="C54" s="75" t="s">
         <v>491</v>
       </c>
       <c r="D54" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K54" s="105"/>
+      <c r="K54" s="125"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="B55" s="104"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="73"/>
       <c r="D55" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="K55" s="105"/>
+      <c r="K55" s="125"/>
     </row>
     <row r="56" spans="1:12">
       <c r="B56" s="78" t="s">
@@ -8522,7 +9069,7 @@
       <c r="K103" s="60"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="B104" s="134" t="s">
+      <c r="B104" s="122" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="65" t="s">
@@ -8532,7 +9079,7 @@
       <c r="K104" s="60"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="B105" s="134" t="s">
+      <c r="B105" s="122" t="s">
         <v>32</v>
       </c>
       <c r="C105" s="65" t="s">
@@ -8542,7 +9089,7 @@
       <c r="K105" s="60"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="B106" s="134" t="s">
+      <c r="B106" s="122" t="s">
         <v>29</v>
       </c>
       <c r="C106" s="65" t="s">
@@ -8552,7 +9099,7 @@
       <c r="K106" s="60"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="B107" s="134" t="s">
+      <c r="B107" s="122" t="s">
         <v>77</v>
       </c>
       <c r="C107" s="65" t="s">
@@ -8734,69 +9281,106 @@
         <v>461</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:5">
       <c r="B129" s="61" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:5">
       <c r="B130" s="61" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:5">
       <c r="B131" s="61" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:5">
       <c r="B132" s="61" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:5">
       <c r="C133" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:5">
       <c r="C134" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="135" spans="1:5">
+      <c r="E135" s="105" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="E136" s="106" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="E137" s="105" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="E138" s="105"/>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="83" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="E139" s="105" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="83"/>
       <c r="B140" s="11" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="E140" s="105" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="B141" s="11"/>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="E141" s="105" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="10" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="E142" s="105"/>
+    </row>
+    <row r="143" spans="1:5">
       <c r="B143" s="11" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="E143" s="105" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="B144" s="11" t="s">
         <v>511</v>
+      </c>
+      <c r="E144" s="105" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="B145" s="11" t="s">
         <v>512</v>
       </c>
+      <c r="E145" s="105" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="B146" s="11"/>
@@ -8805,10 +9389,10 @@
       <c r="A148" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="E148" s="122" t="s">
+      <c r="E148" s="110" t="s">
         <v>549</v>
       </c>
-      <c r="L148" s="122" t="s">
+      <c r="L148" s="110" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8821,98 +9405,98 @@
       <c r="B150" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="E150" s="125" t="s">
-        <v>584</v>
-      </c>
-      <c r="F150" s="121" t="s">
+      <c r="E150" s="113" t="s">
+        <v>583</v>
+      </c>
+      <c r="F150" s="109" t="s">
         <v>537</v>
       </c>
-      <c r="G150" s="121" t="s">
+      <c r="G150" s="109" t="s">
         <v>538</v>
       </c>
-      <c r="H150" s="121" t="s">
+      <c r="H150" s="109" t="s">
         <v>539</v>
       </c>
-      <c r="I150" s="121" t="s">
-        <v>592</v>
-      </c>
-      <c r="J150" s="121" t="s">
+      <c r="I150" s="109" t="s">
+        <v>591</v>
+      </c>
+      <c r="J150" s="109" t="s">
         <v>540</v>
       </c>
-      <c r="L150" s="126" t="s">
-        <v>583</v>
-      </c>
-      <c r="M150" s="126" t="s">
+      <c r="L150" s="114" t="s">
+        <v>582</v>
+      </c>
+      <c r="M150" s="114" t="s">
+        <v>589</v>
+      </c>
+      <c r="N150" s="114" t="s">
         <v>590</v>
-      </c>
-      <c r="N150" s="126" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="B151" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E151" s="125">
+      <c r="E151" s="113">
         <v>1</v>
       </c>
-      <c r="F151" s="120" t="s">
-        <v>585</v>
-      </c>
-      <c r="G151" s="120" t="s">
+      <c r="F151" s="108" t="s">
+        <v>584</v>
+      </c>
+      <c r="G151" s="108" t="s">
         <v>541</v>
       </c>
-      <c r="H151" s="120">
+      <c r="H151" s="108">
         <v>18</v>
       </c>
-      <c r="I151" s="120" t="str">
+      <c r="I151" s="108" t="str">
         <f>G151&amp;"@climbai.com"</f>
         <v>Alice@climbai.com</v>
       </c>
-      <c r="J151" s="120" t="s">
+      <c r="J151" s="108" t="s">
         <v>546</v>
       </c>
-      <c r="L151" s="119" t="s">
-        <v>593</v>
-      </c>
-      <c r="M151" s="119" t="str">
+      <c r="L151" s="107" t="s">
+        <v>592</v>
+      </c>
+      <c r="M151" s="107" t="str">
         <f>I151&amp;" :"&amp;E151</f>
         <v>Alice@climbai.com :1</v>
       </c>
-      <c r="N151" s="119" t="str">
+      <c r="N151" s="107" t="str">
         <f>G151&amp;", "&amp;H151&amp;": "&amp;E151</f>
         <v>Alice, 18: 1</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="B152" s="11"/>
-      <c r="E152" s="125">
+      <c r="E152" s="113">
         <v>2</v>
       </c>
-      <c r="F152" s="120" t="s">
-        <v>586</v>
-      </c>
-      <c r="G152" s="120" t="s">
+      <c r="F152" s="108" t="s">
+        <v>585</v>
+      </c>
+      <c r="G152" s="108" t="s">
         <v>542</v>
       </c>
-      <c r="H152" s="120">
+      <c r="H152" s="108">
         <v>17</v>
       </c>
-      <c r="I152" s="120" t="str">
+      <c r="I152" s="108" t="str">
         <f t="shared" ref="I152:I155" si="0">G152&amp;"@climbai.com"</f>
         <v>Bob@climbai.com</v>
       </c>
-      <c r="J152" s="120" t="s">
+      <c r="J152" s="108" t="s">
         <v>547</v>
       </c>
-      <c r="L152" s="119" t="s">
-        <v>594</v>
-      </c>
-      <c r="M152" s="119" t="str">
+      <c r="L152" s="107" t="s">
+        <v>593</v>
+      </c>
+      <c r="M152" s="107" t="str">
         <f t="shared" ref="M152:M155" si="1">I152&amp;" :"&amp;E152</f>
         <v>Bob@climbai.com :2</v>
       </c>
-      <c r="N152" s="119" t="str">
+      <c r="N152" s="107" t="str">
         <f t="shared" ref="N152:N155" si="2">G152&amp;", "&amp;H152&amp;": "&amp;E152</f>
         <v>Bob, 17: 2</v>
       </c>
@@ -8922,33 +9506,33 @@
         <v>514</v>
       </c>
       <c r="B153" s="11"/>
-      <c r="E153" s="125">
+      <c r="E153" s="113">
         <v>3</v>
       </c>
-      <c r="F153" s="120" t="s">
-        <v>587</v>
-      </c>
-      <c r="G153" s="120" t="s">
+      <c r="F153" s="108" t="s">
+        <v>586</v>
+      </c>
+      <c r="G153" s="108" t="s">
         <v>543</v>
       </c>
-      <c r="H153" s="120">
+      <c r="H153" s="108">
         <v>22</v>
       </c>
-      <c r="I153" s="120" t="str">
+      <c r="I153" s="108" t="str">
         <f t="shared" si="0"/>
         <v>John@climbai.com</v>
       </c>
-      <c r="J153" s="120" t="s">
+      <c r="J153" s="108" t="s">
         <v>548</v>
       </c>
-      <c r="L153" s="119" t="s">
-        <v>595</v>
-      </c>
-      <c r="M153" s="119" t="str">
+      <c r="L153" s="107" t="s">
+        <v>594</v>
+      </c>
+      <c r="M153" s="107" t="str">
         <f t="shared" si="1"/>
         <v>John@climbai.com :3</v>
       </c>
-      <c r="N153" s="119" t="str">
+      <c r="N153" s="107" t="str">
         <f t="shared" si="2"/>
         <v>John, 22: 3</v>
       </c>
@@ -8957,33 +9541,33 @@
       <c r="B154" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="E154" s="125">
+      <c r="E154" s="113">
         <v>4</v>
       </c>
-      <c r="F154" s="120" t="s">
-        <v>588</v>
-      </c>
-      <c r="G154" s="120" t="s">
+      <c r="F154" s="108" t="s">
+        <v>587</v>
+      </c>
+      <c r="G154" s="108" t="s">
         <v>544</v>
       </c>
-      <c r="H154" s="120">
+      <c r="H154" s="108">
         <v>20</v>
       </c>
-      <c r="I154" s="120" t="str">
+      <c r="I154" s="108" t="str">
         <f t="shared" si="0"/>
         <v>Chris@climbai.com</v>
       </c>
-      <c r="J154" s="120" t="s">
+      <c r="J154" s="108" t="s">
         <v>546</v>
       </c>
-      <c r="L154" s="119" t="s">
-        <v>596</v>
-      </c>
-      <c r="M154" s="119" t="str">
+      <c r="L154" s="107" t="s">
+        <v>595</v>
+      </c>
+      <c r="M154" s="107" t="str">
         <f t="shared" si="1"/>
         <v>Chris@climbai.com :4</v>
       </c>
-      <c r="N154" s="119" t="str">
+      <c r="N154" s="107" t="str">
         <f t="shared" si="2"/>
         <v>Chris, 20: 4</v>
       </c>
@@ -8992,33 +9576,33 @@
       <c r="B155" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="E155" s="125">
+      <c r="E155" s="113">
         <v>5</v>
       </c>
-      <c r="F155" s="120" t="s">
-        <v>589</v>
-      </c>
-      <c r="G155" s="120" t="s">
+      <c r="F155" s="108" t="s">
+        <v>588</v>
+      </c>
+      <c r="G155" s="108" t="s">
         <v>545</v>
       </c>
-      <c r="H155" s="120">
+      <c r="H155" s="108">
         <v>21</v>
       </c>
-      <c r="I155" s="120" t="str">
+      <c r="I155" s="108" t="str">
         <f t="shared" si="0"/>
         <v>Jerry@climbai.com</v>
       </c>
-      <c r="J155" s="120" t="s">
+      <c r="J155" s="108" t="s">
         <v>547</v>
       </c>
-      <c r="L155" s="119" t="s">
-        <v>597</v>
-      </c>
-      <c r="M155" s="119" t="str">
+      <c r="L155" s="107" t="s">
+        <v>596</v>
+      </c>
+      <c r="M155" s="107" t="str">
         <f t="shared" si="1"/>
         <v>Jerry@climbai.com :5</v>
       </c>
-      <c r="N155" s="119" t="str">
+      <c r="N155" s="107" t="str">
         <f t="shared" si="2"/>
         <v>Jerry, 21: 5</v>
       </c>
@@ -9067,63 +9651,63 @@
       <c r="C165" s="23"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="117" t="s">
+      <c r="B166" s="105" t="s">
         <v>528</v>
       </c>
       <c r="C166" s="23"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="118" t="s">
+      <c r="B167" s="106" t="s">
         <v>531</v>
       </c>
       <c r="C167" s="23"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="117" t="s">
+      <c r="B168" s="105" t="s">
         <v>532</v>
       </c>
       <c r="C168" s="23"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="117"/>
+      <c r="B169" s="105"/>
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="117" t="s">
+      <c r="B170" s="105" t="s">
         <v>529</v>
       </c>
       <c r="C170" s="23"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="117" t="s">
+      <c r="B171" s="105" t="s">
         <v>533</v>
       </c>
       <c r="C171" s="23"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="117" t="s">
+      <c r="B172" s="105" t="s">
         <v>534</v>
       </c>
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="117"/>
+      <c r="B173" s="105"/>
       <c r="C173" s="23"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="117" t="s">
+      <c r="B174" s="105" t="s">
         <v>530</v>
       </c>
       <c r="C174" s="23"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="117" t="s">
+      <c r="B175" s="105" t="s">
         <v>535</v>
       </c>
       <c r="C175" s="23"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="117" t="s">
+      <c r="B176" s="105" t="s">
         <v>536</v>
       </c>
       <c r="C176" s="23"/>
@@ -9139,18 +9723,18 @@
       <c r="B178" s="23"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="B179" s="116" t="s">
+      <c r="B179" s="104" t="s">
         <v>554</v>
       </c>
       <c r="C179"/>
     </row>
     <row r="180" spans="1:3">
-      <c r="B180" s="116" t="s">
-        <v>579</v>
+      <c r="B180" s="104" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="B181" s="116" t="s">
+      <c r="B181" s="104" t="s">
         <v>555</v>
       </c>
     </row>
@@ -9158,203 +9742,215 @@
       <c r="B182" s="10"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="B183" s="117" t="s">
+      <c r="B183" s="105" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="B184" s="117" t="s">
+      <c r="B184" s="138" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="B185" s="117" t="s">
+      <c r="B185" s="105" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="116" t="s">
+      <c r="A189" s="104" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" s="104" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="112" t="s">
+        <v>556</v>
+      </c>
+      <c r="B192" s="104"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="B193" s="104" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="B194" s="104" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="B195" s="104" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="B196" s="104"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="112" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="B198" s="112" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199" s="112" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200" s="112" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="B201" s="112" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="B202" s="104"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="B203" s="104"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="B204" s="104" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="B205" s="104" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="B206" s="104"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207" s="104" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="B208" s="104" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="B209" s="104" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="B210" s="104" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="B211" s="104" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" s="104" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="B213" s="104" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="B214" s="104" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="B215" s="104"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="112" t="s">
+        <v>569</v>
+      </c>
+      <c r="B216" s="104"/>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217" s="104" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218" s="104" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" s="112" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="B190" s="116" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="124" t="s">
-        <v>556</v>
-      </c>
-      <c r="B192" s="116"/>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="B193" s="116" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="B194" s="116" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="B195" s="116" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="B196" s="116"/>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="124" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="B198" s="124" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="B199" s="124" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="B200" s="124" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="B201" s="124" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="B202" s="116"/>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="124" t="s">
-        <v>561</v>
-      </c>
-      <c r="B203" s="116"/>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="B204" s="116" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="B205" s="116" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="B206" s="116"/>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="B207" s="116" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="B208" s="116" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="B209" s="116" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="B210" s="116"/>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="B211" s="116" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="B212" s="116" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="B213" s="116"/>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="B214" s="116" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="B215" s="116"/>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="124" t="s">
-        <v>570</v>
-      </c>
-      <c r="B216" s="116"/>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="B217" s="116" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="B218" s="116" t="s">
+    <row r="220" spans="1:2">
+      <c r="B220" s="112" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="B221" s="104"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="B222" s="104" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="B219" s="124" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="B220" s="124" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="B221" s="116"/>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="B222" s="116" t="s">
-        <v>572</v>
-      </c>
-    </row>
     <row r="223" spans="1:2">
-      <c r="B223" s="116"/>
+      <c r="B223" s="104"/>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="116"/>
+      <c r="B225" s="104"/>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="116"/>
+      <c r="B227" s="104"/>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="116"/>
+      <c r="B229" s="104"/>
     </row>
     <row r="230" spans="2:2">
-      <c r="B230" s="116"/>
+      <c r="B230" s="104"/>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" s="116"/>
+      <c r="B231" s="104"/>
     </row>
     <row r="232" spans="2:2">
-      <c r="B232" s="116"/>
+      <c r="B232" s="104"/>
     </row>
     <row r="233" spans="2:2">
-      <c r="B233" s="116"/>
+      <c r="B233" s="104"/>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="116"/>
+      <c r="B234" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C47:C50"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="B41:B43"/>
@@ -9364,14 +9960,6 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C47:C50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://www.geeksforgeeks.org/sql/sql-create-table/" xr:uid="{3141F896-7D9F-154A-B110-57D1C0AFB65B}"/>
@@ -9522,7 +10110,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="132" t="s">
         <v>155</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -9536,7 +10124,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="113"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="43" t="s">
         <v>273</v>
       </c>
@@ -9548,7 +10136,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="132" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -9562,7 +10150,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="113"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="16" t="s">
         <v>164</v>
       </c>
@@ -9574,7 +10162,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="132" t="s">
         <v>167</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -9588,7 +10176,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="113"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="16" t="s">
         <v>171</v>
       </c>
@@ -9628,7 +10216,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="132" t="s">
         <v>182</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -9642,7 +10230,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="114"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="16" t="s">
         <v>184</v>
       </c>
@@ -9654,7 +10242,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="113"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="16" t="s">
         <v>187</v>
       </c>
@@ -9694,7 +10282,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="129" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -9708,7 +10296,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="110"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
@@ -9720,7 +10308,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="110"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="16" t="s">
         <v>280</v>
       </c>
@@ -9732,7 +10320,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="110"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="16" t="s">
         <v>203</v>
       </c>
@@ -9744,7 +10332,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="110"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="16" t="s">
         <v>205</v>
       </c>
@@ -9756,7 +10344,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="111"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="16" t="s">
         <v>207</v>
       </c>
@@ -9768,7 +10356,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="129" t="s">
         <v>210</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -9782,7 +10370,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="110"/>
+      <c r="B42" s="130"/>
       <c r="C42" s="16" t="s">
         <v>214</v>
       </c>
@@ -9794,7 +10382,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="110"/>
+      <c r="B43" s="130"/>
       <c r="C43" s="44" t="s">
         <v>282</v>
       </c>
@@ -9809,7 +10397,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="110"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="16" t="s">
         <v>281</v>
       </c>
@@ -9821,7 +10409,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="110"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="16" t="s">
         <v>219</v>
       </c>
@@ -9836,7 +10424,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="111"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="16" t="s">
         <v>221</v>
       </c>
@@ -9849,7 +10437,7 @@
       <c r="L46" s="31"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="129" t="s">
         <v>223</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -9866,7 +10454,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="110"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="16" t="s">
         <v>227</v>
       </c>
@@ -9879,7 +10467,7 @@
       <c r="L48" s="31"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="110"/>
+      <c r="B49" s="130"/>
       <c r="C49" s="16" t="s">
         <v>230</v>
       </c>
@@ -9894,7 +10482,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="110"/>
+      <c r="B50" s="130"/>
       <c r="C50" s="16" t="s">
         <v>233</v>
       </c>
@@ -9907,7 +10495,7 @@
       <c r="L50" s="31"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="110"/>
+      <c r="B51" s="130"/>
       <c r="C51" s="16" t="s">
         <v>236</v>
       </c>
@@ -9922,7 +10510,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="111"/>
+      <c r="B52" s="131"/>
       <c r="C52" s="16" t="s">
         <v>239</v>
       </c>
@@ -9934,7 +10522,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="129" t="s">
         <v>242</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -9948,7 +10536,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="110"/>
+      <c r="B54" s="130"/>
       <c r="C54" s="16" t="s">
         <v>246</v>
       </c>
@@ -9960,7 +10548,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="110"/>
+      <c r="B55" s="130"/>
       <c r="C55" s="16" t="s">
         <v>249</v>
       </c>
@@ -9972,7 +10560,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="110"/>
+      <c r="B56" s="130"/>
       <c r="C56" s="16" t="s">
         <v>252</v>
       </c>
@@ -9984,7 +10572,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="111"/>
+      <c r="B57" s="131"/>
       <c r="C57" s="16" t="s">
         <v>255</v>
       </c>
@@ -9996,7 +10584,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="129" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -10010,7 +10598,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="110"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="16" t="s">
         <v>262</v>
       </c>
@@ -10022,7 +10610,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="110"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="16" t="s">
         <v>265</v>
       </c>
@@ -10034,7 +10622,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="111"/>
+      <c r="B61" s="131"/>
       <c r="C61" s="16" t="s">
         <v>268</v>
       </c>

--- a/Advanced/Slides/Lec_DDL.xlsx
+++ b/Advanced/Slides/Lec_DDL.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Advanced/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF29C70-3DFD-8C47-880C-CE99D9090BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10538261-DCC3-A141-9738-35B6583AD64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
     <sheet name="Database" sheetId="8" r:id="rId2"/>
-    <sheet name="事务" sheetId="18" r:id="rId3"/>
-    <sheet name="SQL Commands" sheetId="17" r:id="rId4"/>
-    <sheet name="DATA TYPE_FUNCTIONS" sheetId="10" r:id="rId5"/>
-    <sheet name="DATE_FUNCTIONS" sheetId="12" r:id="rId6"/>
+    <sheet name="VIEW_SubQuery" sheetId="19" r:id="rId3"/>
+    <sheet name="事务" sheetId="18" r:id="rId4"/>
+    <sheet name="SQL Commands" sheetId="17" r:id="rId5"/>
+    <sheet name="DATA TYPE_FUNCTIONS" sheetId="10" r:id="rId6"/>
+    <sheet name="DATE_FUNCTIONS" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="813">
   <si>
     <t>💡技术用语确认/SQL Key words</t>
   </si>
@@ -4016,13 +4017,431 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>视图是基于 SQL 查询结果的虚拟表，不存储数据，只保存定义。</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>简化复杂查询</t>
+  </si>
+  <si>
+    <t>数据安全：隐藏敏感信息（如用户手机号、密码）</t>
+  </si>
+  <si>
+    <t>提高可维护性：统一数据视图</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>简单视图：基于单表，无聚合函数</t>
+  </si>
+  <si>
+    <t>复杂视图：多表 JOIN、聚合函数、嵌套查询</t>
+  </si>
+  <si>
+    <t>(1) 创建视图</t>
+  </si>
+  <si>
+    <t>-- 创建简单视图：只展示用户名和邮箱</t>
+  </si>
+  <si>
+    <t>SELECT username, email</t>
+  </si>
+  <si>
+    <t>FROM users;</t>
+  </si>
+  <si>
+    <t>(2) 使用视图</t>
+  </si>
+  <si>
+    <t>(3) 修改视图</t>
+  </si>
+  <si>
+    <t>-- 方式一：先删除再创建</t>
+  </si>
+  <si>
+    <t>SELECT username, email, phone</t>
+  </si>
+  <si>
+    <t>-- 方式二（部分数据库支持）：直接替换</t>
+  </si>
+  <si>
+    <t>(4) 删除视图</t>
+  </si>
+  <si>
+    <t>思考🤔： 一个电商数据库，查询用户的购买总额时，经常需要写复杂的 JOIN 和聚合 SQL，是否有办法简化？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>虚拟性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：不存储数据，数据来自基表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>动态性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：基表更新，视图结果随之变化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>可控性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：通过权限控制，限制用户访问部分字段</t>
+    </r>
+  </si>
+  <si>
+    <t>基本操作</t>
+  </si>
+  <si>
+    <t>Table_1</t>
+  </si>
+  <si>
+    <t>Table_2</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>子查询是嵌套在另一个 SQL 语句中的查询。</t>
+  </si>
+  <si>
+    <t>可以出现在 WHERE、FROM、SELECT、HAVING 等子句中</t>
+  </si>
+  <si>
+    <t>返回值可以是标量（单个值）、单列、多行或整张临时表</t>
+  </si>
+  <si>
+    <t>独立子查询（Independent Subquery）：执行一次，结果再传给外层查询</t>
+  </si>
+  <si>
+    <t>相关子查询（Correlated Subquery）：依赖外层表的值，每行都执行一次</t>
+  </si>
+  <si>
+    <t>子查询（SubQuery）</t>
+  </si>
+  <si>
+    <t>(1) 子查询在 WHERE 中</t>
+  </si>
+  <si>
+    <t>查询胜率高于平均胜率的玩家：</t>
+  </si>
+  <si>
+    <t>SELECT username, winrate</t>
+  </si>
+  <si>
+    <t>FROM players</t>
+  </si>
+  <si>
+    <t>WHERE winrate &gt; (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT AVG(winrate) FROM players</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>(2) 子查询在 FROM 中（派生表）</t>
+  </si>
+  <si>
+    <t>统计每个段位的平均胜率，再筛选出高于 55% 的段位：</t>
+  </si>
+  <si>
+    <t>SELECT rank_name, avg_winrate</t>
+  </si>
+  <si>
+    <t>FROM (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT r.rank_name, AVG(p.winrate) AS avg_winrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM players p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JOIN rank r ON p.rank_id = r.rank_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GROUP BY r.rank_name</t>
+  </si>
+  <si>
+    <t>) AS rank_stats</t>
+  </si>
+  <si>
+    <t>WHERE avg_winrate &gt; 0.55;</t>
+  </si>
+  <si>
+    <t>(3) 子查询在 SELECT 中</t>
+  </si>
+  <si>
+    <t>查询每个玩家的比赛场次（在 SELECT 中嵌套统计）：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    username,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (SELECT COUNT(*) FROM matches m WHERE m.player_id = p.player_id) AS match_count</t>
+  </si>
+  <si>
+    <t>FROM players p;</t>
+  </si>
+  <si>
+    <t>(4) 相关子查询（Correlated Subquery）</t>
+  </si>
+  <si>
+    <t>找出每个玩家最近的一场比赛：</t>
+  </si>
+  <si>
+    <t>SELECT username, match_id, match_date</t>
+  </si>
+  <si>
+    <t>FROM matches m1</t>
+  </si>
+  <si>
+    <t>JOIN players p ON m1.player_id = p.player_id</t>
+  </si>
+  <si>
+    <t>WHERE match_date = (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT MAX(m2.match_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM matches m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WHERE m2.player_id = m1.player_id</t>
+  </si>
+  <si>
+    <t>案例：找出每个段位胜率最高的玩家</t>
+  </si>
+  <si>
+    <t>SELECT username, rank_name, winrate</t>
+  </si>
+  <si>
+    <t>FROM players p</t>
+  </si>
+  <si>
+    <t>JOIN rank r ON p.rank_id = r.rank_id</t>
+  </si>
+  <si>
+    <t>WHERE winrate = (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT MAX(p2.winrate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM players p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WHERE p2.rank_id = p.rank_id</t>
+  </si>
+  <si>
+    <t>子查询基本用法与实践</t>
+  </si>
+  <si>
+    <t>4. 高级应用案例</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>CREATE VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>SELECT * FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>DROP VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">CREATE OR REPLACE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>user_contact AS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>CREATE VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact AS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">DROP VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>user_contact;</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT *</t>
+  </si>
+  <si>
+    <t>FROM T！</t>
+  </si>
+  <si>
+    <t>JOIN T2</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>DDL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="67">
+  <fonts count="73">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4408,8 +4827,42 @@
       <color theme="9"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="7"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="9"/>
+      <name val="Kai Regular"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4470,8 +4923,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -4611,12 +5070,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4814,6 +5389,15 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="63" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4821,13 +5405,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4848,15 +5432,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5285,6 +5896,239 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>226987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>193702</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>221746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F878CAEA-56F4-3E04-4062-B182096E41BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8495091" y="4440162"/>
+          <a:ext cx="10244643" cy="5739997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342699</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>685399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Left Brace 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92944BDE-57D5-74BC-3F03-A5B1D8300D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="24034247" y="337658"/>
+          <a:ext cx="1340556" cy="10018890"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>282222</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>564444</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>201588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Down Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE4068C-97BF-D2C9-D809-5FF6118CAA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23666349" y="8607778"/>
+          <a:ext cx="1088571" cy="786191"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 47619"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>302381</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>262063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>584603</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>282222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Down Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972DD585-2B99-7842-8035-499B1E4A8566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23686508" y="12135555"/>
+          <a:ext cx="1088571" cy="786191"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 47619"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>410632</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5507,7 +6351,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6507,7 +7351,7 @@
       <c r="C17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="123"/>
+      <c r="D17" s="128"/>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="8" t="s">
@@ -6519,7 +7363,7 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="123"/>
+      <c r="D18" s="128"/>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="8" t="s">
@@ -6531,7 +7375,7 @@
       <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="123"/>
+      <c r="D19" s="128"/>
     </row>
     <row r="20" spans="1:4" ht="30">
       <c r="A20" s="8" t="s">
@@ -6543,7 +7387,7 @@
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="123"/>
+      <c r="D20" s="128"/>
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="A21" s="8" t="s">
@@ -6555,7 +7399,7 @@
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="128"/>
     </row>
     <row r="22" spans="1:4" ht="30">
       <c r="A22" s="8" t="s">
@@ -6567,7 +7411,7 @@
       <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="128"/>
     </row>
     <row r="23" spans="1:4" ht="30">
       <c r="A23" s="8" t="s">
@@ -6579,7 +7423,7 @@
       <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="123"/>
+      <c r="D23" s="128"/>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="53" t="s">
@@ -6591,7 +7435,7 @@
       <c r="C24" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="123"/>
+      <c r="D24" s="128"/>
     </row>
     <row r="25" spans="1:4" ht="30">
       <c r="A25" s="8" t="s">
@@ -6603,7 +7447,7 @@
       <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="123"/>
+      <c r="D25" s="128"/>
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="8" t="s">
@@ -6615,7 +7459,7 @@
       <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="123"/>
+      <c r="D26" s="128"/>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="53" t="s">
@@ -6627,7 +7471,7 @@
       <c r="C27" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="123"/>
+      <c r="D27" s="128"/>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="55" t="s">
@@ -6639,7 +7483,7 @@
       <c r="C28" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="123"/>
+      <c r="D28" s="128"/>
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" s="55" t="s">
@@ -6651,7 +7495,7 @@
       <c r="C29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="123"/>
+      <c r="D29" s="128"/>
     </row>
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="57" t="s">
@@ -6663,7 +7507,7 @@
       <c r="C30" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="123"/>
+      <c r="D30" s="128"/>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="57" t="s">
@@ -6675,7 +7519,7 @@
       <c r="C31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="123"/>
+      <c r="D31" s="128"/>
     </row>
     <row r="32" spans="1:4" ht="30">
       <c r="A32" s="57" t="s">
@@ -6687,7 +7531,7 @@
       <c r="C32" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="123"/>
+      <c r="D32" s="128"/>
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33" s="57" t="s">
@@ -6699,7 +7543,7 @@
       <c r="C33" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="123"/>
+      <c r="D33" s="128"/>
     </row>
     <row r="41" spans="1:8" ht="27">
       <c r="A41" s="2" t="s">
@@ -6824,13 +7668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EC6ABD-0E1E-7241-A025-789C197C5335}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.59999389629810485"/>
-  </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -7143,17 +7984,17 @@
       <c r="E57" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="K57" s="139" t="s">
+      <c r="K57" s="127" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="59" spans="5:11">
-      <c r="K59" s="139" t="s">
+      <c r="K59" s="127" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="61" spans="5:11">
-      <c r="K61" s="139" t="s">
+      <c r="K61" s="127" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7163,17 +8004,17 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="K66" s="139" t="s">
+      <c r="K66" s="127" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="K68" s="139" t="s">
+      <c r="K68" s="127" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="K70" s="139" t="s">
+      <c r="K70" s="127" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7581,13 +8422,885 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826F837B-CD24-B642-AC25-7C9C0A0835AA}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AK143"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="16" width="10.6640625" style="27"/>
+    <col min="17" max="17" width="10.6640625" style="11"/>
+    <col min="18" max="16384" width="10.6640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="30" customHeight="1">
+      <c r="A1" s="143" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:37" ht="30" customHeight="1">
+      <c r="Q2" s="27"/>
+    </row>
+    <row r="3" spans="1:37" ht="30" customHeight="1">
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="1:37" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q4" s="27"/>
+    </row>
+    <row r="5" spans="1:37" ht="30" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="Q5" s="27"/>
+    </row>
+    <row r="6" spans="1:37" ht="30" customHeight="1">
+      <c r="A6" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="27"/>
+      <c r="X6" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="144"/>
+      <c r="AA6" s="144"/>
+      <c r="AB6" s="144"/>
+      <c r="AC6" s="144"/>
+      <c r="AD6" s="144"/>
+      <c r="AF6" s="27" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="30" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q7" s="27"/>
+      <c r="Y7" s="145"/>
+      <c r="Z7" s="144"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="144"/>
+      <c r="AC7" s="147"/>
+      <c r="AD7" s="144"/>
+      <c r="AG7" s="145"/>
+      <c r="AH7" s="144"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="144"/>
+      <c r="AK7" s="144"/>
+    </row>
+    <row r="8" spans="1:37" ht="30" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="144"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="144"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="144"/>
+      <c r="AK8" s="144"/>
+    </row>
+    <row r="9" spans="1:37" ht="30" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q9" s="27"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="144"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+    </row>
+    <row r="10" spans="1:37" ht="30" customHeight="1">
+      <c r="Q10" s="27"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="144"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="175"/>
+      <c r="AI10" s="175"/>
+      <c r="AJ10" s="175"/>
+      <c r="AK10" s="175"/>
+    </row>
+    <row r="11" spans="1:37" ht="30" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="Q11" s="27"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="144"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="144"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="144"/>
+      <c r="AK11" s="144"/>
+    </row>
+    <row r="12" spans="1:37" ht="30" customHeight="1">
+      <c r="Q12" s="27"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="146"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="144"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="144"/>
+      <c r="AI12" s="148"/>
+      <c r="AJ12" s="144"/>
+      <c r="AK12" s="144"/>
+    </row>
+    <row r="13" spans="1:37" ht="30" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="Q13" s="27"/>
+    </row>
+    <row r="14" spans="1:37" ht="30" customHeight="1">
+      <c r="A14" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q14" s="27"/>
+    </row>
+    <row r="15" spans="1:37" ht="30" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="16" spans="1:37" ht="30" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="AB16" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="30" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="146"/>
+      <c r="AE17" s="147"/>
+      <c r="AF17" s="148"/>
+      <c r="AI17" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="30" customHeight="1">
+      <c r="Q18" s="27"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="148"/>
+      <c r="AI18" s="27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="30" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="Q19" s="27"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="147"/>
+      <c r="AF19" s="148"/>
+      <c r="AI19" s="27" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="30" customHeight="1">
+      <c r="Q20" s="27"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="147"/>
+      <c r="AF20" s="148"/>
+      <c r="AI20" s="27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="30" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="Q21" s="27"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="146"/>
+      <c r="AE21" s="147"/>
+      <c r="AF21" s="148"/>
+      <c r="AI21" s="27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="30" customHeight="1">
+      <c r="A22" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="146"/>
+      <c r="AE22" s="147"/>
+      <c r="AF22" s="148"/>
+      <c r="AI22" s="27" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="30" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="AI23" s="27" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="30" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="AI24" s="27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="A25" s="3"/>
+      <c r="Q25" s="27"/>
+      <c r="AB25" s="127" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="Q26" s="27"/>
+      <c r="AC26" s="150"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="160"/>
+      <c r="AH26" s="10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="A27" s="61" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q27" s="27"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="157"/>
+      <c r="AF27" s="161"/>
+    </row>
+    <row r="28" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="A28" s="3"/>
+      <c r="Q28" s="27"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="162"/>
+    </row>
+    <row r="29" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="61" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q29" s="27"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="157"/>
+      <c r="AF29" s="161"/>
+    </row>
+    <row r="30" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="B30" s="3"/>
+      <c r="Q30" s="27"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="158"/>
+      <c r="AF30" s="162"/>
+    </row>
+    <row r="31" spans="1:35" ht="30" customHeight="1" thickBot="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q31" s="27"/>
+      <c r="AC31" s="163"/>
+      <c r="AD31" s="153"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="161"/>
+    </row>
+    <row r="32" spans="1:35" ht="30" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q32" s="27"/>
+    </row>
+    <row r="33" spans="1:32" ht="30" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="174" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q33" s="27"/>
+    </row>
+    <row r="34" spans="1:32" ht="30" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="174" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q34" s="27"/>
+    </row>
+    <row r="35" spans="1:32" ht="30" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="Q35" s="27"/>
+    </row>
+    <row r="36" spans="1:32" ht="30" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="Q36" s="27"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="167"/>
+      <c r="AE36" s="168"/>
+      <c r="AF36" s="170"/>
+    </row>
+    <row r="37" spans="1:32" ht="30" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q37" s="27"/>
+      <c r="AC37" s="164"/>
+      <c r="AD37" s="167"/>
+      <c r="AE37" s="168"/>
+      <c r="AF37" s="170"/>
+    </row>
+    <row r="38" spans="1:32" ht="30" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="Q38" s="27"/>
+      <c r="AC38" s="165"/>
+      <c r="AD38" s="146"/>
+      <c r="AE38" s="169"/>
+      <c r="AF38" s="148"/>
+    </row>
+    <row r="39" spans="1:32" ht="30" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q39" s="27"/>
+      <c r="AC39" s="165"/>
+      <c r="AD39" s="146"/>
+      <c r="AE39" s="169"/>
+      <c r="AF39" s="148"/>
+    </row>
+    <row r="40" spans="1:32" ht="30" customHeight="1">
+      <c r="Q40" s="27"/>
+      <c r="AC40" s="166"/>
+      <c r="AD40" s="149"/>
+      <c r="AE40" s="159"/>
+      <c r="AF40" s="171"/>
+    </row>
+    <row r="41" spans="1:32" ht="30" customHeight="1">
+      <c r="Q41" s="27"/>
+      <c r="AC41" s="166"/>
+      <c r="AD41" s="149"/>
+      <c r="AE41" s="159"/>
+      <c r="AF41" s="171"/>
+    </row>
+    <row r="42" spans="1:32" ht="30" customHeight="1">
+      <c r="Q42" s="27"/>
+    </row>
+    <row r="43" spans="1:32" ht="30" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="Q43" s="27"/>
+    </row>
+    <row r="44" spans="1:32" ht="30" customHeight="1">
+      <c r="B44" s="61" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q44" s="27"/>
+    </row>
+    <row r="45" spans="1:32" ht="30" customHeight="1">
+      <c r="B45" s="3"/>
+      <c r="Q45" s="27"/>
+    </row>
+    <row r="46" spans="1:32" ht="30" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q46" s="27"/>
+    </row>
+    <row r="47" spans="1:32" ht="30" customHeight="1">
+      <c r="B47" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q47" s="27"/>
+    </row>
+    <row r="48" spans="1:32" ht="30" customHeight="1">
+      <c r="B48" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q48" s="27"/>
+    </row>
+    <row r="49" spans="1:18" ht="30" customHeight="1">
+      <c r="B49" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q49" s="27"/>
+    </row>
+    <row r="50" spans="1:18" ht="30" customHeight="1">
+      <c r="B50" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q50" s="27"/>
+    </row>
+    <row r="51" spans="1:18" ht="30" customHeight="1">
+      <c r="B51" s="3"/>
+      <c r="Q51" s="27"/>
+    </row>
+    <row r="52" spans="1:18" ht="30" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q52" s="27"/>
+    </row>
+    <row r="53" spans="1:18" ht="30" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q53" s="27"/>
+    </row>
+    <row r="54" spans="1:18" ht="30" customHeight="1">
+      <c r="B54" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q54" s="27"/>
+    </row>
+    <row r="55" spans="1:18" ht="30" customHeight="1">
+      <c r="B55" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q55" s="27"/>
+    </row>
+    <row r="56" spans="1:18" ht="30" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="Q56" s="27"/>
+    </row>
+    <row r="57" spans="1:18" ht="30" customHeight="1">
+      <c r="B57" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q57" s="27"/>
+    </row>
+    <row r="58" spans="1:18" ht="30" customHeight="1">
+      <c r="B58" s="3"/>
+      <c r="Q58" s="27"/>
+    </row>
+    <row r="59" spans="1:18" ht="30" customHeight="1">
+      <c r="B59" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q59" s="27"/>
+    </row>
+    <row r="60" spans="1:18" ht="30" customHeight="1">
+      <c r="Q60" s="27"/>
+    </row>
+    <row r="61" spans="1:18" ht="30" customHeight="1">
+      <c r="Q61" s="27"/>
+    </row>
+    <row r="62" spans="1:18" ht="30" customHeight="1">
+      <c r="Q62" s="27"/>
+    </row>
+    <row r="63" spans="1:18" ht="30" customHeight="1">
+      <c r="A63" s="143" t="s">
+        <v>758</v>
+      </c>
+      <c r="P63" s="173" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="30" customHeight="1">
+      <c r="A64" s="61" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q64" s="61" t="s">
+        <v>759</v>
+      </c>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" ht="30" customHeight="1">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="30" customHeight="1">
+      <c r="B66" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" ht="30" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="172" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="30" customHeight="1">
+      <c r="Q68" s="3"/>
+      <c r="R68" s="172" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="30" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="172" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="30" customHeight="1">
+      <c r="A70" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="172" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="30" customHeight="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="172" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="30" customHeight="1">
+      <c r="B72" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" ht="30" customHeight="1">
+      <c r="A73" s="3"/>
+      <c r="Q73" s="61" t="s">
+        <v>766</v>
+      </c>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" ht="30" customHeight="1">
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="30" customHeight="1">
+      <c r="A75" s="142"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" ht="30" customHeight="1">
+      <c r="A76" s="142"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="172" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" customHeight="1">
+      <c r="A77" s="142"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="172" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="30" customHeight="1">
+      <c r="Q78" s="3"/>
+      <c r="R78" s="172" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="30" customHeight="1">
+      <c r="A79" s="142"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="172" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="30" customHeight="1">
+      <c r="A80" s="142"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="172" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="30" customHeight="1">
+      <c r="Q81" s="3"/>
+      <c r="R81" s="172" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="30" customHeight="1">
+      <c r="A82" s="141"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="172" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="30" customHeight="1">
+      <c r="Q83" s="3"/>
+      <c r="R83" s="172" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="30" customHeight="1">
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="1:18" ht="30" customHeight="1">
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18" ht="30" customHeight="1">
+      <c r="Q86" s="61" t="s">
+        <v>776</v>
+      </c>
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" ht="30" customHeight="1">
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="30" customHeight="1">
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="30" customHeight="1">
+      <c r="Q89" s="3"/>
+      <c r="R89" s="172" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="30" customHeight="1">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="172" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="30" customHeight="1">
+      <c r="Q91" s="3"/>
+      <c r="R91" s="172" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="30" customHeight="1">
+      <c r="A92" s="140"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="172" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="30" customHeight="1">
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18" ht="30" customHeight="1">
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="1:18" ht="30" customHeight="1">
+      <c r="Q95" s="61" t="s">
+        <v>782</v>
+      </c>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" ht="30" customHeight="1">
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="30" customHeight="1">
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="1:18" ht="30" customHeight="1">
+      <c r="Q98" s="3"/>
+      <c r="R98" s="172" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="30" customHeight="1">
+      <c r="Q99" s="3"/>
+      <c r="R99" s="172" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="30" customHeight="1">
+      <c r="A100" s="140"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="172" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="30" customHeight="1">
+      <c r="Q101" s="3"/>
+      <c r="R101" s="172" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="30" customHeight="1">
+      <c r="Q102" s="3"/>
+      <c r="R102" s="172" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="30" customHeight="1">
+      <c r="Q103" s="3"/>
+      <c r="R103" s="172" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="30" customHeight="1">
+      <c r="Q104" s="3"/>
+      <c r="R104" s="172" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="30" customHeight="1">
+      <c r="Q105" s="3"/>
+      <c r="R105" s="172" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="30" customHeight="1">
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="1:18" ht="30" customHeight="1">
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+    </row>
+    <row r="108" spans="1:18" ht="30" customHeight="1">
+      <c r="Q108" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="R108" s="3"/>
+    </row>
+    <row r="109" spans="1:18" ht="30" customHeight="1">
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="30" customHeight="1">
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+    </row>
+    <row r="111" spans="1:18" ht="30" customHeight="1">
+      <c r="Q111" s="3"/>
+      <c r="R111" s="172" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="30" customHeight="1">
+      <c r="Q112" s="3"/>
+      <c r="R112" s="172" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="113" spans="17:18" ht="30" customHeight="1">
+      <c r="Q113" s="3"/>
+      <c r="R113" s="172" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="114" spans="17:18" ht="30" customHeight="1">
+      <c r="Q114" s="3"/>
+      <c r="R114" s="172" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="115" spans="17:18" ht="30" customHeight="1">
+      <c r="Q115" s="3"/>
+      <c r="R115" s="172" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="116" spans="17:18" ht="30" customHeight="1">
+      <c r="Q116" s="3"/>
+      <c r="R116" s="172" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="17:18" ht="30" customHeight="1">
+      <c r="Q117" s="3"/>
+      <c r="R117" s="172" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="118" spans="17:18" ht="30" customHeight="1">
+      <c r="Q118" s="3"/>
+      <c r="R118" s="172" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="133" spans="17:17" ht="30" customHeight="1">
+      <c r="Q133" s="10"/>
+    </row>
+    <row r="143" spans="17:17" ht="30" customHeight="1">
+      <c r="Q143" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989E45A-4984-0F42-A944-8E657A00C60D}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -7598,7 +9311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="123" t="s">
         <v>719</v>
       </c>
     </row>
@@ -7619,37 +9332,37 @@
       <c r="A7" s="24" t="s">
         <v>703</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="124" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25">
       <c r="A8" s="24"/>
-      <c r="F8" s="137"/>
+      <c r="F8" s="125"/>
     </row>
     <row r="9" spans="1:6" ht="25">
       <c r="A9" s="24" t="s">
         <v>704</v>
       </c>
-      <c r="F9" s="137"/>
+      <c r="F9" s="125"/>
     </row>
     <row r="10" spans="1:6" ht="25">
       <c r="A10" s="24" t="s">
         <v>705</v>
       </c>
-      <c r="F10" s="137" t="s">
+      <c r="F10" s="125" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25">
       <c r="A11" s="24"/>
-      <c r="F11" s="137"/>
+      <c r="F11" s="125"/>
     </row>
     <row r="12" spans="1:6" ht="25">
       <c r="A12" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="125" t="s">
         <v>712</v>
       </c>
     </row>
@@ -7657,25 +9370,25 @@
       <c r="A13" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="F13" s="137"/>
+      <c r="F13" s="125"/>
     </row>
     <row r="14" spans="1:6" ht="25">
       <c r="A14" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="125" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25">
       <c r="A15" s="24"/>
-      <c r="F15" s="137"/>
+      <c r="F15" s="125"/>
     </row>
     <row r="16" spans="1:6" ht="25">
       <c r="A16" s="24" t="s">
         <v>709</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="125" t="s">
         <v>714</v>
       </c>
     </row>
@@ -7683,11 +9396,11 @@
       <c r="A17" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="125"/>
     </row>
     <row r="18" spans="1:6" ht="25">
       <c r="A18" s="24"/>
-      <c r="F18" s="137" t="s">
+      <c r="F18" s="125" t="s">
         <v>715</v>
       </c>
     </row>
@@ -7695,21 +9408,21 @@
       <c r="A19" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="137"/>
+      <c r="F19" s="125"/>
     </row>
     <row r="20" spans="1:6" ht="25">
       <c r="A20" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="F20" s="137" t="s">
+      <c r="F20" s="125" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25">
-      <c r="F21" s="137"/>
+      <c r="F21" s="125"/>
     </row>
     <row r="22" spans="1:6" ht="25">
-      <c r="F22" s="137" t="s">
+      <c r="F22" s="125" t="s">
         <v>717</v>
       </c>
     </row>
@@ -7961,7 +9674,7 @@
       <c r="A60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="25">
-      <c r="A61" s="135"/>
+      <c r="A61" s="123"/>
     </row>
     <row r="62" spans="1:4" ht="25">
       <c r="A62" s="23"/>
@@ -7976,7 +9689,7 @@
       <c r="A65" s="23"/>
     </row>
     <row r="66" spans="1:1" ht="25">
-      <c r="A66" s="135"/>
+      <c r="A66" s="123"/>
     </row>
     <row r="67" spans="1:1" ht="25">
       <c r="A67" s="23"/>
@@ -7994,7 +9707,7 @@
       <c r="A71" s="23"/>
     </row>
     <row r="72" spans="1:1" ht="25">
-      <c r="A72" s="135"/>
+      <c r="A72" s="123"/>
     </row>
     <row r="73" spans="1:1" ht="25">
       <c r="A73" s="23"/>
@@ -8012,7 +9725,7 @@
       <c r="A77" s="23"/>
     </row>
     <row r="78" spans="1:1" ht="25">
-      <c r="A78" s="135"/>
+      <c r="A78" s="123"/>
     </row>
     <row r="79" spans="1:1" ht="25">
       <c r="A79" s="23"/>
@@ -8030,7 +9743,7 @@
       <c r="A83" s="23"/>
     </row>
     <row r="84" spans="1:1" ht="25">
-      <c r="A84" s="135"/>
+      <c r="A84" s="123"/>
     </row>
     <row r="85" spans="1:1" ht="25">
       <c r="A85" s="23"/>
@@ -8048,7 +9761,7 @@
       <c r="A89" s="23"/>
     </row>
     <row r="90" spans="1:1" ht="25">
-      <c r="A90" s="135"/>
+      <c r="A90" s="123"/>
     </row>
     <row r="91" spans="1:1" ht="25">
       <c r="A91" s="23"/>
@@ -8108,7 +9821,7 @@
       <c r="A109" s="23"/>
     </row>
     <row r="110" spans="1:1" ht="25">
-      <c r="A110" s="135"/>
+      <c r="A110" s="123"/>
     </row>
     <row r="111" spans="1:1" ht="25">
       <c r="A111" s="23"/>
@@ -8123,7 +9836,7 @@
       <c r="A114" s="23"/>
     </row>
     <row r="115" spans="1:1" ht="25">
-      <c r="A115" s="135"/>
+      <c r="A115" s="123"/>
     </row>
     <row r="116" spans="1:1" ht="25">
       <c r="A116" s="23"/>
@@ -8141,7 +9854,7 @@
       <c r="A120" s="23"/>
     </row>
     <row r="121" spans="1:1" ht="25">
-      <c r="A121" s="135"/>
+      <c r="A121" s="123"/>
     </row>
     <row r="122" spans="1:1" ht="25">
       <c r="A122" s="23"/>
@@ -8165,7 +9878,7 @@
       <c r="A128" s="23"/>
     </row>
     <row r="129" spans="1:1" ht="25">
-      <c r="A129" s="135"/>
+      <c r="A129" s="123"/>
     </row>
     <row r="130" spans="1:1" ht="25">
       <c r="A130" s="23"/>
@@ -8189,7 +9902,7 @@
       <c r="A136" s="23"/>
     </row>
     <row r="137" spans="1:1" ht="25">
-      <c r="A137" s="135"/>
+      <c r="A137" s="123"/>
     </row>
     <row r="138" spans="1:1" ht="25">
       <c r="A138" s="23"/>
@@ -8222,31 +9935,31 @@
       <c r="A163" s="23"/>
     </row>
     <row r="164" spans="1:1" ht="25">
-      <c r="A164" s="135"/>
+      <c r="A164" s="123"/>
     </row>
     <row r="165" spans="1:1" ht="25">
       <c r="A165" s="23"/>
     </row>
     <row r="166" spans="1:1" ht="25">
-      <c r="A166" s="135"/>
+      <c r="A166" s="123"/>
     </row>
     <row r="167" spans="1:1" ht="25">
       <c r="A167" s="23"/>
     </row>
     <row r="168" spans="1:1" ht="25">
-      <c r="A168" s="135"/>
+      <c r="A168" s="123"/>
     </row>
     <row r="169" spans="1:1" ht="25">
       <c r="A169" s="23"/>
     </row>
     <row r="170" spans="1:1" ht="25">
-      <c r="A170" s="135"/>
+      <c r="A170" s="123"/>
     </row>
     <row r="171" spans="1:1" ht="25">
       <c r="A171" s="23"/>
     </row>
     <row r="172" spans="1:1" ht="25">
-      <c r="A172" s="135"/>
+      <c r="A172" s="123"/>
     </row>
     <row r="173" spans="1:1" ht="25">
       <c r="A173" s="23"/>
@@ -8265,15 +9978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6DF952-4A74-C84A-9342-CA82A4CB8675}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
   <dimension ref="A1:X234"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A180" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView showGridLines="0" topLeftCell="A146" zoomScale="82" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
@@ -8534,145 +10244,145 @@
       <c r="K38" s="60"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="129" t="s">
         <v>411</v>
       </c>
-      <c r="C39" s="126" t="s">
+      <c r="C39" s="133" t="s">
         <v>444</v>
       </c>
       <c r="D39" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="K39" s="125"/>
+      <c r="K39" s="130"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="B40" s="124"/>
-      <c r="C40" s="126"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="K40" s="125"/>
+      <c r="K40" s="130"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="B41" s="124" t="s">
+      <c r="B41" s="129" t="s">
         <v>414</v>
       </c>
-      <c r="C41" s="126" t="s">
+      <c r="C41" s="133" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="K41" s="125"/>
+      <c r="K41" s="130"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="124"/>
-      <c r="C42" s="126"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="133"/>
       <c r="D42" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K42" s="125"/>
+      <c r="K42" s="130"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="126"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="K43" s="125"/>
+      <c r="K43" s="130"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="133" t="s">
         <v>366</v>
       </c>
       <c r="D44" s="68" t="s">
         <v>492</v>
       </c>
-      <c r="K44" s="125"/>
+      <c r="K44" s="130"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="124"/>
-      <c r="C45" s="126"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K45" s="125"/>
+      <c r="K45" s="130"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="B46" s="124"/>
-      <c r="C46" s="126"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="69" t="s">
         <v>417</v>
       </c>
-      <c r="K46" s="125"/>
+      <c r="K46" s="130"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="129" t="s">
         <v>418</v>
       </c>
-      <c r="C47" s="126" t="s">
+      <c r="C47" s="133" t="s">
         <v>443</v>
       </c>
       <c r="D47" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="K47" s="125"/>
+      <c r="K47" s="130"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="B48" s="124"/>
-      <c r="C48" s="126"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="133"/>
       <c r="D48" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K48" s="125"/>
+      <c r="K48" s="130"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="B49" s="124"/>
-      <c r="C49" s="126"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="K49" s="125"/>
+      <c r="K49" s="130"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="B50" s="124"/>
-      <c r="C50" s="126"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="69" t="s">
         <v>494</v>
       </c>
-      <c r="K50" s="125"/>
+      <c r="K50" s="130"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="127" t="s">
+      <c r="C51" s="131" t="s">
         <v>446</v>
       </c>
       <c r="D51" s="68" t="s">
         <v>490</v>
       </c>
-      <c r="K51" s="125"/>
+      <c r="K51" s="130"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="B52" s="124"/>
-      <c r="C52" s="128"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="132"/>
       <c r="D52" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="K52" s="125"/>
+      <c r="K52" s="130"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="B53" s="124" t="s">
+      <c r="B53" s="129" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="72" t="s">
@@ -8681,25 +10391,25 @@
       <c r="D53" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="K53" s="125"/>
+      <c r="K53" s="130"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="B54" s="124"/>
+      <c r="B54" s="129"/>
       <c r="C54" s="75" t="s">
         <v>491</v>
       </c>
       <c r="D54" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="K54" s="125"/>
+      <c r="K54" s="130"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="B55" s="124"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="73"/>
       <c r="D55" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="K55" s="125"/>
+      <c r="K55" s="130"/>
     </row>
     <row r="56" spans="1:12">
       <c r="B56" s="78" t="s">
@@ -9747,7 +11457,7 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="B184" s="138" t="s">
+      <c r="B184" s="126" t="s">
         <v>551</v>
       </c>
     </row>
@@ -9943,14 +11653,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C47:C50"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="B41:B43"/>
@@ -9960,6 +11662,14 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C47:C50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://www.geeksforgeeks.org/sql/sql-create-table/" xr:uid="{3141F896-7D9F-154A-B110-57D1C0AFB65B}"/>
@@ -9974,7 +11684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
@@ -10110,7 +11820,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="137" t="s">
         <v>155</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -10124,7 +11834,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="133"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="43" t="s">
         <v>273</v>
       </c>
@@ -10136,7 +11846,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="137" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -10150,7 +11860,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="133"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="16" t="s">
         <v>164</v>
       </c>
@@ -10162,7 +11872,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="137" t="s">
         <v>167</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -10176,7 +11886,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="133"/>
+      <c r="B21" s="138"/>
       <c r="C21" s="16" t="s">
         <v>171</v>
       </c>
@@ -10216,7 +11926,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="137" t="s">
         <v>182</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -10230,7 +11940,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="134"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="16" t="s">
         <v>184</v>
       </c>
@@ -10242,7 +11952,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="133"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="16" t="s">
         <v>187</v>
       </c>
@@ -10282,7 +11992,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="134" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -10296,7 +12006,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="130"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
@@ -10308,7 +12018,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="130"/>
+      <c r="B37" s="135"/>
       <c r="C37" s="16" t="s">
         <v>280</v>
       </c>
@@ -10320,7 +12030,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="130"/>
+      <c r="B38" s="135"/>
       <c r="C38" s="16" t="s">
         <v>203</v>
       </c>
@@ -10332,7 +12042,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="130"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="16" t="s">
         <v>205</v>
       </c>
@@ -10344,7 +12054,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="131"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="16" t="s">
         <v>207</v>
       </c>
@@ -10356,7 +12066,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="134" t="s">
         <v>210</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -10370,7 +12080,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="130"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="16" t="s">
         <v>214</v>
       </c>
@@ -10382,7 +12092,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="130"/>
+      <c r="B43" s="135"/>
       <c r="C43" s="44" t="s">
         <v>282</v>
       </c>
@@ -10397,7 +12107,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="130"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="16" t="s">
         <v>281</v>
       </c>
@@ -10409,7 +12119,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="130"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="16" t="s">
         <v>219</v>
       </c>
@@ -10424,7 +12134,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="131"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="16" t="s">
         <v>221</v>
       </c>
@@ -10437,7 +12147,7 @@
       <c r="L46" s="31"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="129" t="s">
+      <c r="B47" s="134" t="s">
         <v>223</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -10454,7 +12164,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="130"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="16" t="s">
         <v>227</v>
       </c>
@@ -10467,7 +12177,7 @@
       <c r="L48" s="31"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="130"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="16" t="s">
         <v>230</v>
       </c>
@@ -10482,7 +12192,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="130"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="16" t="s">
         <v>233</v>
       </c>
@@ -10495,7 +12205,7 @@
       <c r="L50" s="31"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="130"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="16" t="s">
         <v>236</v>
       </c>
@@ -10510,7 +12220,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="131"/>
+      <c r="B52" s="136"/>
       <c r="C52" s="16" t="s">
         <v>239</v>
       </c>
@@ -10522,7 +12232,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="129" t="s">
+      <c r="B53" s="134" t="s">
         <v>242</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -10536,7 +12246,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="130"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="16" t="s">
         <v>246</v>
       </c>
@@ -10548,7 +12258,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="130"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="16" t="s">
         <v>249</v>
       </c>
@@ -10560,7 +12270,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="130"/>
+      <c r="B56" s="135"/>
       <c r="C56" s="16" t="s">
         <v>252</v>
       </c>
@@ -10572,7 +12282,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="131"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="16" t="s">
         <v>255</v>
       </c>
@@ -10584,7 +12294,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="134" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -10598,7 +12308,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="130"/>
+      <c r="B59" s="135"/>
       <c r="C59" s="16" t="s">
         <v>262</v>
       </c>
@@ -10610,7 +12320,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="130"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="16" t="s">
         <v>265</v>
       </c>
@@ -10622,7 +12332,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="131"/>
+      <c r="B61" s="136"/>
       <c r="C61" s="16" t="s">
         <v>268</v>
       </c>
@@ -10931,7 +12641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C1EB-E120-1042-8BF4-A3ED48385142}">
   <dimension ref="A1:E72"/>
   <sheetViews>

--- a/Advanced/Slides/Lec_DDL.xlsx
+++ b/Advanced/Slides/Lec_DDL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Advanced/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10538261-DCC3-A141-9738-35B6583AD64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96489ED-0B25-294D-9E4A-D7AD0B04FA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="819">
   <si>
     <t>💡技术用语确认/SQL Key words</t>
   </si>
@@ -1292,9 +1292,6 @@
     <t>表控制并发</t>
   </si>
   <si>
-    <t>调用 PL/SQL 或 JAVA 子程序</t>
-  </si>
-  <si>
     <t>描述数据的访问路径</t>
   </si>
   <si>
@@ -1442,33 +1439,18 @@
     <t>LOCK</t>
   </si>
   <si>
-    <t>LOCK TABLE table_name IN lock_mode;</t>
-  </si>
-  <si>
     <t>CALL</t>
   </si>
   <si>
-    <t>CALL procedure_name(arguments);</t>
-  </si>
-  <si>
     <t>EXPLAIN PLAN</t>
   </si>
   <si>
-    <t>EXPLAIN PLAN FOR SELECT * FROM table_name;</t>
-  </si>
-  <si>
     <t>GRANT</t>
   </si>
   <si>
-    <t>GRANT privilege_type [(column_list)] ON [object_type] object_name TO user [WITH GRANT OPTION];</t>
-  </si>
-  <si>
     <t>REVOKE</t>
   </si>
   <si>
-    <t>REVOKE [GRANT OPTION FOR] privilege_type [(column_list)] ON [object_type] object_name FROM user [CASCADE];</t>
-  </si>
-  <si>
     <t>BEGIN TRANSACTION</t>
   </si>
   <si>
@@ -2544,27 +2526,6 @@
         <rFont val="Kai Regular"/>
       </rPr>
       <t>[transaction_name];</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SAVEPOINT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="8"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>savepoint_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color rgb="FF273239"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>;</t>
     </r>
   </si>
   <si>
@@ -3340,12 +3301,6 @@
     <t>适合场景</t>
   </si>
   <si>
-    <t>数据结构稳定、关系复杂的系统</t>
-  </si>
-  <si>
-    <t>数据结构多变、读写量大、可扩展性强的系统</t>
-  </si>
-  <si>
     <t>常见产品</t>
   </si>
   <si>
@@ -3945,8 +3900,749 @@
     <t>如果有事务：执行失败时自动回滚，保证数据一致。</t>
   </si>
   <si>
-    <r>
-      <t>在关系型数据库（MySQL、PostgreSQL、Oracle 等）中，</t>
+    <t>事务 (Transaction)的定义</t>
+  </si>
+  <si>
+    <t>可以理解为：事务就是数据库中的“最小工作单元”，用于保证数据的一致性。</t>
+  </si>
+  <si>
+    <t>一个实际例子（转账）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10, 20, 30] [50, 60, 70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             [80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>视图是基于 SQL 查询结果的虚拟表，不存储数据，只保存定义。</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>简化复杂查询</t>
+  </si>
+  <si>
+    <t>数据安全：隐藏敏感信息（如用户手机号、密码）</t>
+  </si>
+  <si>
+    <t>提高可维护性：统一数据视图</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>简单视图：基于单表，无聚合函数</t>
+  </si>
+  <si>
+    <t>复杂视图：多表 JOIN、聚合函数、嵌套查询</t>
+  </si>
+  <si>
+    <t>(1) 创建视图</t>
+  </si>
+  <si>
+    <t>-- 创建简单视图：只展示用户名和邮箱</t>
+  </si>
+  <si>
+    <t>SELECT username, email</t>
+  </si>
+  <si>
+    <t>FROM users;</t>
+  </si>
+  <si>
+    <t>(2) 使用视图</t>
+  </si>
+  <si>
+    <t>(3) 修改视图</t>
+  </si>
+  <si>
+    <t>-- 方式一：先删除再创建</t>
+  </si>
+  <si>
+    <t>SELECT username, email, phone</t>
+  </si>
+  <si>
+    <t>-- 方式二（部分数据库支持）：直接替换</t>
+  </si>
+  <si>
+    <t>(4) 删除视图</t>
+  </si>
+  <si>
+    <t>思考🤔： 一个电商数据库，查询用户的购买总额时，经常需要写复杂的 JOIN 和聚合 SQL，是否有办法简化？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>虚拟性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：不存储数据，数据来自基表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>动态性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：基表更新，视图结果随之变化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>可控性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：通过权限控制，限制用户访问部分字段</t>
+    </r>
+  </si>
+  <si>
+    <t>基本操作</t>
+  </si>
+  <si>
+    <t>Table_1</t>
+  </si>
+  <si>
+    <t>Table_2</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>子查询是嵌套在另一个 SQL 语句中的查询。</t>
+  </si>
+  <si>
+    <t>可以出现在 WHERE、FROM、SELECT、HAVING 等子句中</t>
+  </si>
+  <si>
+    <t>返回值可以是标量（单个值）、单列、多行或整张临时表</t>
+  </si>
+  <si>
+    <t>独立子查询（Independent Subquery）：执行一次，结果再传给外层查询</t>
+  </si>
+  <si>
+    <t>相关子查询（Correlated Subquery）：依赖外层表的值，每行都执行一次</t>
+  </si>
+  <si>
+    <t>子查询（SubQuery）</t>
+  </si>
+  <si>
+    <t>(1) 子查询在 WHERE 中</t>
+  </si>
+  <si>
+    <t>查询胜率高于平均胜率的玩家：</t>
+  </si>
+  <si>
+    <t>SELECT username, winrate</t>
+  </si>
+  <si>
+    <t>FROM players</t>
+  </si>
+  <si>
+    <t>WHERE winrate &gt; (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT AVG(winrate) FROM players</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>(2) 子查询在 FROM 中（派生表）</t>
+  </si>
+  <si>
+    <t>统计每个段位的平均胜率，再筛选出高于 55% 的段位：</t>
+  </si>
+  <si>
+    <t>SELECT rank_name, avg_winrate</t>
+  </si>
+  <si>
+    <t>FROM (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT r.rank_name, AVG(p.winrate) AS avg_winrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM players p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JOIN rank r ON p.rank_id = r.rank_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GROUP BY r.rank_name</t>
+  </si>
+  <si>
+    <t>) AS rank_stats</t>
+  </si>
+  <si>
+    <t>WHERE avg_winrate &gt; 0.55;</t>
+  </si>
+  <si>
+    <t>(3) 子查询在 SELECT 中</t>
+  </si>
+  <si>
+    <t>查询每个玩家的比赛场次（在 SELECT 中嵌套统计）：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    username,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (SELECT COUNT(*) FROM matches m WHERE m.player_id = p.player_id) AS match_count</t>
+  </si>
+  <si>
+    <t>FROM players p;</t>
+  </si>
+  <si>
+    <t>(4) 相关子查询（Correlated Subquery）</t>
+  </si>
+  <si>
+    <t>找出每个玩家最近的一场比赛：</t>
+  </si>
+  <si>
+    <t>SELECT username, match_id, match_date</t>
+  </si>
+  <si>
+    <t>FROM matches m1</t>
+  </si>
+  <si>
+    <t>JOIN players p ON m1.player_id = p.player_id</t>
+  </si>
+  <si>
+    <t>WHERE match_date = (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT MAX(m2.match_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM matches m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WHERE m2.player_id = m1.player_id</t>
+  </si>
+  <si>
+    <t>案例：找出每个段位胜率最高的玩家</t>
+  </si>
+  <si>
+    <t>SELECT username, rank_name, winrate</t>
+  </si>
+  <si>
+    <t>FROM players p</t>
+  </si>
+  <si>
+    <t>JOIN rank r ON p.rank_id = r.rank_id</t>
+  </si>
+  <si>
+    <t>WHERE winrate = (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT MAX(p2.winrate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM players p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WHERE p2.rank_id = p.rank_id</t>
+  </si>
+  <si>
+    <t>子查询基本用法与实践</t>
+  </si>
+  <si>
+    <t>4. 高级应用案例</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>CREATE VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>SELECT * FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>DROP VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">CREATE OR REPLACE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>user_contact AS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>CREATE VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user_contact AS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="9"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve">DROP VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>user_contact;</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT *</t>
+  </si>
+  <si>
+    <t>FROM T！</t>
+  </si>
+  <si>
+    <t>JOIN T2</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>将两个或多个表组合起来</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT table1.column1, table2.column2
+FROM table1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> table2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> table1.common_column = table2.common_column;</t>
+    </r>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <r>
+      <t>数据结构</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>稳定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>、关系复杂的系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>结构多变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>读写量大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>、可扩展性强的系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>LOCK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> TABLE table_name IN lock_mode;</t>
+    </r>
+  </si>
+  <si>
+    <t>调用 PL/SQL 或 JAVA 子程序/ Oracle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>CALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> procedure_name(arguments);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>EXPLAIN PLAN FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> SELECT * FROM table_name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>GRANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> privilege_type [(column_list)] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> [object_type] object_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>TO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user [WITH GRANT OPTION];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>REVOKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> [GRANT OPTION FOR] privilege_type [(column_list)]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> [object_type] object_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> user [CASCADE];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>SAVEPOINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="3"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t xml:space="preserve"> savepoint_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF273239"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在关系型数据库（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>、PostgreSQL、Oracle 等）中，</t>
     </r>
     <r>
       <rPr>
@@ -4001,447 +4697,20 @@
     </r>
   </si>
   <si>
-    <t>事务 (Transaction)的定义</t>
-  </si>
-  <si>
-    <t>可以理解为：事务就是数据库中的“最小工作单元”，用于保证数据的一致性。</t>
-  </si>
-  <si>
-    <t>一个实际例子（转账）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [10, 20, 30] [50, 60, 70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             [80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>视图是基于 SQL 查询结果的虚拟表，不存储数据，只保存定义。</t>
-  </si>
-  <si>
-    <t>作用</t>
-  </si>
-  <si>
-    <t>简化复杂查询</t>
-  </si>
-  <si>
-    <t>数据安全：隐藏敏感信息（如用户手机号、密码）</t>
-  </si>
-  <si>
-    <t>提高可维护性：统一数据视图</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>简单视图：基于单表，无聚合函数</t>
-  </si>
-  <si>
-    <t>复杂视图：多表 JOIN、聚合函数、嵌套查询</t>
-  </si>
-  <si>
-    <t>(1) 创建视图</t>
-  </si>
-  <si>
-    <t>-- 创建简单视图：只展示用户名和邮箱</t>
-  </si>
-  <si>
-    <t>SELECT username, email</t>
-  </si>
-  <si>
-    <t>FROM users;</t>
-  </si>
-  <si>
-    <t>(2) 使用视图</t>
-  </si>
-  <si>
-    <t>(3) 修改视图</t>
-  </si>
-  <si>
-    <t>-- 方式一：先删除再创建</t>
-  </si>
-  <si>
-    <t>SELECT username, email, phone</t>
-  </si>
-  <si>
-    <t>-- 方式二（部分数据库支持）：直接替换</t>
-  </si>
-  <si>
-    <t>(4) 删除视图</t>
-  </si>
-  <si>
-    <t>思考🤔： 一个电商数据库，查询用户的购买总额时，经常需要写复杂的 JOIN 和聚合 SQL，是否有办法简化？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>虚拟性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>：不存储数据，数据来自基表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>动态性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>：基表更新，视图结果随之变化</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>可控性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>：通过权限控制，限制用户访问部分字段</t>
-    </r>
-  </si>
-  <si>
-    <t>基本操作</t>
-  </si>
-  <si>
-    <t>Table_1</t>
-  </si>
-  <si>
-    <t>Table_2</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>子查询是嵌套在另一个 SQL 语句中的查询。</t>
-  </si>
-  <si>
-    <t>可以出现在 WHERE、FROM、SELECT、HAVING 等子句中</t>
-  </si>
-  <si>
-    <t>返回值可以是标量（单个值）、单列、多行或整张临时表</t>
-  </si>
-  <si>
-    <t>独立子查询（Independent Subquery）：执行一次，结果再传给外层查询</t>
-  </si>
-  <si>
-    <t>相关子查询（Correlated Subquery）：依赖外层表的值，每行都执行一次</t>
-  </si>
-  <si>
-    <t>子查询（SubQuery）</t>
-  </si>
-  <si>
-    <t>(1) 子查询在 WHERE 中</t>
-  </si>
-  <si>
-    <t>查询胜率高于平均胜率的玩家：</t>
-  </si>
-  <si>
-    <t>SELECT username, winrate</t>
-  </si>
-  <si>
-    <t>FROM players</t>
-  </si>
-  <si>
-    <t>WHERE winrate &gt; (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT AVG(winrate) FROM players</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>(2) 子查询在 FROM 中（派生表）</t>
-  </si>
-  <si>
-    <t>统计每个段位的平均胜率，再筛选出高于 55% 的段位：</t>
-  </si>
-  <si>
-    <t>SELECT rank_name, avg_winrate</t>
-  </si>
-  <si>
-    <t>FROM (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT r.rank_name, AVG(p.winrate) AS avg_winrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM players p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    JOIN rank r ON p.rank_id = r.rank_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    GROUP BY r.rank_name</t>
-  </si>
-  <si>
-    <t>) AS rank_stats</t>
-  </si>
-  <si>
-    <t>WHERE avg_winrate &gt; 0.55;</t>
-  </si>
-  <si>
-    <t>(3) 子查询在 SELECT 中</t>
-  </si>
-  <si>
-    <t>查询每个玩家的比赛场次（在 SELECT 中嵌套统计）：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    username,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (SELECT COUNT(*) FROM matches m WHERE m.player_id = p.player_id) AS match_count</t>
-  </si>
-  <si>
-    <t>FROM players p;</t>
-  </si>
-  <si>
-    <t>(4) 相关子查询（Correlated Subquery）</t>
-  </si>
-  <si>
-    <t>找出每个玩家最近的一场比赛：</t>
-  </si>
-  <si>
-    <t>SELECT username, match_id, match_date</t>
-  </si>
-  <si>
-    <t>FROM matches m1</t>
-  </si>
-  <si>
-    <t>JOIN players p ON m1.player_id = p.player_id</t>
-  </si>
-  <si>
-    <t>WHERE match_date = (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT MAX(m2.match_date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM matches m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    WHERE m2.player_id = m1.player_id</t>
-  </si>
-  <si>
-    <t>案例：找出每个段位胜率最高的玩家</t>
-  </si>
-  <si>
-    <t>SELECT username, rank_name, winrate</t>
-  </si>
-  <si>
-    <t>FROM players p</t>
-  </si>
-  <si>
-    <t>JOIN rank r ON p.rank_id = r.rank_id</t>
-  </si>
-  <si>
-    <t>WHERE winrate = (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT MAX(p2.winrate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM players p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    WHERE p2.rank_id = p.rank_id</t>
-  </si>
-  <si>
-    <t>子查询基本用法与实践</t>
-  </si>
-  <si>
-    <t>4. 高级应用案例</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="8"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>CREATE VIEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t xml:space="preserve"> user_contact </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="8"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>AS</t>
-    </r>
-  </si>
-  <si>
-    <t>GROUP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="9"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>SELECT * FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t xml:space="preserve"> user_contact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="9"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="9"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>DROP VIEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t xml:space="preserve"> user_contact;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="9"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t xml:space="preserve">CREATE OR REPLACE VIEW </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>user_contact AS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="9"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>CREATE VIEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t xml:space="preserve"> user_contact AS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="9"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t xml:space="preserve">DROP VIEW </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>user_contact;</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT *</t>
-  </si>
-  <si>
-    <t>FROM T！</t>
-  </si>
-  <si>
-    <t>JOIN T2</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>DDL</t>
+    <t>SQL：UPDATE</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="73">
+  <fonts count="80">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4861,6 +5130,49 @@
       <color theme="9"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="3"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFC00000"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -5191,7 +5503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5398,6 +5710,52 @@
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5405,13 +5763,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5432,42 +5790,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5767,8 +6089,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>422613</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>289273</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>2498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6176,14 +6498,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>573549</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>286773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>929714</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>172216</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>172215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6220,13 +6542,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2936021</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>286773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1829892</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>249015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6264,14 +6586,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5598925</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>218495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4284543</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>52849</xdr:rowOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>52848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6308,14 +6630,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>423333</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>300430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1286399</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>191183</xdr:rowOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>191182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7196,7 +7518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29EFB82-9458-7E4B-85AD-45325EE207BE}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C44" zoomScale="88" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -7351,7 +7673,7 @@
       <c r="C17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="128"/>
+      <c r="D17" s="172"/>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="8" t="s">
@@ -7363,7 +7685,7 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="128"/>
+      <c r="D18" s="172"/>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="8" t="s">
@@ -7375,7 +7697,7 @@
       <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="128"/>
+      <c r="D19" s="172"/>
     </row>
     <row r="20" spans="1:4" ht="30">
       <c r="A20" s="8" t="s">
@@ -7387,7 +7709,7 @@
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="172"/>
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="A21" s="8" t="s">
@@ -7399,7 +7721,7 @@
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="172"/>
     </row>
     <row r="22" spans="1:4" ht="30">
       <c r="A22" s="8" t="s">
@@ -7411,7 +7733,7 @@
       <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="172"/>
     </row>
     <row r="23" spans="1:4" ht="30">
       <c r="A23" s="8" t="s">
@@ -7423,7 +7745,7 @@
       <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="128"/>
+      <c r="D23" s="172"/>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="53" t="s">
@@ -7435,7 +7757,7 @@
       <c r="C24" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="128"/>
+      <c r="D24" s="172"/>
     </row>
     <row r="25" spans="1:4" ht="30">
       <c r="A25" s="8" t="s">
@@ -7447,7 +7769,7 @@
       <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="128"/>
+      <c r="D25" s="172"/>
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="8" t="s">
@@ -7459,7 +7781,7 @@
       <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="128"/>
+      <c r="D26" s="172"/>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="53" t="s">
@@ -7471,7 +7793,7 @@
       <c r="C27" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="128"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="55" t="s">
@@ -7483,7 +7805,7 @@
       <c r="C28" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="128"/>
+      <c r="D28" s="172"/>
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" s="55" t="s">
@@ -7495,7 +7817,7 @@
       <c r="C29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="128"/>
+      <c r="D29" s="172"/>
     </row>
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="57" t="s">
@@ -7507,7 +7829,7 @@
       <c r="C30" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="128"/>
+      <c r="D30" s="172"/>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="57" t="s">
@@ -7519,7 +7841,7 @@
       <c r="C31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="128"/>
+      <c r="D31" s="172"/>
     </row>
     <row r="32" spans="1:4" ht="30">
       <c r="A32" s="57" t="s">
@@ -7531,7 +7853,7 @@
       <c r="C32" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="128"/>
+      <c r="D32" s="172"/>
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33" s="57" t="s">
@@ -7543,7 +7865,7 @@
       <c r="C33" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="128"/>
+      <c r="D33" s="172"/>
     </row>
     <row r="41" spans="1:8" ht="27">
       <c r="A41" s="2" t="s">
@@ -7670,8 +7992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EC6ABD-0E1E-7241-A025-789C197C5335}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView showGridLines="0" topLeftCell="B34" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -7850,200 +8172,200 @@
     </row>
     <row r="34" spans="10:13">
       <c r="J34" s="10" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="10:13">
       <c r="K36" s="115" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="L36" s="115" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="M36" s="115" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="10:13">
       <c r="K37" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="10:13">
       <c r="K38" s="5" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="10:13">
       <c r="K39" s="5" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="10:13">
       <c r="K40" s="5" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="10:13">
       <c r="K41" s="5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="10:13">
       <c r="K42" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="10:13">
-      <c r="K43" s="5" t="s">
-        <v>613</v>
+      <c r="K43" s="166" t="s">
+        <v>606</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>614</v>
+        <v>806</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>615</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="10:13">
       <c r="K44" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="10:13">
       <c r="J46" s="10" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="10:13">
       <c r="K48" s="10" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="5:11">
       <c r="E50" s="84" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" spans="5:11">
       <c r="J53" s="10" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="5:11">
       <c r="K55" s="10" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="5:11">
       <c r="E57" s="84" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K57" s="127" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="5:11">
       <c r="K59" s="127" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="5:11">
       <c r="K61" s="127" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="5:11">
       <c r="K64" s="10" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="K66" s="127" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="K68" s="127" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="K70" s="127" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="B72" s="116" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="J73" s="10" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="E74" s="84" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="10" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -8051,7 +8373,7 @@
         <v>112</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -8061,10 +8383,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="B78" s="11" t="s">
-        <v>644</v>
+        <v>635</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -8074,17 +8399,17 @@
     </row>
     <row r="80" spans="1:11">
       <c r="K80" s="11" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="10" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="B82" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -8094,12 +8419,12 @@
     </row>
     <row r="84" spans="1:13">
       <c r="B84" s="11" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="10" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -8108,7 +8433,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="B87" s="116" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -8123,10 +8448,10 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="10" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E89" s="84" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -8134,8 +8459,8 @@
       <c r="M89"/>
     </row>
     <row r="90" spans="1:13" ht="24">
-      <c r="B90" s="11" t="s">
-        <v>651</v>
+      <c r="B90" s="165" t="s">
+        <v>642</v>
       </c>
       <c r="J90" s="111"/>
       <c r="K90"/>
@@ -8144,7 +8469,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="B91" s="11" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -8153,7 +8478,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="B92" s="11" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="J92" s="103"/>
       <c r="K92" s="103"/>
@@ -8168,7 +8493,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="10" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="J94" s="103"/>
       <c r="K94"/>
@@ -8176,8 +8501,8 @@
       <c r="M94"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="B95" s="11" t="s">
-        <v>655</v>
+      <c r="B95" s="165" t="s">
+        <v>646</v>
       </c>
       <c r="J95" s="103"/>
       <c r="K95"/>
@@ -8186,7 +8511,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="B96" s="11" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="J96" s="103"/>
       <c r="K96"/>
@@ -8195,7 +8520,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="B97" s="11" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -8210,7 +8535,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="10" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -8219,7 +8544,7 @@
     </row>
     <row r="100" spans="1:13" ht="24">
       <c r="B100" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="J100" s="111"/>
       <c r="K100"/>
@@ -8228,7 +8553,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="B101" s="11" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -8237,7 +8562,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="B102" s="11" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -8252,7 +8577,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="10" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -8261,7 +8586,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="B105" s="11" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="J105" s="103"/>
       <c r="K105"/>
@@ -8270,7 +8595,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="B106" s="11" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -8279,7 +8604,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="B107" s="11" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="J107" s="103"/>
       <c r="K107"/>
@@ -8294,7 +8619,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="10" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="J109" s="103"/>
       <c r="K109"/>
@@ -8303,7 +8628,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="B110" s="10" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -8312,7 +8637,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="B111" s="10" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J111" s="103"/>
       <c r="K111"/>
@@ -8321,7 +8646,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="B112" s="10" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -8330,7 +8655,7 @@
     </row>
     <row r="113" spans="2:13">
       <c r="B113" s="10" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
@@ -8339,7 +8664,7 @@
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="10" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
@@ -8348,7 +8673,7 @@
     </row>
     <row r="115" spans="2:13" ht="24">
       <c r="B115" s="10" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="J115" s="111"/>
       <c r="K115"/>
@@ -8423,12 +8748,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826F837B-CD24-B642-AC25-7C9C0A0835AA}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
   <dimension ref="A1:AK143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
@@ -8438,8 +8760,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>744</v>
+      <c r="A1" s="131" t="s">
+        <v>734</v>
       </c>
       <c r="Q1" s="27"/>
     </row>
@@ -8451,7 +8773,7 @@
     </row>
     <row r="4" spans="1:37" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="Q4" s="27"/>
     </row>
@@ -8465,113 +8787,113 @@
       </c>
       <c r="Q6" s="27"/>
       <c r="X6" s="31" t="s">
-        <v>749</v>
-      </c>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="144"/>
-      <c r="AD6" s="144"/>
+        <v>739</v>
+      </c>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
       <c r="AF6" s="27" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="30" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="Q7" s="27"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="144"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="144"/>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="144"/>
-      <c r="AK7" s="144"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="134"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="132"/>
+      <c r="AG7" s="133"/>
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="136"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
     </row>
     <row r="8" spans="1:37" ht="30" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="Q8" s="27"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="144"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="144"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="144"/>
-      <c r="AK8" s="144"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="135"/>
+      <c r="AD8" s="132"/>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="136"/>
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="132"/>
     </row>
     <row r="9" spans="1:37" ht="30" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="Q9" s="27"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="144"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="148"/>
-      <c r="AJ9" s="144"/>
-      <c r="AK9" s="144"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="132"/>
+      <c r="AG9" s="133"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="136"/>
+      <c r="AJ9" s="132"/>
+      <c r="AK9" s="132"/>
     </row>
     <row r="10" spans="1:37" ht="30" customHeight="1">
       <c r="Q10" s="27"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="144"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="175"/>
-      <c r="AI10" s="175"/>
-      <c r="AJ10" s="175"/>
-      <c r="AK10" s="175"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="132"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="163"/>
+      <c r="AK10" s="163"/>
     </row>
     <row r="11" spans="1:37" ht="30" customHeight="1">
       <c r="A11" s="3"/>
       <c r="Q11" s="27"/>
-      <c r="Y11" s="145"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="144"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="144"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="144"/>
-      <c r="AI11" s="148"/>
-      <c r="AJ11" s="144"/>
-      <c r="AK11" s="144"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="132"/>
+      <c r="AG11" s="133"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="136"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="132"/>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1">
       <c r="Q12" s="27"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="144"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="144"/>
-      <c r="AI12" s="148"/>
-      <c r="AJ12" s="144"/>
-      <c r="AK12" s="144"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="132"/>
+      <c r="AG12" s="133"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="136"/>
+      <c r="AJ12" s="132"/>
+      <c r="AK12" s="132"/>
     </row>
     <row r="13" spans="1:37" ht="30" customHeight="1">
       <c r="A13" s="3"/>
@@ -8579,197 +8901,197 @@
     </row>
     <row r="14" spans="1:37" ht="30" customHeight="1">
       <c r="A14" s="61" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:37" ht="30" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="1:37" ht="30" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="AB16" s="11" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="30" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="Q17" s="27"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="147"/>
-      <c r="AF17" s="148"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="136"/>
       <c r="AI17" s="27" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="30" customHeight="1">
       <c r="Q18" s="27"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="147"/>
-      <c r="AF18" s="148"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="135"/>
+      <c r="AF18" s="136"/>
       <c r="AI18" s="27" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="30" customHeight="1">
       <c r="A19" s="3"/>
       <c r="Q19" s="27"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="146"/>
-      <c r="AE19" s="147"/>
-      <c r="AF19" s="148"/>
+      <c r="AC19" s="133"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="135"/>
+      <c r="AF19" s="136"/>
       <c r="AI19" s="27" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="30" customHeight="1">
       <c r="Q20" s="27"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="146"/>
-      <c r="AE20" s="147"/>
-      <c r="AF20" s="148"/>
+      <c r="AC20" s="133"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="135"/>
+      <c r="AF20" s="136"/>
       <c r="AI20" s="27" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="30" customHeight="1">
       <c r="A21" s="3"/>
       <c r="Q21" s="27"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="146"/>
-      <c r="AE21" s="147"/>
-      <c r="AF21" s="148"/>
+      <c r="AC21" s="133"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="135"/>
+      <c r="AF21" s="136"/>
       <c r="AI21" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="30" customHeight="1">
       <c r="A22" s="61" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="Q22" s="27"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="147"/>
-      <c r="AF22" s="148"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="135"/>
+      <c r="AF22" s="136"/>
       <c r="AI22" s="27" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="30" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="Q23" s="27"/>
       <c r="AI23" s="27" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="30" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="Q24" s="27"/>
       <c r="AI24" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="3"/>
       <c r="Q25" s="27"/>
       <c r="AB25" s="127" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="30" customHeight="1" thickBot="1">
       <c r="Q26" s="27"/>
-      <c r="AC26" s="150"/>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="160"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="148"/>
       <c r="AH26" s="10" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="61" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="Q27" s="27"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="157"/>
-      <c r="AF27" s="161"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="141"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="149"/>
     </row>
     <row r="28" spans="1:35" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="3"/>
       <c r="Q28" s="27"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="162"/>
+      <c r="AC28" s="142"/>
+      <c r="AD28" s="143"/>
+      <c r="AE28" s="146"/>
+      <c r="AF28" s="150"/>
     </row>
     <row r="29" spans="1:35" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="61" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="Q29" s="27"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="161"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="141"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="149"/>
     </row>
     <row r="30" spans="1:35" ht="30" customHeight="1" thickBot="1">
       <c r="B30" s="3"/>
       <c r="Q30" s="27"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="162"/>
+      <c r="AC30" s="142"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="146"/>
+      <c r="AF30" s="150"/>
     </row>
     <row r="31" spans="1:35" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="Q31" s="27"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="161"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="141"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="149"/>
     </row>
     <row r="32" spans="1:35" ht="30" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="Q32" s="27"/>
     </row>
     <row r="33" spans="1:32" ht="30" customHeight="1">
       <c r="A33" s="61"/>
-      <c r="B33" s="174" t="s">
-        <v>736</v>
+      <c r="B33" s="162" t="s">
+        <v>726</v>
       </c>
       <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:32" ht="30" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="174" t="s">
-        <v>737</v>
+      <c r="B34" s="162" t="s">
+        <v>727</v>
       </c>
       <c r="Q34" s="27"/>
     </row>
@@ -8780,55 +9102,55 @@
     <row r="36" spans="1:32" ht="30" customHeight="1">
       <c r="A36" s="3"/>
       <c r="Q36" s="27"/>
-      <c r="AC36" s="164"/>
-      <c r="AD36" s="167"/>
-      <c r="AE36" s="168"/>
-      <c r="AF36" s="170"/>
+      <c r="AC36" s="152"/>
+      <c r="AD36" s="155"/>
+      <c r="AE36" s="156"/>
+      <c r="AF36" s="158"/>
     </row>
     <row r="37" spans="1:32" ht="30" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="61" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="Q37" s="27"/>
-      <c r="AC37" s="164"/>
-      <c r="AD37" s="167"/>
-      <c r="AE37" s="168"/>
-      <c r="AF37" s="170"/>
+      <c r="AC37" s="152"/>
+      <c r="AD37" s="155"/>
+      <c r="AE37" s="156"/>
+      <c r="AF37" s="158"/>
     </row>
     <row r="38" spans="1:32" ht="30" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="Q38" s="27"/>
-      <c r="AC38" s="165"/>
-      <c r="AD38" s="146"/>
-      <c r="AE38" s="169"/>
-      <c r="AF38" s="148"/>
+      <c r="AC38" s="153"/>
+      <c r="AD38" s="134"/>
+      <c r="AE38" s="157"/>
+      <c r="AF38" s="136"/>
     </row>
     <row r="39" spans="1:32" ht="30" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="Q39" s="27"/>
-      <c r="AC39" s="165"/>
-      <c r="AD39" s="146"/>
-      <c r="AE39" s="169"/>
-      <c r="AF39" s="148"/>
+      <c r="AC39" s="153"/>
+      <c r="AD39" s="134"/>
+      <c r="AE39" s="157"/>
+      <c r="AF39" s="136"/>
     </row>
     <row r="40" spans="1:32" ht="30" customHeight="1">
       <c r="Q40" s="27"/>
-      <c r="AC40" s="166"/>
-      <c r="AD40" s="149"/>
-      <c r="AE40" s="159"/>
-      <c r="AF40" s="171"/>
+      <c r="AC40" s="154"/>
+      <c r="AD40" s="137"/>
+      <c r="AE40" s="147"/>
+      <c r="AF40" s="159"/>
     </row>
     <row r="41" spans="1:32" ht="30" customHeight="1">
       <c r="Q41" s="27"/>
-      <c r="AC41" s="166"/>
-      <c r="AD41" s="149"/>
-      <c r="AE41" s="159"/>
-      <c r="AF41" s="171"/>
+      <c r="AC41" s="154"/>
+      <c r="AD41" s="137"/>
+      <c r="AE41" s="147"/>
+      <c r="AF41" s="159"/>
     </row>
     <row r="42" spans="1:32" ht="30" customHeight="1">
       <c r="Q42" s="27"/>
@@ -8839,7 +9161,7 @@
     </row>
     <row r="44" spans="1:32" ht="30" customHeight="1">
       <c r="B44" s="61" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="Q44" s="27"/>
     </row>
@@ -8849,31 +9171,31 @@
     </row>
     <row r="46" spans="1:32" ht="30" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="Q46" s="27"/>
     </row>
     <row r="47" spans="1:32" ht="30" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="Q47" s="27"/>
     </row>
     <row r="48" spans="1:32" ht="30" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="Q48" s="27"/>
     </row>
     <row r="49" spans="1:18" ht="30" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="Q49" s="27"/>
     </row>
     <row r="50" spans="1:18" ht="30" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="Q50" s="27"/>
     </row>
@@ -8883,25 +9205,25 @@
     </row>
     <row r="52" spans="1:18" ht="30" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="Q52" s="27"/>
     </row>
     <row r="53" spans="1:18" ht="30" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="Q53" s="27"/>
     </row>
     <row r="54" spans="1:18" ht="30" customHeight="1">
       <c r="B54" s="3" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="Q54" s="27"/>
     </row>
     <row r="55" spans="1:18" ht="30" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="Q55" s="27"/>
     </row>
@@ -8911,7 +9233,7 @@
     </row>
     <row r="57" spans="1:18" ht="30" customHeight="1">
       <c r="B57" s="61" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="Q57" s="27"/>
     </row>
@@ -8921,7 +9243,7 @@
     </row>
     <row r="59" spans="1:18" ht="30" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="Q59" s="27"/>
     </row>
@@ -8935,35 +9257,35 @@
       <c r="Q62" s="27"/>
     </row>
     <row r="63" spans="1:18" ht="30" customHeight="1">
-      <c r="A63" s="143" t="s">
-        <v>758</v>
-      </c>
-      <c r="P63" s="173" t="s">
-        <v>799</v>
+      <c r="A63" s="131" t="s">
+        <v>748</v>
+      </c>
+      <c r="P63" s="161" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="30" customHeight="1">
       <c r="A64" s="61" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="Q64" s="61" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="30" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="30" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -8971,48 +9293,48 @@
     <row r="67" spans="1:18" ht="30" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="Q67" s="3"/>
-      <c r="R67" s="172" t="s">
-        <v>761</v>
+      <c r="R67" s="160" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="30" customHeight="1">
       <c r="Q68" s="3"/>
-      <c r="R68" s="172" t="s">
-        <v>762</v>
+      <c r="R68" s="160" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="30" customHeight="1">
       <c r="A69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="172" t="s">
-        <v>763</v>
+      <c r="R69" s="160" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="30" customHeight="1">
       <c r="A70" s="61" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="Q70" s="3"/>
-      <c r="R70" s="172" t="s">
-        <v>764</v>
+      <c r="R70" s="160" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="Q71" s="3"/>
-      <c r="R71" s="172" t="s">
-        <v>765</v>
+      <c r="R71" s="160" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="30" customHeight="1">
       <c r="B72" s="3" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
@@ -9020,72 +9342,72 @@
     <row r="73" spans="1:18" ht="30" customHeight="1">
       <c r="A73" s="3"/>
       <c r="Q73" s="61" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" ht="30" customHeight="1">
       <c r="Q74" s="3"/>
       <c r="R74" s="3" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="30" customHeight="1">
-      <c r="A75" s="142"/>
+      <c r="A75" s="130"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" ht="30" customHeight="1">
-      <c r="A76" s="142"/>
+      <c r="A76" s="130"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="172" t="s">
-        <v>768</v>
+      <c r="R76" s="160" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="30" customHeight="1">
-      <c r="A77" s="142"/>
+      <c r="A77" s="130"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="172" t="s">
-        <v>769</v>
+      <c r="R77" s="160" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="30" customHeight="1">
       <c r="Q78" s="3"/>
-      <c r="R78" s="172" t="s">
-        <v>770</v>
+      <c r="R78" s="160" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="30" customHeight="1">
-      <c r="A79" s="142"/>
+      <c r="A79" s="130"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="172" t="s">
-        <v>771</v>
+      <c r="R79" s="160" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="30" customHeight="1">
-      <c r="A80" s="142"/>
+      <c r="A80" s="130"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="172" t="s">
-        <v>772</v>
+      <c r="R80" s="160" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="30" customHeight="1">
       <c r="Q81" s="3"/>
-      <c r="R81" s="172" t="s">
-        <v>773</v>
+      <c r="R81" s="160" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="30" customHeight="1">
-      <c r="A82" s="141"/>
+      <c r="A82" s="129"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="172" t="s">
-        <v>774</v>
+      <c r="R82" s="160" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="30" customHeight="1">
       <c r="Q83" s="3"/>
-      <c r="R83" s="172" t="s">
-        <v>775</v>
+      <c r="R83" s="160" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="30" customHeight="1">
@@ -9098,14 +9420,14 @@
     </row>
     <row r="86" spans="1:18" ht="30" customHeight="1">
       <c r="Q86" s="61" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" ht="30" customHeight="1">
       <c r="Q87" s="3"/>
       <c r="R87" s="3" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="30" customHeight="1">
@@ -9114,27 +9436,27 @@
     </row>
     <row r="89" spans="1:18" ht="30" customHeight="1">
       <c r="Q89" s="3"/>
-      <c r="R89" s="172" t="s">
-        <v>778</v>
+      <c r="R89" s="160" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="30" customHeight="1">
       <c r="Q90" s="3"/>
-      <c r="R90" s="172" t="s">
-        <v>779</v>
+      <c r="R90" s="160" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="30" customHeight="1">
       <c r="Q91" s="3"/>
-      <c r="R91" s="172" t="s">
-        <v>780</v>
+      <c r="R91" s="160" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="30" customHeight="1">
-      <c r="A92" s="140"/>
+      <c r="A92" s="128"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="172" t="s">
-        <v>781</v>
+      <c r="R92" s="160" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="30" customHeight="1">
@@ -9147,14 +9469,14 @@
     </row>
     <row r="95" spans="1:18" ht="30" customHeight="1">
       <c r="Q95" s="61" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" ht="30" customHeight="1">
       <c r="Q96" s="3"/>
       <c r="R96" s="3" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="30" customHeight="1">
@@ -9163,51 +9485,51 @@
     </row>
     <row r="98" spans="1:18" ht="30" customHeight="1">
       <c r="Q98" s="3"/>
-      <c r="R98" s="172" t="s">
-        <v>784</v>
+      <c r="R98" s="160" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="30" customHeight="1">
       <c r="Q99" s="3"/>
-      <c r="R99" s="172" t="s">
-        <v>785</v>
+      <c r="R99" s="160" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="30" customHeight="1">
-      <c r="A100" s="140"/>
+      <c r="A100" s="128"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="172" t="s">
-        <v>786</v>
+      <c r="R100" s="160" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="30" customHeight="1">
       <c r="Q101" s="3"/>
-      <c r="R101" s="172" t="s">
-        <v>787</v>
+      <c r="R101" s="160" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="30" customHeight="1">
       <c r="Q102" s="3"/>
-      <c r="R102" s="172" t="s">
-        <v>788</v>
+      <c r="R102" s="160" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="30" customHeight="1">
       <c r="Q103" s="3"/>
-      <c r="R103" s="172" t="s">
-        <v>789</v>
+      <c r="R103" s="160" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="30" customHeight="1">
       <c r="Q104" s="3"/>
-      <c r="R104" s="172" t="s">
-        <v>790</v>
+      <c r="R104" s="160" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="30" customHeight="1">
       <c r="Q105" s="3"/>
-      <c r="R105" s="172" t="s">
-        <v>765</v>
+      <c r="R105" s="160" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="30" customHeight="1">
@@ -9220,14 +9542,14 @@
     </row>
     <row r="108" spans="1:18" ht="30" customHeight="1">
       <c r="Q108" s="61" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="R108" s="3"/>
     </row>
     <row r="109" spans="1:18" ht="30" customHeight="1">
       <c r="Q109" s="3"/>
       <c r="R109" s="3" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="30" customHeight="1">
@@ -9236,50 +9558,50 @@
     </row>
     <row r="111" spans="1:18" ht="30" customHeight="1">
       <c r="Q111" s="3"/>
-      <c r="R111" s="172" t="s">
-        <v>792</v>
+      <c r="R111" s="160" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="30" customHeight="1">
       <c r="Q112" s="3"/>
-      <c r="R112" s="172" t="s">
-        <v>793</v>
+      <c r="R112" s="160" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="30" customHeight="1">
       <c r="Q113" s="3"/>
-      <c r="R113" s="172" t="s">
-        <v>794</v>
+      <c r="R113" s="160" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="30" customHeight="1">
       <c r="Q114" s="3"/>
-      <c r="R114" s="172" t="s">
-        <v>795</v>
+      <c r="R114" s="160" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="30" customHeight="1">
       <c r="Q115" s="3"/>
-      <c r="R115" s="172" t="s">
-        <v>796</v>
+      <c r="R115" s="160" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="30" customHeight="1">
       <c r="Q116" s="3"/>
-      <c r="R116" s="172" t="s">
-        <v>797</v>
+      <c r="R116" s="160" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="30" customHeight="1">
       <c r="Q117" s="3"/>
-      <c r="R117" s="172" t="s">
-        <v>798</v>
+      <c r="R117" s="160" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="30" customHeight="1">
       <c r="Q118" s="3"/>
-      <c r="R118" s="172" t="s">
-        <v>765</v>
+      <c r="R118" s="160" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="133" spans="17:17" ht="30" customHeight="1">
@@ -9296,11 +9618,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989E45A-4984-0F42-A944-8E657A00C60D}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:T176"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -9310,112 +9630,128 @@
     <col min="5" max="5" width="159.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25">
+    <row r="1" spans="1:20" ht="25">
       <c r="A1" s="123" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="25">
       <c r="A2" s="23"/>
     </row>
-    <row r="3" spans="1:6" ht="25">
+    <row r="3" spans="1:20" ht="25">
       <c r="A3" s="23" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="25">
       <c r="A4" s="23" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="25">
       <c r="A7" s="24" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F7" s="124" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25">
-      <c r="A8" s="24"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="26">
+      <c r="A8" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="C8" s="167"/>
       <c r="F8" s="125"/>
     </row>
-    <row r="9" spans="1:6" ht="25">
+    <row r="9" spans="1:20" ht="26">
       <c r="A9" s="24" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F9" s="125"/>
-    </row>
-    <row r="10" spans="1:6" ht="25">
-      <c r="A10" s="24" t="s">
-        <v>705</v>
+      <c r="R9" s="171"/>
+    </row>
+    <row r="10" spans="1:20" ht="25">
+      <c r="A10" s="168" t="s">
+        <v>696</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="26">
       <c r="A11" s="24"/>
       <c r="F11" s="125"/>
-    </row>
-    <row r="12" spans="1:6" ht="25">
+      <c r="R11" s="1"/>
+      <c r="T11" s="170" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="26">
       <c r="A12" s="24" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25">
+        <v>703</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="T12" s="170" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="25">
       <c r="A13" s="24" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F13" s="125"/>
     </row>
-    <row r="14" spans="1:6" ht="25">
+    <row r="14" spans="1:20" ht="25">
       <c r="A14" s="24" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="F14" s="125" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="25">
       <c r="A15" s="24"/>
       <c r="F15" s="125"/>
     </row>
-    <row r="16" spans="1:6" ht="25">
+    <row r="16" spans="1:20" ht="32">
       <c r="A16" s="24" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>714</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="P16" s="169"/>
     </row>
     <row r="17" spans="1:6" ht="25">
-      <c r="A17" s="24" t="s">
-        <v>435</v>
+      <c r="A17" s="168" t="s">
+        <v>429</v>
       </c>
       <c r="F17" s="125"/>
     </row>
     <row r="18" spans="1:6" ht="25">
       <c r="A18" s="24"/>
       <c r="F18" s="125" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="25">
       <c r="A19" s="24" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="F19" s="125"/>
     </row>
     <row r="20" spans="1:6" ht="25">
-      <c r="A20" s="24" t="s">
-        <v>437</v>
+      <c r="A20" s="168" t="s">
+        <v>431</v>
       </c>
       <c r="F20" s="125" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25">
@@ -9423,12 +9759,12 @@
     </row>
     <row r="22" spans="1:6" ht="25">
       <c r="F22" s="125" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="23">
       <c r="A25" s="118" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B25" s="118"/>
       <c r="C25" s="118"/>
@@ -9442,7 +9778,7 @@
     </row>
     <row r="27" spans="1:6" ht="23">
       <c r="A27" s="117" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B27" s="118"/>
       <c r="C27" s="118"/>
@@ -9451,78 +9787,78 @@
     <row r="28" spans="1:6" ht="23">
       <c r="A28" s="118"/>
       <c r="B28" s="121" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C28" s="121" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E28" s="121" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="23">
       <c r="B29" s="119" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="D29" s="119" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="E29" s="120" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="23">
       <c r="A30" s="118"/>
       <c r="B30" s="119" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E30" s="120" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="23">
       <c r="B31" s="119" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C31" s="120" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="D31" s="119" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E31" s="120" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="23">
       <c r="B32" s="119" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C32" s="120" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="D32" s="119" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E32" s="120" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23">
       <c r="A36" s="117" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B36" s="118"/>
       <c r="C36" s="118"/>
@@ -9531,7 +9867,7 @@
     <row r="37" spans="1:4" ht="23">
       <c r="A37" s="118"/>
       <c r="B37" s="118" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C37" s="118"/>
       <c r="D37" s="118"/>
@@ -9539,7 +9875,7 @@
     <row r="38" spans="1:4" ht="23">
       <c r="B38" s="118"/>
       <c r="C38" s="117" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="D38" s="118"/>
     </row>
@@ -9547,7 +9883,7 @@
       <c r="A39" s="118"/>
       <c r="B39" s="118"/>
       <c r="C39" s="117" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="D39" s="118"/>
     </row>
@@ -9555,14 +9891,14 @@
       <c r="A40" s="118"/>
       <c r="B40" s="118"/>
       <c r="C40" s="117" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="D40" s="118"/>
     </row>
     <row r="41" spans="1:4" ht="23">
       <c r="B41" s="118"/>
       <c r="C41" s="117" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="D41" s="118"/>
     </row>
@@ -9573,7 +9909,7 @@
     </row>
     <row r="43" spans="1:4" ht="23">
       <c r="A43" s="117" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
@@ -9581,14 +9917,14 @@
     </row>
     <row r="44" spans="1:4" ht="23">
       <c r="B44" s="118" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C44" s="118"/>
       <c r="D44" s="118"/>
     </row>
     <row r="45" spans="1:4" ht="23">
       <c r="B45" s="117" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C45" s="118"/>
       <c r="D45" s="118"/>
@@ -9980,11 +10316,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6DF952-4A74-C84A-9342-CA82A4CB8675}">
-  <dimension ref="A1:X234"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:X235"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A146" zoomScale="82" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
@@ -10041,32 +10378,32 @@
     <row r="8" spans="1:3">
       <c r="A8" s="60"/>
       <c r="B8" s="61" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="60"/>
       <c r="B9" s="85" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C9" s="86"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="60"/>
       <c r="B10" s="61" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="60"/>
       <c r="B11" s="61" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="60"/>
       <c r="B12" s="61" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10076,7 +10413,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="60" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10105,13 +10442,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="60"/>
@@ -10119,13 +10456,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="60"/>
@@ -10133,13 +10470,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J22" s="62"/>
       <c r="K22" s="60"/>
@@ -10147,13 +10484,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="B23" s="64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J23" s="62"/>
       <c r="K23" s="60"/>
@@ -10161,13 +10498,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="B24" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J24" s="62"/>
       <c r="K24" s="60"/>
@@ -10175,13 +10512,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="J25" s="62"/>
       <c r="K25" s="60"/>
@@ -10194,22 +10531,22 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="60" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -10239,1367 +10576,1368 @@
         <v>365</v>
       </c>
       <c r="D38" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="K38" s="60"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="173" t="s">
         <v>410</v>
       </c>
-      <c r="K38" s="60"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="B39" s="129" t="s">
+      <c r="C39" s="175" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="68" t="s">
         <v>411</v>
       </c>
-      <c r="C39" s="133" t="s">
-        <v>444</v>
-      </c>
-      <c r="D39" s="68" t="s">
+      <c r="K39" s="174"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="173"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="K39" s="130"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="129"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="69" t="s">
+      <c r="K40" s="174"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="173" t="s">
         <v>413</v>
       </c>
-      <c r="K40" s="130"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="B41" s="129" t="s">
+      <c r="C41" s="175" t="s">
+        <v>439</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="K41" s="174"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="173"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="C41" s="133" t="s">
-        <v>445</v>
-      </c>
-      <c r="D41" s="68" t="s">
+      <c r="K42" s="174"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="173"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="69" t="s">
+        <v>487</v>
+      </c>
+      <c r="K43" s="174"/>
+    </row>
+    <row r="44" spans="1:12" ht="84">
+      <c r="B44" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>803</v>
+      </c>
+      <c r="D44" s="164" t="s">
+        <v>804</v>
+      </c>
+      <c r="K44" s="60"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="173" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="175" t="s">
+        <v>366</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="K45" s="174"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="173"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="K46" s="174"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="173"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" s="174"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="173" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="175" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" s="174"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" s="173"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" s="174"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50" s="173"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" s="174"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" s="173"/>
+      <c r="C51" s="175"/>
+      <c r="D51" s="69" t="s">
+        <v>488</v>
+      </c>
+      <c r="K51" s="174"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" s="173" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="176" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="K52" s="174"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53" s="173"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="K41" s="130"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="B42" s="129"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="70" t="s">
-        <v>415</v>
-      </c>
-      <c r="K42" s="130"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B43" s="129"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="69" t="s">
-        <v>493</v>
-      </c>
-      <c r="K43" s="130"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="3" t="s">
+      <c r="K53" s="174"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" s="173" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" s="174"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="173"/>
+      <c r="C55" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="K55" s="174"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="173"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="K56" s="174"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" s="60"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B44" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="133" t="s">
-        <v>366</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>492</v>
-      </c>
-      <c r="K44" s="130"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="B45" s="129"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="70" t="s">
-        <v>415</v>
-      </c>
-      <c r="K45" s="130"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="129"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="K46" s="130"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="129" t="s">
-        <v>418</v>
-      </c>
-      <c r="C47" s="133" t="s">
-        <v>443</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>416</v>
-      </c>
-      <c r="K47" s="130"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="B48" s="129"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="70" t="s">
-        <v>415</v>
-      </c>
-      <c r="K48" s="130"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="B49" s="129"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="70" t="s">
-        <v>419</v>
-      </c>
-      <c r="K49" s="130"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="B50" s="129"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="69" t="s">
-        <v>494</v>
-      </c>
-      <c r="K50" s="130"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="B51" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="131" t="s">
-        <v>446</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>490</v>
-      </c>
-      <c r="K51" s="130"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="B52" s="129"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="K52" s="130"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="B53" s="129" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="D53" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="K53" s="130"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="B54" s="129"/>
-      <c r="C54" s="75" t="s">
-        <v>491</v>
-      </c>
-      <c r="D54" s="70" t="s">
-        <v>415</v>
-      </c>
-      <c r="K54" s="130"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55" s="129"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="K55" s="130"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="B56" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="C56" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>422</v>
-      </c>
-      <c r="K56" s="60"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="59" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="59" t="s">
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="59" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="B64" s="67" t="s">
+    <row r="65" spans="1:24">
+      <c r="B65" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C65" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D64" s="67" t="s">
+      <c r="D65" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="B65" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="D65" s="65" t="s">
-        <v>496</v>
-      </c>
-      <c r="K65" s="60"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
     </row>
     <row r="66" spans="1:24">
       <c r="B66" s="81" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K66" s="60"/>
     </row>
     <row r="67" spans="1:24">
       <c r="B67" s="81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K67" s="60"/>
     </row>
     <row r="68" spans="1:24">
       <c r="B68" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>373</v>
+        <v>29</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>372</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="K68" s="60"/>
-      <c r="Q68" s="3" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="69" spans="1:24">
       <c r="B69" s="81" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>426</v>
+        <v>808</v>
       </c>
       <c r="K69" s="60"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="89"/>
-      <c r="V69" s="89"/>
-      <c r="W69" s="89"/>
-      <c r="X69" s="90"/>
+      <c r="Q69" s="3" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="70" spans="1:24">
       <c r="B70" s="81" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C70" s="87" t="s">
-        <v>375</v>
+        <v>809</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>428</v>
+        <v>810</v>
       </c>
       <c r="K70" s="60"/>
-      <c r="Q70" s="91"/>
-      <c r="X70" s="92"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="89"/>
+      <c r="V70" s="89"/>
+      <c r="W70" s="89"/>
+      <c r="X70" s="90"/>
     </row>
     <row r="71" spans="1:24">
+      <c r="B71" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>811</v>
+      </c>
+      <c r="K71" s="60"/>
       <c r="Q71" s="91"/>
       <c r="X71" s="92"/>
     </row>
     <row r="72" spans="1:24">
       <c r="Q72" s="91"/>
-      <c r="T72" s="93" t="s">
-        <v>501</v>
-      </c>
       <c r="X72" s="92"/>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="59" t="s">
-        <v>376</v>
-      </c>
       <c r="Q73" s="91"/>
+      <c r="T73" s="93" t="s">
+        <v>495</v>
+      </c>
       <c r="X73" s="92"/>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B74" s="60"/>
+      <c r="A74" s="59" t="s">
+        <v>375</v>
+      </c>
       <c r="Q74" s="91"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="94"/>
-      <c r="T74" s="95" t="s">
-        <v>32</v>
-      </c>
       <c r="X74" s="92"/>
     </row>
     <row r="75" spans="1:24">
       <c r="A75" s="3" t="s">
-        <v>456</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B75" s="60"/>
       <c r="Q75" s="91"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="95" t="s">
+        <v>32</v>
+      </c>
       <c r="X75" s="92"/>
     </row>
     <row r="76" spans="1:24">
+      <c r="A76" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="Q76" s="91"/>
-      <c r="T76" s="96" t="s">
-        <v>502</v>
-      </c>
       <c r="X76" s="92"/>
     </row>
     <row r="77" spans="1:24">
-      <c r="A77" s="59" t="s">
+      <c r="Q77" s="91"/>
+      <c r="T77" s="96" t="s">
+        <v>496</v>
+      </c>
+      <c r="X77" s="92"/>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q78" s="91"/>
+      <c r="X78" s="92"/>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="B79" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="D79" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="Q79" s="91"/>
+      <c r="T79" s="97" t="s">
+        <v>497</v>
+      </c>
+      <c r="W79" s="94"/>
+      <c r="X79" s="92"/>
+    </row>
+    <row r="80" spans="1:24" ht="74" customHeight="1">
+      <c r="B80" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="C80" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="Q77" s="91"/>
-      <c r="X77" s="92"/>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="B78" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="C78" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="D78" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="Q78" s="91"/>
-      <c r="T78" s="97" t="s">
-        <v>503</v>
-      </c>
-      <c r="W78" s="94"/>
-      <c r="X78" s="92"/>
-    </row>
-    <row r="79" spans="1:24" ht="74" customHeight="1">
-      <c r="B79" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="C79" s="71" t="s">
-        <v>378</v>
-      </c>
-      <c r="D79" s="82" t="s">
-        <v>430</v>
-      </c>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="Q79" s="98"/>
-      <c r="R79" s="99"/>
-      <c r="S79" s="99"/>
-      <c r="T79" s="99"/>
-      <c r="U79" s="99"/>
-      <c r="V79" s="99"/>
-      <c r="W79" s="99"/>
-      <c r="X79" s="100"/>
-    </row>
-    <row r="80" spans="1:24" ht="77" customHeight="1">
-      <c r="B80" s="78" t="s">
-        <v>431</v>
-      </c>
-      <c r="C80" s="82" t="s">
-        <v>379</v>
-      </c>
       <c r="D80" s="82" t="s">
-        <v>432</v>
+        <v>812</v>
       </c>
       <c r="J80" s="60"/>
       <c r="K80" s="60"/>
       <c r="L80" s="60"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="59" t="s">
-        <v>500</v>
-      </c>
+      <c r="Q80" s="98"/>
+      <c r="R80" s="99"/>
+      <c r="S80" s="99"/>
+      <c r="T80" s="99"/>
+      <c r="U80" s="99"/>
+      <c r="V80" s="99"/>
+      <c r="W80" s="99"/>
+      <c r="X80" s="100"/>
+    </row>
+    <row r="81" spans="1:15" ht="77" customHeight="1">
+      <c r="B81" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>813</v>
+      </c>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B86" s="60"/>
+      <c r="A86" s="59" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B87" s="60"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B88" s="60"/>
     </row>
     <row r="89" spans="1:15">
+      <c r="A89" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="B89" s="60"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="59" t="s">
-        <v>380</v>
-      </c>
+      <c r="B90" s="60"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="B91" s="67" t="s">
+      <c r="A91" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="B92" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="67" t="s">
+      <c r="C92" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D91" s="67" t="s">
+      <c r="D92" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="B92" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>505</v>
-      </c>
-      <c r="D92" s="65" t="s">
-        <v>507</v>
-      </c>
-      <c r="N92" s="60"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
     </row>
     <row r="93" spans="1:15">
       <c r="B93" s="77" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C93" s="65" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D93" s="65" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="N93" s="60"/>
     </row>
     <row r="94" spans="1:15">
       <c r="B94" s="77" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C94" s="65" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="N94" s="60"/>
     </row>
     <row r="95" spans="1:15">
       <c r="B95" s="77" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C95" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="N95" s="60"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="B96" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>814</v>
+      </c>
+      <c r="N96" s="60"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="D95" s="65" t="s">
-        <v>508</v>
-      </c>
-      <c r="N95" s="60"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="59" t="s">
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="60" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="60" t="s">
+    <row r="103" spans="1:11">
+      <c r="B103" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C103" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="B104" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="65" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="B102" s="79" t="s">
-        <v>360</v>
-      </c>
-      <c r="C102" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="B103" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="B104" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="65" t="s">
-        <v>386</v>
       </c>
       <c r="J104" s="60"/>
       <c r="K104" s="60"/>
     </row>
     <row r="105" spans="1:11">
       <c r="B105" s="122" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C105" s="65" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J105" s="60"/>
       <c r="K105" s="60"/>
     </row>
     <row r="106" spans="1:11">
       <c r="B106" s="122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C106" s="65" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J106" s="60"/>
       <c r="K106" s="60"/>
     </row>
     <row r="107" spans="1:11">
       <c r="B107" s="122" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C107" s="65" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J107" s="60"/>
       <c r="K107" s="60"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="B108" s="65" t="s">
-        <v>83</v>
+      <c r="B108" s="122" t="s">
+        <v>77</v>
       </c>
       <c r="C108" s="65" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J108" s="60"/>
       <c r="K108" s="60"/>
     </row>
     <row r="109" spans="1:11">
       <c r="B109" s="65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C109" s="65" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J109" s="60"/>
       <c r="K109" s="60"/>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" s="65" t="s">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="C110" s="65" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J110" s="60"/>
       <c r="K110" s="60"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="B111" s="76" t="s">
-        <v>414</v>
+      <c r="B111" s="65" t="s">
+        <v>433</v>
       </c>
       <c r="C111" s="65" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J111" s="60"/>
       <c r="K111" s="60"/>
     </row>
     <row r="112" spans="1:11">
       <c r="B112" s="76" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="C112" s="65" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J112" s="60"/>
       <c r="K112" s="60"/>
     </row>
     <row r="113" spans="1:11">
       <c r="B113" s="76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C113" s="65" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="J113" s="60"/>
       <c r="K113" s="60"/>
     </row>
     <row r="114" spans="1:11">
       <c r="B114" s="76" t="s">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="C114" s="65" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="J114" s="60"/>
       <c r="K114" s="60"/>
     </row>
     <row r="115" spans="1:11">
       <c r="B115" s="76" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="C115" s="65" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J115" s="60"/>
       <c r="K115" s="60"/>
     </row>
     <row r="116" spans="1:11">
       <c r="B116" s="76" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="C116" s="65" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J116" s="60"/>
       <c r="K116" s="60"/>
     </row>
     <row r="117" spans="1:11">
       <c r="B117" s="76" t="s">
-        <v>441</v>
+        <v>65</v>
       </c>
       <c r="C117" s="65" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J117" s="60"/>
       <c r="K117" s="60"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="B118" s="65" t="s">
-        <v>442</v>
+      <c r="B118" s="76" t="s">
+        <v>435</v>
       </c>
       <c r="C118" s="65" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J118" s="60"/>
       <c r="K118" s="60"/>
     </row>
     <row r="119" spans="1:11">
       <c r="B119" s="65" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C119" s="65" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J119" s="60"/>
       <c r="K119" s="60"/>
     </row>
     <row r="120" spans="1:11">
       <c r="B120" s="65" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C120" s="65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J120" s="60"/>
       <c r="K120" s="60"/>
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="65" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C121" s="65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J121" s="60"/>
       <c r="K121" s="60"/>
     </row>
     <row r="122" spans="1:11">
       <c r="B122" s="65" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C122" s="65" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="J122" s="60"/>
       <c r="K122" s="60"/>
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="65" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C123" s="65" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="J123" s="60"/>
       <c r="K123" s="60"/>
     </row>
-    <row r="126" spans="1:11">
-      <c r="B126" s="61"/>
+    <row r="124" spans="1:11">
+      <c r="B124" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="C124" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="83" t="s">
-        <v>465</v>
-      </c>
+      <c r="B127" s="61"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="B128" s="61" t="s">
-        <v>461</v>
+      <c r="A128" s="83" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="B129" s="61" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="B130" s="61" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="B131" s="61" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="B132" s="61" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="C133" s="3" t="s">
-        <v>468</v>
+      <c r="B133" s="61" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="C134" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="E135" s="105" t="s">
-        <v>528</v>
+      <c r="C135" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="E136" s="106" t="s">
-        <v>531</v>
+      <c r="E136" s="105" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="E137" s="105" t="s">
-        <v>532</v>
+      <c r="E137" s="106" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="E138" s="105"/>
+      <c r="E138" s="105" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="83" t="s">
+      <c r="E139" s="105"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="83" t="s">
+        <v>502</v>
+      </c>
+      <c r="E140" s="105" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="83"/>
+      <c r="B141" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="E139" s="105" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="83"/>
-      <c r="B140" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="E140" s="105" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="B141" s="11"/>
       <c r="E141" s="105" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="E142" s="105"/>
+      <c r="B142" s="11"/>
+      <c r="E142" s="105" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="B143" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="E143" s="105" t="s">
-        <v>530</v>
-      </c>
+      <c r="A143" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="E143" s="105"/>
     </row>
     <row r="144" spans="1:5">
       <c r="B144" s="11" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="E144" s="105" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="B145" s="11" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E145" s="105" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="E148" s="110" t="s">
-        <v>549</v>
-      </c>
-      <c r="L148" s="110" t="s">
-        <v>509</v>
-      </c>
+      <c r="B146" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E146" s="105" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:14">
-      <c r="B149" s="10" t="s">
-        <v>517</v>
+      <c r="A149" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E149" s="110" t="s">
+        <v>542</v>
+      </c>
+      <c r="L149" s="110" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="B150" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="E150" s="113" t="s">
-        <v>583</v>
-      </c>
-      <c r="F150" s="109" t="s">
-        <v>537</v>
-      </c>
-      <c r="G150" s="109" t="s">
-        <v>538</v>
-      </c>
-      <c r="H150" s="109" t="s">
-        <v>539</v>
-      </c>
-      <c r="I150" s="109" t="s">
-        <v>591</v>
-      </c>
-      <c r="J150" s="109" t="s">
-        <v>540</v>
-      </c>
-      <c r="L150" s="114" t="s">
-        <v>582</v>
-      </c>
-      <c r="M150" s="114" t="s">
-        <v>589</v>
-      </c>
-      <c r="N150" s="114" t="s">
-        <v>590</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="B151" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="E151" s="113">
+        <v>511</v>
+      </c>
+      <c r="E151" s="113" t="s">
+        <v>576</v>
+      </c>
+      <c r="F151" s="109" t="s">
+        <v>530</v>
+      </c>
+      <c r="G151" s="109" t="s">
+        <v>531</v>
+      </c>
+      <c r="H151" s="109" t="s">
+        <v>532</v>
+      </c>
+      <c r="I151" s="109" t="s">
+        <v>584</v>
+      </c>
+      <c r="J151" s="109" t="s">
+        <v>533</v>
+      </c>
+      <c r="L151" s="114" t="s">
+        <v>575</v>
+      </c>
+      <c r="M151" s="114" t="s">
+        <v>582</v>
+      </c>
+      <c r="N151" s="114" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="B152" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E152" s="113">
         <v>1</v>
       </c>
-      <c r="F151" s="108" t="s">
-        <v>584</v>
-      </c>
-      <c r="G151" s="108" t="s">
-        <v>541</v>
-      </c>
-      <c r="H151" s="108">
+      <c r="F152" s="108" t="s">
+        <v>577</v>
+      </c>
+      <c r="G152" s="108" t="s">
+        <v>534</v>
+      </c>
+      <c r="H152" s="108">
         <v>18</v>
       </c>
-      <c r="I151" s="108" t="str">
-        <f>G151&amp;"@climbai.com"</f>
+      <c r="I152" s="108" t="str">
+        <f>G152&amp;"@climbai.com"</f>
         <v>Alice@climbai.com</v>
       </c>
-      <c r="J151" s="108" t="s">
-        <v>546</v>
-      </c>
-      <c r="L151" s="107" t="s">
-        <v>592</v>
-      </c>
-      <c r="M151" s="107" t="str">
-        <f>I151&amp;" :"&amp;E151</f>
+      <c r="J152" s="108" t="s">
+        <v>539</v>
+      </c>
+      <c r="L152" s="107" t="s">
+        <v>585</v>
+      </c>
+      <c r="M152" s="107" t="str">
+        <f>I152&amp;" :"&amp;E152</f>
         <v>Alice@climbai.com :1</v>
       </c>
-      <c r="N151" s="107" t="str">
-        <f>G151&amp;", "&amp;H151&amp;": "&amp;E151</f>
+      <c r="N152" s="107" t="str">
+        <f>G152&amp;", "&amp;H152&amp;": "&amp;E152</f>
         <v>Alice, 18: 1</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
-      <c r="B152" s="11"/>
-      <c r="E152" s="113">
-        <v>2</v>
-      </c>
-      <c r="F152" s="108" t="s">
-        <v>585</v>
-      </c>
-      <c r="G152" s="108" t="s">
-        <v>542</v>
-      </c>
-      <c r="H152" s="108">
-        <v>17</v>
-      </c>
-      <c r="I152" s="108" t="str">
-        <f t="shared" ref="I152:I155" si="0">G152&amp;"@climbai.com"</f>
-        <v>Bob@climbai.com</v>
-      </c>
-      <c r="J152" s="108" t="s">
-        <v>547</v>
-      </c>
-      <c r="L152" s="107" t="s">
-        <v>593</v>
-      </c>
-      <c r="M152" s="107" t="str">
-        <f t="shared" ref="M152:M155" si="1">I152&amp;" :"&amp;E152</f>
-        <v>Bob@climbai.com :2</v>
-      </c>
-      <c r="N152" s="107" t="str">
-        <f t="shared" ref="N152:N155" si="2">G152&amp;", "&amp;H152&amp;": "&amp;E152</f>
-        <v>Bob, 17: 2</v>
-      </c>
-    </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="10" t="s">
-        <v>514</v>
-      </c>
       <c r="B153" s="11"/>
       <c r="E153" s="113">
+        <v>2</v>
+      </c>
+      <c r="F153" s="108" t="s">
+        <v>578</v>
+      </c>
+      <c r="G153" s="108" t="s">
+        <v>535</v>
+      </c>
+      <c r="H153" s="108">
+        <v>17</v>
+      </c>
+      <c r="I153" s="108" t="str">
+        <f t="shared" ref="I153:I156" si="0">G153&amp;"@climbai.com"</f>
+        <v>Bob@climbai.com</v>
+      </c>
+      <c r="J153" s="108" t="s">
+        <v>540</v>
+      </c>
+      <c r="L153" s="107" t="s">
+        <v>586</v>
+      </c>
+      <c r="M153" s="107" t="str">
+        <f t="shared" ref="M153:M156" si="1">I153&amp;" :"&amp;E153</f>
+        <v>Bob@climbai.com :2</v>
+      </c>
+      <c r="N153" s="107" t="str">
+        <f t="shared" ref="N153:N156" si="2">G153&amp;", "&amp;H153&amp;": "&amp;E153</f>
+        <v>Bob, 17: 2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="E154" s="113">
         <v>3</v>
       </c>
-      <c r="F153" s="108" t="s">
-        <v>586</v>
-      </c>
-      <c r="G153" s="108" t="s">
-        <v>543</v>
-      </c>
-      <c r="H153" s="108">
+      <c r="F154" s="108" t="s">
+        <v>579</v>
+      </c>
+      <c r="G154" s="108" t="s">
+        <v>536</v>
+      </c>
+      <c r="H154" s="108">
         <v>22</v>
       </c>
-      <c r="I153" s="108" t="str">
+      <c r="I154" s="108" t="str">
         <f t="shared" si="0"/>
         <v>John@climbai.com</v>
       </c>
-      <c r="J153" s="108" t="s">
-        <v>548</v>
-      </c>
-      <c r="L153" s="107" t="s">
-        <v>594</v>
-      </c>
-      <c r="M153" s="107" t="str">
+      <c r="J154" s="108" t="s">
+        <v>541</v>
+      </c>
+      <c r="L154" s="107" t="s">
+        <v>587</v>
+      </c>
+      <c r="M154" s="107" t="str">
         <f t="shared" si="1"/>
         <v>John@climbai.com :3</v>
       </c>
-      <c r="N153" s="107" t="str">
+      <c r="N154" s="107" t="str">
         <f t="shared" si="2"/>
         <v>John, 22: 3</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
-      <c r="B154" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E154" s="113">
+    <row r="155" spans="1:14">
+      <c r="B155" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E155" s="113">
         <v>4</v>
       </c>
-      <c r="F154" s="108" t="s">
-        <v>587</v>
-      </c>
-      <c r="G154" s="108" t="s">
-        <v>544</v>
-      </c>
-      <c r="H154" s="108">
+      <c r="F155" s="108" t="s">
+        <v>580</v>
+      </c>
+      <c r="G155" s="108" t="s">
+        <v>537</v>
+      </c>
+      <c r="H155" s="108">
         <v>20</v>
       </c>
-      <c r="I154" s="108" t="str">
+      <c r="I155" s="108" t="str">
         <f t="shared" si="0"/>
         <v>Chris@climbai.com</v>
       </c>
-      <c r="J154" s="108" t="s">
-        <v>546</v>
-      </c>
-      <c r="L154" s="107" t="s">
-        <v>595</v>
-      </c>
-      <c r="M154" s="107" t="str">
+      <c r="J155" s="108" t="s">
+        <v>539</v>
+      </c>
+      <c r="L155" s="107" t="s">
+        <v>588</v>
+      </c>
+      <c r="M155" s="107" t="str">
         <f t="shared" si="1"/>
         <v>Chris@climbai.com :4</v>
       </c>
-      <c r="N154" s="107" t="str">
+      <c r="N155" s="107" t="str">
         <f t="shared" si="2"/>
         <v>Chris, 20: 4</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
-      <c r="B155" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="E155" s="113">
+    <row r="156" spans="1:14">
+      <c r="B156" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E156" s="113">
         <v>5</v>
       </c>
-      <c r="F155" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="G155" s="108" t="s">
-        <v>545</v>
-      </c>
-      <c r="H155" s="108">
+      <c r="F156" s="108" t="s">
+        <v>581</v>
+      </c>
+      <c r="G156" s="108" t="s">
+        <v>538</v>
+      </c>
+      <c r="H156" s="108">
         <v>21</v>
       </c>
-      <c r="I155" s="108" t="str">
+      <c r="I156" s="108" t="str">
         <f t="shared" si="0"/>
         <v>Jerry@climbai.com</v>
       </c>
-      <c r="J155" s="108" t="s">
-        <v>547</v>
-      </c>
-      <c r="L155" s="107" t="s">
-        <v>596</v>
-      </c>
-      <c r="M155" s="107" t="str">
+      <c r="J156" s="108" t="s">
+        <v>540</v>
+      </c>
+      <c r="L156" s="107" t="s">
+        <v>589</v>
+      </c>
+      <c r="M156" s="107" t="str">
         <f t="shared" si="1"/>
         <v>Jerry@climbai.com :5</v>
       </c>
-      <c r="N155" s="107" t="str">
+      <c r="N156" s="107" t="str">
         <f t="shared" si="2"/>
         <v>Jerry, 21: 5</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
-      <c r="B156" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
     <row r="157" spans="1:14">
       <c r="B157" s="10" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="B158" s="11"/>
+      <c r="B158" s="10" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="10" t="s">
-        <v>515</v>
-      </c>
+      <c r="B159" s="11"/>
     </row>
     <row r="160" spans="1:14">
-      <c r="B160" s="10" t="s">
-        <v>524</v>
+      <c r="A160" s="10" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="10" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" s="10" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="11"/>
+      <c r="B163" s="10" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="11"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="105" t="s">
-        <v>528</v>
-      </c>
+      <c r="B166" s="23"/>
       <c r="C166" s="23"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="106" t="s">
-        <v>531</v>
+      <c r="B167" s="105" t="s">
+        <v>521</v>
       </c>
       <c r="C167" s="23"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="105" t="s">
-        <v>532</v>
+      <c r="B168" s="106" t="s">
+        <v>524</v>
       </c>
       <c r="C168" s="23"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="105"/>
+      <c r="B169" s="105" t="s">
+        <v>525</v>
+      </c>
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="105" t="s">
-        <v>529</v>
-      </c>
+      <c r="B170" s="105"/>
       <c r="C170" s="23"/>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" s="105" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C171" s="23"/>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" s="105" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="105"/>
+      <c r="B173" s="105" t="s">
+        <v>527</v>
+      </c>
       <c r="C173" s="23"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="105" t="s">
-        <v>530</v>
-      </c>
+      <c r="B174" s="105"/>
       <c r="C174" s="23"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="105" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C175" s="23"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" s="105" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C176" s="23"/>
     </row>
     <row r="177" spans="1:3">
-      <c r="B177" s="23"/>
+      <c r="B177" s="105" t="s">
+        <v>529</v>
+      </c>
       <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="10" t="s">
-        <v>553</v>
-      </c>
       <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="B179" s="104" t="s">
-        <v>554</v>
-      </c>
-      <c r="C179"/>
+      <c r="A179" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B179" s="23"/>
     </row>
     <row r="180" spans="1:3">
       <c r="B180" s="104" t="s">
-        <v>578</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C180"/>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" s="104" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="B182" s="10"/>
+      <c r="B182" s="104" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="B183" s="105" t="s">
-        <v>550</v>
-      </c>
+      <c r="B183" s="10"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="B184" s="126" t="s">
-        <v>551</v>
+      <c r="B184" s="105" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="B185" s="105" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="104" t="s">
-        <v>579</v>
+      <c r="B185" s="126" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="B186" s="105" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="B190" s="104" t="s">
+      <c r="A190" s="104" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="112" t="s">
-        <v>556</v>
-      </c>
-      <c r="B192" s="104"/>
+    <row r="191" spans="1:3">
+      <c r="B191" s="104" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="B193" s="104" t="s">
-        <v>557</v>
-      </c>
+      <c r="A193" s="112" t="s">
+        <v>549</v>
+      </c>
+      <c r="B193" s="104"/>
     </row>
     <row r="194" spans="1:2">
       <c r="B194" s="104" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="B195" s="104" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="B196" s="104"/>
+      <c r="B196" s="104" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="112" t="s">
-        <v>559</v>
-      </c>
+      <c r="B197" s="104"/>
     </row>
     <row r="198" spans="1:2">
-      <c r="B198" s="112" t="s">
-        <v>560</v>
+      <c r="A198" s="112" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="B199" s="112" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="B200" s="112" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="B201" s="112" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="B202" s="104"/>
+      <c r="B202" s="112" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="112" t="s">
-        <v>561</v>
-      </c>
       <c r="B203" s="104"/>
     </row>
     <row r="204" spans="1:2">
-      <c r="B204" s="104" t="s">
-        <v>562</v>
-      </c>
+      <c r="A204" s="112" t="s">
+        <v>554</v>
+      </c>
+      <c r="B204" s="104"/>
     </row>
     <row r="205" spans="1:2">
       <c r="B205" s="104" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="B206" s="104"/>
+      <c r="B206" s="104" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="B207" s="104" t="s">
-        <v>564</v>
-      </c>
+      <c r="B207" s="104"/>
     </row>
     <row r="208" spans="1:2">
       <c r="B208" s="104" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="B209" s="104" t="s">
-        <v>722</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="B210" s="104" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="B211" s="104" t="s">
-        <v>566</v>
+        <v>713</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="B212" s="104" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="B213" s="104" t="s">
-        <v>724</v>
+        <v>560</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="B214" s="104" t="s">
-        <v>568</v>
+        <v>714</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="B215" s="104"/>
+      <c r="B215" s="104" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="112" t="s">
-        <v>569</v>
-      </c>
       <c r="B216" s="104"/>
     </row>
     <row r="217" spans="1:2">
-      <c r="B217" s="104" t="s">
-        <v>577</v>
-      </c>
+      <c r="A217" s="112" t="s">
+        <v>562</v>
+      </c>
+      <c r="B217" s="104"/>
     </row>
     <row r="218" spans="1:2">
       <c r="B218" s="104" t="s">
@@ -11607,34 +11945,36 @@
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="B219" s="112" t="s">
-        <v>580</v>
+      <c r="B219" s="104" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="B220" s="112" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="B221" s="104"/>
+      <c r="B221" s="112" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="B222" s="104" t="s">
-        <v>571</v>
-      </c>
+      <c r="B222" s="104"/>
     </row>
     <row r="223" spans="1:2">
-      <c r="B223" s="104"/>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="104"/>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="104"/>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="104"/>
+      <c r="B223" s="104" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="B224" s="104"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="104"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="104"/>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="104"/>
@@ -11651,25 +11991,28 @@
     <row r="234" spans="2:2">
       <c r="B234" s="104"/>
     </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="104"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C48:C51"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="K41:K43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="K45:K47"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C45:C47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://www.geeksforgeeks.org/sql/sql-create-table/" xr:uid="{3141F896-7D9F-154A-B110-57D1C0AFB65B}"/>
@@ -11688,7 +12031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -11820,7 +12165,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="181" t="s">
         <v>155</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -11834,7 +12179,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="138"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="43" t="s">
         <v>273</v>
       </c>
@@ -11846,7 +12191,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="181" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -11860,7 +12205,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="138"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="16" t="s">
         <v>164</v>
       </c>
@@ -11872,7 +12217,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="181" t="s">
         <v>167</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -11886,7 +12231,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="138"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="16" t="s">
         <v>171</v>
       </c>
@@ -11926,7 +12271,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="181" t="s">
         <v>182</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -11940,7 +12285,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="139"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="16" t="s">
         <v>184</v>
       </c>
@@ -11952,7 +12297,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="138"/>
+      <c r="B26" s="182"/>
       <c r="C26" s="16" t="s">
         <v>187</v>
       </c>
@@ -11992,7 +12337,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="178" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -12006,7 +12351,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="135"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
@@ -12018,7 +12363,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="135"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="16" t="s">
         <v>280</v>
       </c>
@@ -12030,7 +12375,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="135"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="16" t="s">
         <v>203</v>
       </c>
@@ -12042,7 +12387,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="135"/>
+      <c r="B39" s="179"/>
       <c r="C39" s="16" t="s">
         <v>205</v>
       </c>
@@ -12054,7 +12399,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="136"/>
+      <c r="B40" s="180"/>
       <c r="C40" s="16" t="s">
         <v>207</v>
       </c>
@@ -12066,7 +12411,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="178" t="s">
         <v>210</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -12080,7 +12425,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="135"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="16" t="s">
         <v>214</v>
       </c>
@@ -12092,7 +12437,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="135"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="44" t="s">
         <v>282</v>
       </c>
@@ -12107,7 +12452,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="135"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="16" t="s">
         <v>281</v>
       </c>
@@ -12119,7 +12464,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="135"/>
+      <c r="B45" s="179"/>
       <c r="C45" s="16" t="s">
         <v>219</v>
       </c>
@@ -12134,7 +12479,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="136"/>
+      <c r="B46" s="180"/>
       <c r="C46" s="16" t="s">
         <v>221</v>
       </c>
@@ -12147,7 +12492,7 @@
       <c r="L46" s="31"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="134" t="s">
+      <c r="B47" s="178" t="s">
         <v>223</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -12164,7 +12509,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="135"/>
+      <c r="B48" s="179"/>
       <c r="C48" s="16" t="s">
         <v>227</v>
       </c>
@@ -12177,7 +12522,7 @@
       <c r="L48" s="31"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="135"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="16" t="s">
         <v>230</v>
       </c>
@@ -12192,7 +12537,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="135"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="16" t="s">
         <v>233</v>
       </c>
@@ -12205,7 +12550,7 @@
       <c r="L50" s="31"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="135"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="16" t="s">
         <v>236</v>
       </c>
@@ -12220,7 +12565,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="136"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="16" t="s">
         <v>239</v>
       </c>
@@ -12232,7 +12577,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="134" t="s">
+      <c r="B53" s="178" t="s">
         <v>242</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -12246,7 +12591,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="135"/>
+      <c r="B54" s="179"/>
       <c r="C54" s="16" t="s">
         <v>246</v>
       </c>
@@ -12258,7 +12603,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="135"/>
+      <c r="B55" s="179"/>
       <c r="C55" s="16" t="s">
         <v>249</v>
       </c>
@@ -12270,7 +12615,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="135"/>
+      <c r="B56" s="179"/>
       <c r="C56" s="16" t="s">
         <v>252</v>
       </c>
@@ -12282,7 +12627,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="136"/>
+      <c r="B57" s="180"/>
       <c r="C57" s="16" t="s">
         <v>255</v>
       </c>
@@ -12294,7 +12639,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="134" t="s">
+      <c r="B58" s="178" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -12308,7 +12653,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="135"/>
+      <c r="B59" s="179"/>
       <c r="C59" s="16" t="s">
         <v>262</v>
       </c>
@@ -12320,7 +12665,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="135"/>
+      <c r="B60" s="179"/>
       <c r="C60" s="16" t="s">
         <v>265</v>
       </c>
@@ -12332,7 +12677,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="136"/>
+      <c r="B61" s="180"/>
       <c r="C61" s="16" t="s">
         <v>268</v>
       </c>
